--- a/3. Bears_and_Bugs.jar_Metrics/Bugs_jar_Complexity_51_Avg.xlsx
+++ b/3. Bears_and_Bugs.jar_Metrics/Bugs_jar_Complexity_51_Avg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UROS\Desktop\VM Shared Folder\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UROS\Documents\GitHub\APR-PQA\3. Bears_and_Bugs.jar_Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="254">
   <si>
     <t>Bugs.jar (analysis done Today 04:38 most recent)</t>
   </si>
@@ -1395,18 +1395,6 @@
     <t>Cyclomatic Complexity</t>
   </si>
   <si>
-    <t>Single-Avg-Fixed</t>
-  </si>
-  <si>
-    <t>Single-Avg-Repaired</t>
-  </si>
-  <si>
-    <t>Multi-Avg-Fixed</t>
-  </si>
-  <si>
-    <t>Multi-Avg-Repaired</t>
-  </si>
-  <si>
     <t>Project Type</t>
   </si>
   <si>
@@ -1462,6 +1450,63 @@
   </si>
   <si>
     <t>Avg-Jackrabbit-Oak-Repaired</t>
+  </si>
+  <si>
+    <t>Lines</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Single-Chunk-Avg-Fixed</t>
+  </si>
+  <si>
+    <t>Single-Chunk-Avg-Repaired</t>
+  </si>
+  <si>
+    <t>Multi-Chunk-Avg-Fixed</t>
+  </si>
+  <si>
+    <t>Multi-Chunk-Avg-Repaired</t>
+  </si>
+  <si>
+    <t>Single-Lines-Avg-Fixed</t>
+  </si>
+  <si>
+    <t>Single-Lines-Avg-Repaired</t>
+  </si>
+  <si>
+    <t>Multi-Lines-Avg-Fixed</t>
+  </si>
+  <si>
+    <t>Multi-Lines-Avg-Repaired</t>
+  </si>
+  <si>
+    <t>Single-Chunk-Single-Edit-Avg-Fixed</t>
+  </si>
+  <si>
+    <t>Single-Chunk-Single-Edit-Avg-Repaired</t>
+  </si>
+  <si>
+    <t>Single-Chunk-Multi-Edits-Avg-Fixed</t>
+  </si>
+  <si>
+    <t>Single-Chunk-Multi-Edits-Avg-Repaired</t>
+  </si>
+  <si>
+    <t>Multi-Chunk-Single-Edit-Avg-Fixed</t>
+  </si>
+  <si>
+    <t>Multi-Chunk-Single-Edit-Avg-Repaired</t>
+  </si>
+  <si>
+    <t>Multi-Chunk-Multi-Edits-Avg-Fixed</t>
+  </si>
+  <si>
+    <t>Multi-Chunk-Multi-Edits-Avg-Repaired</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1922,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2044,6 +2089,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2089,7 +2145,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2164,6 +2220,8 @@
     <xf numFmtId="164" fontId="18" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2209,7 +2267,607 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="81">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
@@ -2711,10 +3369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S238"/>
+  <dimension ref="A1:AF238"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A176" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A211" sqref="A211"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O171" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T202" sqref="T202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -2827,32 +3485,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>211</v>
       </c>
@@ -2907,8 +3565,11 @@
       <c r="R23" s="12" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S23" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>30</v>
       </c>
@@ -2958,8 +3619,9 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S24" s="13"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>166</v>
       </c>
@@ -3009,8 +3671,9 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S25" s="13"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>87</v>
       </c>
@@ -3060,8 +3723,9 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S26" s="13"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>45</v>
       </c>
@@ -3111,8 +3775,9 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S27" s="13"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>93</v>
       </c>
@@ -3162,8 +3827,9 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S28" s="13"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>128</v>
       </c>
@@ -3213,8 +3879,9 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S29" s="13"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -3264,8 +3931,9 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S30" s="13"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -3315,8 +3983,9 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S31" s="13"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>127</v>
       </c>
@@ -3366,8 +4035,9 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S32" s="13"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
@@ -3417,8 +4087,9 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S33" s="13"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>63</v>
       </c>
@@ -3468,8 +4139,9 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S34" s="13"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>60</v>
       </c>
@@ -3519,8 +4191,9 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S35" s="13"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>143</v>
       </c>
@@ -3570,8 +4243,9 @@
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S36" s="13"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>103</v>
       </c>
@@ -3621,8 +4295,9 @@
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S37" s="13"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>119</v>
       </c>
@@ -3672,8 +4347,9 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S38" s="13"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>100</v>
       </c>
@@ -3723,8 +4399,9 @@
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S39" s="13"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>175</v>
       </c>
@@ -3774,8 +4451,9 @@
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S40" s="13"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>79</v>
       </c>
@@ -3825,8 +4503,9 @@
       <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
       <c r="R41" s="13"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S41" s="13"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>164</v>
       </c>
@@ -3876,8 +4555,9 @@
       <c r="P42" s="13"/>
       <c r="Q42" s="13"/>
       <c r="R42" s="13"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S42" s="13"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>86</v>
       </c>
@@ -3927,8 +4607,9 @@
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
       <c r="R43" s="13"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S43" s="13"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>138</v>
       </c>
@@ -3978,8 +4659,9 @@
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
       <c r="R44" s="13"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S44" s="13"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>148</v>
       </c>
@@ -4029,8 +4711,9 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
       <c r="R45" s="13"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S45" s="13"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>133</v>
       </c>
@@ -4080,8 +4763,9 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
       <c r="R46" s="13"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S46" s="13"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>38</v>
       </c>
@@ -4131,8 +4815,9 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
       <c r="R47" s="13"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S47" s="13"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>147</v>
       </c>
@@ -4182,8 +4867,9 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
       <c r="R48" s="13"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S48" s="13"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>96</v>
       </c>
@@ -4233,8 +4919,9 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
       <c r="R49" s="13"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S49" s="13"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>99</v>
       </c>
@@ -4284,8 +4971,9 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
       <c r="R50" s="13"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S50" s="13"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>115</v>
       </c>
@@ -4335,8 +5023,9 @@
       <c r="P51" s="13"/>
       <c r="Q51" s="13"/>
       <c r="R51" s="13"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S51" s="13"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>50</v>
       </c>
@@ -4386,8 +5075,9 @@
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
       <c r="R52" s="13"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S52" s="13"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>66</v>
       </c>
@@ -4437,8 +5127,9 @@
       <c r="P53" s="13"/>
       <c r="Q53" s="13"/>
       <c r="R53" s="13"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S53" s="13"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>58</v>
       </c>
@@ -4488,8 +5179,9 @@
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
       <c r="R54" s="13"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S54" s="13"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>106</v>
       </c>
@@ -4539,8 +5231,9 @@
       <c r="P55" s="13"/>
       <c r="Q55" s="13"/>
       <c r="R55" s="13"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S55" s="13"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>39</v>
       </c>
@@ -4590,8 +5283,9 @@
       <c r="P56" s="13"/>
       <c r="Q56" s="13"/>
       <c r="R56" s="13"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S56" s="13"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>80</v>
       </c>
@@ -4641,8 +5335,9 @@
       <c r="P57" s="13"/>
       <c r="Q57" s="13"/>
       <c r="R57" s="13"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S57" s="13"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>33</v>
       </c>
@@ -4692,8 +5387,9 @@
       <c r="P58" s="13"/>
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S58" s="13"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>72</v>
       </c>
@@ -4743,8 +5439,9 @@
       <c r="P59" s="13"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="13"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S59" s="13"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>142</v>
       </c>
@@ -4794,8 +5491,9 @@
       <c r="P60" s="13"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S60" s="13"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>112</v>
       </c>
@@ -4845,8 +5543,9 @@
       <c r="P61" s="13"/>
       <c r="Q61" s="13"/>
       <c r="R61" s="13"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S61" s="13"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>121</v>
       </c>
@@ -4896,8 +5595,9 @@
       <c r="P62" s="13"/>
       <c r="Q62" s="13"/>
       <c r="R62" s="13"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S62" s="13"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>137</v>
       </c>
@@ -4947,8 +5647,9 @@
       <c r="P63" s="13"/>
       <c r="Q63" s="13"/>
       <c r="R63" s="13"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S63" s="13"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>116</v>
       </c>
@@ -4998,8 +5699,9 @@
       <c r="P64" s="13"/>
       <c r="Q64" s="13"/>
       <c r="R64" s="13"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S64" s="13"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>35</v>
       </c>
@@ -5049,8 +5751,9 @@
       <c r="P65" s="13"/>
       <c r="Q65" s="13"/>
       <c r="R65" s="13"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S65" s="13"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>65</v>
       </c>
@@ -5100,8 +5803,9 @@
       <c r="P66" s="13"/>
       <c r="Q66" s="13"/>
       <c r="R66" s="13"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S66" s="13"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>26</v>
       </c>
@@ -5151,8 +5855,9 @@
       <c r="P67" s="13"/>
       <c r="Q67" s="13"/>
       <c r="R67" s="13"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S67" s="13"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>122</v>
       </c>
@@ -5202,8 +5907,9 @@
       <c r="P68" s="13"/>
       <c r="Q68" s="13"/>
       <c r="R68" s="13"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S68" s="13"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>113</v>
       </c>
@@ -5253,8 +5959,9 @@
       <c r="P69" s="13"/>
       <c r="Q69" s="13"/>
       <c r="R69" s="13"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S69" s="13"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>118</v>
       </c>
@@ -5304,8 +6011,9 @@
       <c r="P70" s="13"/>
       <c r="Q70" s="13"/>
       <c r="R70" s="13"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S70" s="13"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>36</v>
       </c>
@@ -5355,8 +6063,9 @@
       <c r="P71" s="13"/>
       <c r="Q71" s="13"/>
       <c r="R71" s="13"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S71" s="13"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>37</v>
       </c>
@@ -5406,8 +6115,9 @@
       <c r="P72" s="13"/>
       <c r="Q72" s="13"/>
       <c r="R72" s="13"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S72" s="13"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>46</v>
       </c>
@@ -5457,8 +6167,9 @@
       <c r="P73" s="13"/>
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
-    </row>
-    <row r="74" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S73" s="13"/>
+    </row>
+    <row r="74" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="18" t="s">
         <v>92</v>
       </c>
@@ -5508,8 +6219,9 @@
       <c r="P74" s="20"/>
       <c r="Q74" s="20"/>
       <c r="R74" s="20"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S74" s="20"/>
+    </row>
+    <row r="75" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>56</v>
       </c>
@@ -5565,12 +6277,28 @@
       <c r="R75" s="23">
         <v>3</v>
       </c>
-      <c r="S75" s="1">
+      <c r="S75" s="17">
         <f>Q75+R75</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U75" s="1" t="str">
+        <f>IF(AND(P75&gt;1,P75=S75), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="V75" s="1" t="str">
+        <f>IF(AND(P75&gt;1,P75&lt;S75), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="W75" t="str">
+        <f>IF(AND(P75&gt;1,P126&gt;1,P75=S75,P126=S126), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="X75" t="str">
+        <f>IF(AND(P75&gt;1,P126&gt;1,P75&lt;S75,P126&lt;S126), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" s="21" t="s">
         <v>141</v>
       </c>
@@ -5626,12 +6354,28 @@
       <c r="R76" s="24">
         <v>3</v>
       </c>
-      <c r="S76" s="1">
+      <c r="S76" s="13">
         <f t="shared" ref="S76:S139" si="3">Q76+R76</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U76" s="1" t="str">
+        <f t="shared" ref="U76:U139" si="4">IF(AND(P76&gt;1,P76=S76), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="V76" s="1" t="str">
+        <f t="shared" ref="V76:V139" si="5">IF(AND(P76&gt;1,P76&lt;S76), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="W76" t="str">
+        <f t="shared" ref="W76:W139" si="6">IF(AND(P76&gt;1,P127&gt;1,P76=S76,P127=S127), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="X76" t="str">
+        <f t="shared" ref="X76:X139" si="7">IF(AND(P76&gt;1,P127&gt;1,P76&lt;S76,P127&lt;S127), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>173</v>
       </c>
@@ -5687,12 +6431,28 @@
       <c r="R77" s="23">
         <v>3</v>
       </c>
-      <c r="S77" s="1">
+      <c r="S77" s="13">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U77" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V77" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W77" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X77" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>135</v>
       </c>
@@ -5748,12 +6508,28 @@
       <c r="R78" s="23">
         <v>3</v>
       </c>
-      <c r="S78" s="1">
+      <c r="S78" s="13">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U78" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V78" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W78" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X78" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>117</v>
       </c>
@@ -5809,12 +6585,28 @@
       <c r="R79" s="23">
         <v>3</v>
       </c>
-      <c r="S79" s="1">
+      <c r="S79" s="13">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U79" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V79" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W79" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X79" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>134</v>
       </c>
@@ -5870,12 +6662,28 @@
       <c r="R80" s="23">
         <v>19</v>
       </c>
-      <c r="S80" s="1">
+      <c r="S80" s="13">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U80" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V80" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W80" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X80" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>32</v>
       </c>
@@ -5931,12 +6739,28 @@
       <c r="R81" s="23">
         <v>19</v>
       </c>
-      <c r="S81" s="1">
+      <c r="S81" s="13">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U81" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V81" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W81" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X81" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>73</v>
       </c>
@@ -5992,12 +6816,28 @@
       <c r="R82" s="23">
         <v>19</v>
       </c>
-      <c r="S82" s="1">
+      <c r="S82" s="13">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U82" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V82" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W82" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X82" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>169</v>
       </c>
@@ -6053,12 +6893,28 @@
       <c r="R83" s="23">
         <v>19</v>
       </c>
-      <c r="S83" s="1">
+      <c r="S83" s="13">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U83" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V83" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W83" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X83" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>78</v>
       </c>
@@ -6114,12 +6970,28 @@
       <c r="R84" s="23">
         <v>19</v>
       </c>
-      <c r="S84" s="1">
+      <c r="S84" s="13">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U84" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V84" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W84" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X84" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>40</v>
       </c>
@@ -6175,12 +7047,28 @@
       <c r="R85" s="23">
         <v>13</v>
       </c>
-      <c r="S85" s="1">
+      <c r="S85" s="13">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U85" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V85" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W85" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X85" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>90</v>
       </c>
@@ -6236,12 +7124,28 @@
       <c r="R86" s="23">
         <v>13</v>
       </c>
-      <c r="S86" s="1">
+      <c r="S86" s="13">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U86" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V86" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W86" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X86" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>83</v>
       </c>
@@ -6297,12 +7201,28 @@
       <c r="R87" s="23">
         <v>13</v>
       </c>
-      <c r="S87" s="1">
+      <c r="S87" s="13">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U87" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V87" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W87" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X87" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>23</v>
       </c>
@@ -6358,12 +7278,28 @@
       <c r="R88" s="23">
         <v>13</v>
       </c>
-      <c r="S88" s="1">
+      <c r="S88" s="13">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U88" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V88" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W88" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X88" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>98</v>
       </c>
@@ -6407,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="13" t="str">
-        <f t="shared" ref="O89:O120" si="4">IF(NOT(ISERR(SEARCH("*_Buggy",$A89))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A89))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A89))), "Repaired", "")))</f>
+        <f t="shared" ref="O89:O120" si="8">IF(NOT(ISERR(SEARCH("*_Buggy",$A89))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A89))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A89))), "Repaired", "")))</f>
         <v>Fixed</v>
       </c>
       <c r="P89" s="23">
@@ -6419,12 +7355,28 @@
       <c r="R89" s="23">
         <v>13</v>
       </c>
-      <c r="S89" s="1">
+      <c r="S89" s="13">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U89" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V89" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W89" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X89" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>171</v>
       </c>
@@ -6468,7 +7420,7 @@
         <v>4.62</v>
       </c>
       <c r="O90" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P90" s="23">
@@ -6480,12 +7432,28 @@
       <c r="R90" s="23">
         <v>7</v>
       </c>
-      <c r="S90" s="1">
+      <c r="S90" s="13">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U90" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V90" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W90" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X90" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>101</v>
       </c>
@@ -6529,7 +7497,7 @@
         <v>4.62</v>
       </c>
       <c r="O91" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P91" s="23">
@@ -6541,12 +7509,28 @@
       <c r="R91" s="23">
         <v>7</v>
       </c>
-      <c r="S91" s="1">
+      <c r="S91" s="13">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U91" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V91" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W91" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X91" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>132</v>
       </c>
@@ -6590,7 +7574,7 @@
         <v>4.62</v>
       </c>
       <c r="O92" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P92" s="23">
@@ -6602,12 +7586,28 @@
       <c r="R92" s="23">
         <v>7</v>
       </c>
-      <c r="S92" s="1">
+      <c r="S92" s="13">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U92" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V92" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W92" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X92" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>69</v>
       </c>
@@ -6651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P93" s="23">
@@ -6663,12 +7663,28 @@
       <c r="R93" s="23">
         <v>2</v>
       </c>
-      <c r="S93" s="1">
+      <c r="S93" s="13">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U93" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V93" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W93" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X93" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>126</v>
       </c>
@@ -6712,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P94" s="23">
@@ -6724,12 +7740,28 @@
       <c r="R94" s="23">
         <v>2</v>
       </c>
-      <c r="S94" s="1">
+      <c r="S94" s="13">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U94" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V94" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W94" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X94" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>161</v>
       </c>
@@ -6773,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P95" s="23">
@@ -6785,12 +7817,28 @@
       <c r="R95" s="23">
         <v>3</v>
       </c>
-      <c r="S95" s="1">
+      <c r="S95" s="13">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U95" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V95" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W95" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X95" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>47</v>
       </c>
@@ -6834,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P96" s="23">
@@ -6846,12 +7894,28 @@
       <c r="R96" s="23">
         <v>4</v>
       </c>
-      <c r="S96" s="1">
+      <c r="S96" s="13">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U96" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V96" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W96" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X96" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>111</v>
       </c>
@@ -6895,7 +7959,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="O97" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P97" s="23">
@@ -6907,12 +7971,28 @@
       <c r="R97" s="23">
         <v>29</v>
       </c>
-      <c r="S97" s="1">
+      <c r="S97" s="13">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U97" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V97" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W97" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X97" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>129</v>
       </c>
@@ -6956,7 +8036,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="O98" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P98" s="23">
@@ -6968,12 +8048,28 @@
       <c r="R98" s="23">
         <v>4</v>
       </c>
-      <c r="S98" s="1">
+      <c r="S98" s="13">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U98" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V98" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W98" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X98" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>64</v>
       </c>
@@ -7017,7 +8113,7 @@
         <v>0.83</v>
       </c>
       <c r="O99" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P99" s="23">
@@ -7029,12 +8125,28 @@
       <c r="R99" s="23">
         <v>3</v>
       </c>
-      <c r="S99" s="1">
+      <c r="S99" s="13">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U99" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V99" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W99" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X99" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>105</v>
       </c>
@@ -7078,7 +8190,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="O100" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P100" s="23">
@@ -7090,12 +8202,28 @@
       <c r="R100" s="23">
         <v>1</v>
       </c>
-      <c r="S100" s="1">
+      <c r="S100" s="13">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U100" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V100" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W100" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X100" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>53</v>
       </c>
@@ -7139,7 +8267,7 @@
         <v>0.82</v>
       </c>
       <c r="O101" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P101" s="23">
@@ -7151,12 +8279,28 @@
       <c r="R101" s="23">
         <v>19</v>
       </c>
-      <c r="S101" s="1">
+      <c r="S101" s="13">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U101" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V101" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W101" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X101" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>74</v>
       </c>
@@ -7200,7 +8344,7 @@
         <v>0.82</v>
       </c>
       <c r="O102" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P102" s="23">
@@ -7212,12 +8356,28 @@
       <c r="R102" s="23">
         <v>19</v>
       </c>
-      <c r="S102" s="1">
+      <c r="S102" s="13">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U102" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V102" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W102" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X102" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>51</v>
       </c>
@@ -7261,7 +8421,7 @@
         <v>0.82</v>
       </c>
       <c r="O103" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P103" s="23">
@@ -7273,12 +8433,28 @@
       <c r="R103" s="23">
         <v>19</v>
       </c>
-      <c r="S103" s="1">
+      <c r="S103" s="13">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U103" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V103" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W103" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X103" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>125</v>
       </c>
@@ -7322,7 +8498,7 @@
         <v>0.82</v>
       </c>
       <c r="O104" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P104" s="23">
@@ -7334,12 +8510,28 @@
       <c r="R104" s="23">
         <v>19</v>
       </c>
-      <c r="S104" s="1">
+      <c r="S104" s="13">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U104" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V104" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W104" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X104" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>146</v>
       </c>
@@ -7383,7 +8575,7 @@
         <v>0.82</v>
       </c>
       <c r="O105" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P105" s="23">
@@ -7395,12 +8587,28 @@
       <c r="R105" s="23">
         <v>19</v>
       </c>
-      <c r="S105" s="1">
+      <c r="S105" s="13">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U105" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V105" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W105" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X105" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>70</v>
       </c>
@@ -7444,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P106" s="23">
@@ -7456,12 +8664,28 @@
       <c r="R106" s="23">
         <v>13</v>
       </c>
-      <c r="S106" s="1">
+      <c r="S106" s="13">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U106" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V106" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W106" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X106" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>172</v>
       </c>
@@ -7505,7 +8729,7 @@
         <v>0.82</v>
       </c>
       <c r="O107" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P107" s="23">
@@ -7517,12 +8741,28 @@
       <c r="R107" s="23">
         <v>5</v>
       </c>
-      <c r="S107" s="1">
+      <c r="S107" s="13">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U107" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V107" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W107" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X107" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>24</v>
       </c>
@@ -7566,7 +8806,7 @@
         <v>0.82</v>
       </c>
       <c r="O108" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P108" s="23">
@@ -7578,12 +8818,28 @@
       <c r="R108" s="23">
         <v>5</v>
       </c>
-      <c r="S108" s="1">
+      <c r="S108" s="13">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U108" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V108" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W108" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X108" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>81</v>
       </c>
@@ -7627,7 +8883,7 @@
         <v>0.82</v>
       </c>
       <c r="O109" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P109" s="23">
@@ -7639,12 +8895,28 @@
       <c r="R109" s="23">
         <v>5</v>
       </c>
-      <c r="S109" s="1">
+      <c r="S109" s="13">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U109" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V109" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W109" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X109" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>168</v>
       </c>
@@ -7688,7 +8960,7 @@
         <v>0.82</v>
       </c>
       <c r="O110" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P110" s="23">
@@ -7700,12 +8972,28 @@
       <c r="R110" s="23">
         <v>5</v>
       </c>
-      <c r="S110" s="1">
+      <c r="S110" s="13">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U110" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V110" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W110" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X110" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>158</v>
       </c>
@@ -7749,7 +9037,7 @@
         <v>0.82</v>
       </c>
       <c r="O111" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P111" s="23">
@@ -7761,12 +9049,28 @@
       <c r="R111" s="23">
         <v>5</v>
       </c>
-      <c r="S111" s="1">
+      <c r="S111" s="13">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U111" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V111" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W111" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X111" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>84</v>
       </c>
@@ -7810,7 +9114,7 @@
         <v>68.92</v>
       </c>
       <c r="O112" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P112" s="23">
@@ -7822,12 +9126,28 @@
       <c r="R112" s="23">
         <v>1</v>
       </c>
-      <c r="S112" s="1">
+      <c r="S112" s="13">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U112" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V112" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W112" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X112" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>42</v>
       </c>
@@ -7871,7 +9191,7 @@
         <v>4.62</v>
       </c>
       <c r="O113" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P113" s="23">
@@ -7883,12 +9203,28 @@
       <c r="R113" s="23">
         <v>7</v>
       </c>
-      <c r="S113" s="1">
+      <c r="S113" s="13">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U113" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V113" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W113" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X113" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>68</v>
       </c>
@@ -7932,7 +9268,7 @@
         <v>0.82</v>
       </c>
       <c r="O114" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P114" s="23">
@@ -7944,12 +9280,28 @@
       <c r="R114" s="23">
         <v>19</v>
       </c>
-      <c r="S114" s="1">
+      <c r="S114" s="13">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U114" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V114" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W114" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X114" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>95</v>
       </c>
@@ -7993,7 +9345,7 @@
         <v>4.62</v>
       </c>
       <c r="O115" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P115" s="23">
@@ -8005,12 +9357,28 @@
       <c r="R115" s="23">
         <v>7</v>
       </c>
-      <c r="S115" s="1">
+      <c r="S115" s="13">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U115" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V115" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W115" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X115" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>154</v>
       </c>
@@ -8054,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P116" s="23">
@@ -8066,12 +9434,28 @@
       <c r="R116" s="23">
         <v>3</v>
       </c>
-      <c r="S116" s="1">
+      <c r="S116" s="13">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U116" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V116" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W116" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X116" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>144</v>
       </c>
@@ -8115,7 +9499,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O117" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P117" s="23">
@@ -8127,12 +9511,28 @@
       <c r="R117" s="23">
         <v>21</v>
       </c>
-      <c r="S117" s="1">
+      <c r="S117" s="13">
         <f t="shared" si="3"/>
         <v>141</v>
       </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U117" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V117" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W117" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X117" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>174</v>
       </c>
@@ -8176,7 +9576,7 @@
         <v>0.82</v>
       </c>
       <c r="O118" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P118" s="23">
@@ -8188,12 +9588,28 @@
       <c r="R118" s="23">
         <v>19</v>
       </c>
-      <c r="S118" s="1">
+      <c r="S118" s="13">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U118" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V118" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W118" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X118" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>77</v>
       </c>
@@ -8237,7 +9653,7 @@
         <v>0.82</v>
       </c>
       <c r="O119" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P119" s="23">
@@ -8249,12 +9665,28 @@
       <c r="R119" s="23">
         <v>19</v>
       </c>
-      <c r="S119" s="1">
+      <c r="S119" s="13">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U119" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V119" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W119" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X119" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>49</v>
       </c>
@@ -8298,7 +9730,7 @@
         <v>0.82</v>
       </c>
       <c r="O120" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Fixed</v>
       </c>
       <c r="P120" s="23">
@@ -8310,12 +9742,28 @@
       <c r="R120" s="23">
         <v>19</v>
       </c>
-      <c r="S120" s="1">
+      <c r="S120" s="13">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U120" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V120" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W120" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X120" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>153</v>
       </c>
@@ -8359,7 +9807,7 @@
         <v>0.82</v>
       </c>
       <c r="O121" s="13" t="str">
-        <f t="shared" ref="O121:O152" si="5">IF(NOT(ISERR(SEARCH("*_Buggy",$A121))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A121))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A121))), "Repaired", "")))</f>
+        <f t="shared" ref="O121:O152" si="9">IF(NOT(ISERR(SEARCH("*_Buggy",$A121))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A121))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A121))), "Repaired", "")))</f>
         <v>Fixed</v>
       </c>
       <c r="P121" s="23">
@@ -8371,12 +9819,28 @@
       <c r="R121" s="23">
         <v>19</v>
       </c>
-      <c r="S121" s="1">
+      <c r="S121" s="13">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U121" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V121" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W121" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X121" t="str">
+        <f t="shared" si="7"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>48</v>
       </c>
@@ -8420,7 +9884,7 @@
         <v>0.82</v>
       </c>
       <c r="O122" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Fixed</v>
       </c>
       <c r="P122" s="23">
@@ -8432,12 +9896,28 @@
       <c r="R122" s="23">
         <v>19</v>
       </c>
-      <c r="S122" s="1">
+      <c r="S122" s="13">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U122" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V122" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W122" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X122" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>91</v>
       </c>
@@ -8481,7 +9961,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Fixed</v>
       </c>
       <c r="P123" s="23">
@@ -8493,12 +9973,28 @@
       <c r="R123" s="23">
         <v>13</v>
       </c>
-      <c r="S123" s="1">
+      <c r="S123" s="13">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U123" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V123" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W123" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X123" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>145</v>
       </c>
@@ -8542,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="O124" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Fixed</v>
       </c>
       <c r="P124" s="23">
@@ -8554,12 +10050,28 @@
       <c r="R124" s="23">
         <v>13</v>
       </c>
-      <c r="S124" s="1">
+      <c r="S124" s="13">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="125" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="U124" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V124" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W124" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X124" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="18" t="s">
         <v>41</v>
       </c>
@@ -8603,7 +10115,7 @@
         <v>4.62</v>
       </c>
       <c r="O125" s="20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Fixed</v>
       </c>
       <c r="P125" s="25">
@@ -8615,12 +10127,29 @@
       <c r="R125" s="25">
         <v>7</v>
       </c>
-      <c r="S125" s="1">
+      <c r="S125" s="20">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T125" s="32"/>
+      <c r="U125" s="30" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V125" s="30" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W125" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>NO</v>
+      </c>
+      <c r="X125" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A126" s="15" t="s">
         <v>140</v>
       </c>
@@ -8664,7 +10193,7 @@
         <v>0.95</v>
       </c>
       <c r="O126" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P126" s="24">
@@ -8676,12 +10205,26 @@
       <c r="R126" s="24">
         <v>3</v>
       </c>
-      <c r="S126" s="1">
+      <c r="S126" s="17">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U126" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V126" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W126" t="s">
+        <v>236</v>
+      </c>
+      <c r="X126" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>97</v>
       </c>
@@ -8725,7 +10268,7 @@
         <v>0.95</v>
       </c>
       <c r="O127" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P127" s="23">
@@ -8737,12 +10280,26 @@
       <c r="R127" s="23">
         <v>3</v>
       </c>
-      <c r="S127" s="1">
+      <c r="S127" s="13">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U127" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V127" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W127" t="s">
+        <v>236</v>
+      </c>
+      <c r="X127" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>107</v>
       </c>
@@ -8786,7 +10343,7 @@
         <v>0.95</v>
       </c>
       <c r="O128" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P128" s="23">
@@ -8798,12 +10355,26 @@
       <c r="R128" s="23">
         <v>4</v>
       </c>
-      <c r="S128" s="1">
+      <c r="S128" s="13">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U128" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V128" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W128" t="s">
+        <v>236</v>
+      </c>
+      <c r="X128" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>43</v>
       </c>
@@ -8847,7 +10418,7 @@
         <v>0.95</v>
       </c>
       <c r="O129" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P129" s="23">
@@ -8859,12 +10430,26 @@
       <c r="R129" s="23">
         <v>8</v>
       </c>
-      <c r="S129" s="1">
+      <c r="S129" s="13">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U129" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V129" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W129" t="s">
+        <v>236</v>
+      </c>
+      <c r="X129" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>61</v>
       </c>
@@ -8908,7 +10493,7 @@
         <v>0.95</v>
       </c>
       <c r="O130" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P130" s="23">
@@ -8920,12 +10505,26 @@
       <c r="R130" s="23">
         <v>4</v>
       </c>
-      <c r="S130" s="1">
+      <c r="S130" s="13">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U130" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V130" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W130" t="s">
+        <v>236</v>
+      </c>
+      <c r="X130" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>159</v>
       </c>
@@ -8969,7 +10568,7 @@
         <v>0.82</v>
       </c>
       <c r="O131" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P131" s="23">
@@ -8981,12 +10580,26 @@
       <c r="R131" s="23">
         <v>2</v>
       </c>
-      <c r="S131" s="1">
+      <c r="S131" s="13">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U131" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V131" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W131" t="s">
+        <v>236</v>
+      </c>
+      <c r="X131" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>170</v>
       </c>
@@ -9030,7 +10643,7 @@
         <v>0.82</v>
       </c>
       <c r="O132" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P132" s="23">
@@ -9042,12 +10655,26 @@
       <c r="R132" s="13">
         <v>0</v>
       </c>
-      <c r="S132" s="1">
+      <c r="S132" s="13">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U132" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>YES</v>
+      </c>
+      <c r="V132" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W132" t="s">
+        <v>236</v>
+      </c>
+      <c r="X132" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>156</v>
       </c>
@@ -9091,7 +10718,7 @@
         <v>0.82</v>
       </c>
       <c r="O133" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P133" s="23">
@@ -9103,12 +10730,26 @@
       <c r="R133" s="23">
         <v>1</v>
       </c>
-      <c r="S133" s="1">
+      <c r="S133" s="13">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U133" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V133" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>NO</v>
+      </c>
+      <c r="W133" t="s">
+        <v>236</v>
+      </c>
+      <c r="X133" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>28</v>
       </c>
@@ -9152,7 +10793,7 @@
         <v>0.82</v>
       </c>
       <c r="O134" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P134" s="23">
@@ -9164,12 +10805,26 @@
       <c r="R134" s="23">
         <v>2</v>
       </c>
-      <c r="S134" s="1">
+      <c r="S134" s="13">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U134" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V134" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W134" t="s">
+        <v>236</v>
+      </c>
+      <c r="X134" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>149</v>
       </c>
@@ -9213,7 +10868,7 @@
         <v>0.82</v>
       </c>
       <c r="O135" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P135" s="23">
@@ -9225,12 +10880,26 @@
       <c r="R135" s="23">
         <v>2</v>
       </c>
-      <c r="S135" s="1">
+      <c r="S135" s="13">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U135" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V135" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W135" t="s">
+        <v>236</v>
+      </c>
+      <c r="X135" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>82</v>
       </c>
@@ -9274,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="O136" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P136" s="23">
@@ -9286,12 +10955,26 @@
       <c r="R136" s="23">
         <v>15</v>
       </c>
-      <c r="S136" s="1">
+      <c r="S136" s="13">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U136" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V136" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W136" t="s">
+        <v>236</v>
+      </c>
+      <c r="X136" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>44</v>
       </c>
@@ -9335,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="O137" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P137" s="23">
@@ -9347,12 +11030,26 @@
       <c r="R137" s="23">
         <v>16</v>
       </c>
-      <c r="S137" s="1">
+      <c r="S137" s="13">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U137" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V137" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W137" t="s">
+        <v>236</v>
+      </c>
+      <c r="X137" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>157</v>
       </c>
@@ -9396,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="O138" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P138" s="23">
@@ -9408,12 +11105,26 @@
       <c r="R138" s="23">
         <v>14</v>
       </c>
-      <c r="S138" s="1">
+      <c r="S138" s="13">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U138" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V138" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W138" t="s">
+        <v>236</v>
+      </c>
+      <c r="X138" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>67</v>
       </c>
@@ -9457,7 +11168,7 @@
         <v>0</v>
       </c>
       <c r="O139" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P139" s="23">
@@ -9469,12 +11180,26 @@
       <c r="R139" s="23">
         <v>11</v>
       </c>
-      <c r="S139" s="1">
+      <c r="S139" s="13">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U139" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>NO</v>
+      </c>
+      <c r="V139" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>YES</v>
+      </c>
+      <c r="W139" t="s">
+        <v>236</v>
+      </c>
+      <c r="X139" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>160</v>
       </c>
@@ -9518,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="O140" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P140" s="23">
@@ -9530,12 +11255,26 @@
       <c r="R140" s="23">
         <v>11</v>
       </c>
-      <c r="S140" s="1">
-        <f t="shared" ref="S140:S176" si="6">Q140+R140</f>
+      <c r="S140" s="13">
+        <f t="shared" ref="S140:S176" si="10">Q140+R140</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U140" s="1" t="str">
+        <f t="shared" ref="U140:U176" si="11">IF(AND(P140&gt;1,P140=S140), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="V140" s="1" t="str">
+        <f t="shared" ref="V140:V176" si="12">IF(AND(P140&gt;1,P140&lt;S140), "YES", "NO")</f>
+        <v>YES</v>
+      </c>
+      <c r="W140" t="s">
+        <v>236</v>
+      </c>
+      <c r="X140" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>162</v>
       </c>
@@ -9579,7 +11318,7 @@
         <v>4.62</v>
       </c>
       <c r="O141" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P141" s="23">
@@ -9591,12 +11330,26 @@
       <c r="R141" s="13">
         <v>0</v>
       </c>
-      <c r="S141" s="1">
-        <f t="shared" si="6"/>
+      <c r="S141" s="13">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U141" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V141" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W141" t="s">
+        <v>236</v>
+      </c>
+      <c r="X141" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>155</v>
       </c>
@@ -9640,7 +11393,7 @@
         <v>4.62</v>
       </c>
       <c r="O142" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P142" s="23">
@@ -9652,12 +11405,26 @@
       <c r="R142" s="23">
         <v>5</v>
       </c>
-      <c r="S142" s="1">
-        <f t="shared" si="6"/>
+      <c r="S142" s="13">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U142" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V142" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W142" t="s">
+        <v>236</v>
+      </c>
+      <c r="X142" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>55</v>
       </c>
@@ -9701,7 +11468,7 @@
         <v>4.62</v>
       </c>
       <c r="O143" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P143" s="23">
@@ -9713,12 +11480,26 @@
       <c r="R143" s="23">
         <v>12</v>
       </c>
-      <c r="S143" s="1">
-        <f t="shared" si="6"/>
+      <c r="S143" s="13">
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U143" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V143" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W143" t="s">
+        <v>236</v>
+      </c>
+      <c r="X143" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>120</v>
       </c>
@@ -9762,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="O144" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P144" s="23">
@@ -9774,12 +11555,26 @@
       <c r="R144" s="23">
         <v>4</v>
       </c>
-      <c r="S144" s="1">
-        <f t="shared" si="6"/>
+      <c r="S144" s="13">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U144" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V144" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W144" t="s">
+        <v>236</v>
+      </c>
+      <c r="X144" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>104</v>
       </c>
@@ -9823,7 +11618,7 @@
         <v>0</v>
       </c>
       <c r="O145" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P145" s="23">
@@ -9835,12 +11630,26 @@
       <c r="R145" s="23">
         <v>6</v>
       </c>
-      <c r="S145" s="1">
-        <f t="shared" si="6"/>
+      <c r="S145" s="13">
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U145" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V145" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W145" t="s">
+        <v>236</v>
+      </c>
+      <c r="X145" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>130</v>
       </c>
@@ -9884,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="O146" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P146" s="23">
@@ -9896,12 +11705,26 @@
       <c r="R146" s="23">
         <v>1</v>
       </c>
-      <c r="S146" s="1">
-        <f t="shared" si="6"/>
+      <c r="S146" s="13">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U146" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V146" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NO</v>
+      </c>
+      <c r="W146" t="s">
+        <v>236</v>
+      </c>
+      <c r="X146" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>139</v>
       </c>
@@ -9945,7 +11768,7 @@
         <v>0</v>
       </c>
       <c r="O147" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P147" s="23">
@@ -9957,12 +11780,26 @@
       <c r="R147" s="23">
         <v>3</v>
       </c>
-      <c r="S147" s="1">
-        <f t="shared" si="6"/>
+      <c r="S147" s="13">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U147" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V147" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NO</v>
+      </c>
+      <c r="W147" t="s">
+        <v>236</v>
+      </c>
+      <c r="X147" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>136</v>
       </c>
@@ -10006,7 +11843,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="O148" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P148" s="23">
@@ -10018,12 +11855,26 @@
       <c r="R148" s="23">
         <v>5</v>
       </c>
-      <c r="S148" s="1">
-        <f t="shared" si="6"/>
+      <c r="S148" s="13">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U148" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V148" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NO</v>
+      </c>
+      <c r="W148" t="s">
+        <v>236</v>
+      </c>
+      <c r="X148" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>88</v>
       </c>
@@ -10067,7 +11918,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="O149" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P149" s="23">
@@ -10079,12 +11930,26 @@
       <c r="R149" s="23">
         <v>5</v>
       </c>
-      <c r="S149" s="1">
-        <f t="shared" si="6"/>
+      <c r="S149" s="13">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U149" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V149" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NO</v>
+      </c>
+      <c r="W149" t="s">
+        <v>236</v>
+      </c>
+      <c r="X149" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>167</v>
       </c>
@@ -10128,7 +11993,7 @@
         <v>0.83</v>
       </c>
       <c r="O150" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P150" s="23">
@@ -10140,12 +12005,26 @@
       <c r="R150" s="23">
         <v>1</v>
       </c>
-      <c r="S150" s="1">
-        <f t="shared" si="6"/>
+      <c r="S150" s="13">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U150" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V150" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NO</v>
+      </c>
+      <c r="W150" t="s">
+        <v>236</v>
+      </c>
+      <c r="X150" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>62</v>
       </c>
@@ -10189,7 +12068,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="O151" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P151" s="23">
@@ -10201,12 +12080,26 @@
       <c r="R151" s="23">
         <v>3</v>
       </c>
-      <c r="S151" s="1">
-        <f t="shared" si="6"/>
+      <c r="S151" s="13">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U151" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V151" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NO</v>
+      </c>
+      <c r="W151" t="s">
+        <v>236</v>
+      </c>
+      <c r="X151" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>131</v>
       </c>
@@ -10250,7 +12143,7 @@
         <v>0.82</v>
       </c>
       <c r="O152" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Repaired</v>
       </c>
       <c r="P152" s="23">
@@ -10262,12 +12155,26 @@
       <c r="R152" s="23">
         <v>3</v>
       </c>
-      <c r="S152" s="1">
-        <f t="shared" si="6"/>
+      <c r="S152" s="13">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U152" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V152" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W152" t="s">
+        <v>236</v>
+      </c>
+      <c r="X152" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>25</v>
       </c>
@@ -10311,7 +12218,7 @@
         <v>0.82</v>
       </c>
       <c r="O153" s="13" t="str">
-        <f t="shared" ref="O153:O176" si="7">IF(NOT(ISERR(SEARCH("*_Buggy",$A153))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A153))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A153))), "Repaired", "")))</f>
+        <f t="shared" ref="O153:O176" si="13">IF(NOT(ISERR(SEARCH("*_Buggy",$A153))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A153))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A153))), "Repaired", "")))</f>
         <v>Repaired</v>
       </c>
       <c r="P153" s="23">
@@ -10323,12 +12230,26 @@
       <c r="R153" s="23">
         <v>4</v>
       </c>
-      <c r="S153" s="1">
-        <f t="shared" si="6"/>
+      <c r="S153" s="13">
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U153" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V153" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W153" t="s">
+        <v>236</v>
+      </c>
+      <c r="X153" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>124</v>
       </c>
@@ -10372,7 +12293,7 @@
         <v>0.82</v>
       </c>
       <c r="O154" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P154" s="23">
@@ -10384,12 +12305,26 @@
       <c r="R154" s="13">
         <v>0</v>
       </c>
-      <c r="S154" s="1">
-        <f t="shared" si="6"/>
+      <c r="S154" s="13">
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U154" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V154" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W154" t="s">
+        <v>236</v>
+      </c>
+      <c r="X154" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>57</v>
       </c>
@@ -10433,7 +12368,7 @@
         <v>0.82</v>
       </c>
       <c r="O155" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P155" s="23">
@@ -10445,12 +12380,26 @@
       <c r="R155" s="23">
         <v>5</v>
       </c>
-      <c r="S155" s="1">
-        <f t="shared" si="6"/>
+      <c r="S155" s="13">
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U155" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V155" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W155" t="s">
+        <v>236</v>
+      </c>
+      <c r="X155" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>27</v>
       </c>
@@ -10494,7 +12443,7 @@
         <v>0.82</v>
       </c>
       <c r="O156" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P156" s="23">
@@ -10506,12 +12455,26 @@
       <c r="R156" s="23">
         <v>8</v>
       </c>
-      <c r="S156" s="1">
-        <f t="shared" si="6"/>
+      <c r="S156" s="13">
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U156" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V156" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W156" t="s">
+        <v>236</v>
+      </c>
+      <c r="X156" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>34</v>
       </c>
@@ -10555,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="O157" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P157" s="23">
@@ -10567,12 +12530,26 @@
       <c r="R157" s="23">
         <v>10</v>
       </c>
-      <c r="S157" s="1">
-        <f t="shared" si="6"/>
+      <c r="S157" s="13">
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U157" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V157" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NO</v>
+      </c>
+      <c r="W157" t="s">
+        <v>236</v>
+      </c>
+      <c r="X157" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>59</v>
       </c>
@@ -10616,7 +12593,7 @@
         <v>0.82</v>
       </c>
       <c r="O158" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P158" s="23">
@@ -10628,12 +12605,26 @@
       <c r="R158" s="23">
         <v>6</v>
       </c>
-      <c r="S158" s="1">
-        <f t="shared" si="6"/>
+      <c r="S158" s="13">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U158" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V158" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W158" t="s">
+        <v>236</v>
+      </c>
+      <c r="X158" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
         <v>76</v>
       </c>
@@ -10677,7 +12668,7 @@
         <v>0.82</v>
       </c>
       <c r="O159" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P159" s="23">
@@ -10689,12 +12680,26 @@
       <c r="R159" s="23">
         <v>21</v>
       </c>
-      <c r="S159" s="1">
-        <f t="shared" si="6"/>
+      <c r="S159" s="13">
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U159" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V159" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W159" t="s">
+        <v>236</v>
+      </c>
+      <c r="X159" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>94</v>
       </c>
@@ -10738,7 +12743,7 @@
         <v>0.82</v>
       </c>
       <c r="O160" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P160" s="23">
@@ -10750,12 +12755,26 @@
       <c r="R160" s="23">
         <v>3</v>
       </c>
-      <c r="S160" s="1">
-        <f t="shared" si="6"/>
+      <c r="S160" s="13">
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U160" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V160" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W160" t="s">
+        <v>236</v>
+      </c>
+      <c r="X160" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>176</v>
       </c>
@@ -10799,7 +12818,7 @@
         <v>0.82</v>
       </c>
       <c r="O161" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P161" s="23">
@@ -10811,12 +12830,26 @@
       <c r="R161" s="23">
         <v>17</v>
       </c>
-      <c r="S161" s="1">
-        <f t="shared" si="6"/>
+      <c r="S161" s="13">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U161" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V161" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W161" t="s">
+        <v>236</v>
+      </c>
+      <c r="X161" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
         <v>163</v>
       </c>
@@ -10860,7 +12893,7 @@
         <v>0.82</v>
       </c>
       <c r="O162" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P162" s="23">
@@ -10872,12 +12905,26 @@
       <c r="R162" s="23">
         <v>13</v>
       </c>
-      <c r="S162" s="1">
-        <f t="shared" si="6"/>
+      <c r="S162" s="13">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U162" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V162" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W162" t="s">
+        <v>236</v>
+      </c>
+      <c r="X162" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
         <v>151</v>
       </c>
@@ -10921,7 +12968,7 @@
         <v>68.92</v>
       </c>
       <c r="O163" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P163" s="23">
@@ -10933,12 +12980,26 @@
       <c r="R163" s="23">
         <v>23</v>
       </c>
-      <c r="S163" s="1">
-        <f t="shared" si="6"/>
+      <c r="S163" s="13">
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U163" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V163" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W163" t="s">
+        <v>236</v>
+      </c>
+      <c r="X163" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
         <v>165</v>
       </c>
@@ -10982,7 +13043,7 @@
         <v>4.62</v>
       </c>
       <c r="O164" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P164" s="23">
@@ -10994,12 +13055,26 @@
       <c r="R164" s="13">
         <v>0</v>
       </c>
-      <c r="S164" s="1">
-        <f t="shared" si="6"/>
+      <c r="S164" s="13">
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U164" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V164" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W164" t="s">
+        <v>236</v>
+      </c>
+      <c r="X164" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>108</v>
       </c>
@@ -11043,7 +13118,7 @@
         <v>0.82</v>
       </c>
       <c r="O165" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P165" s="23">
@@ -11055,12 +13130,26 @@
       <c r="R165" s="23">
         <v>3</v>
       </c>
-      <c r="S165" s="1">
-        <f t="shared" si="6"/>
+      <c r="S165" s="13">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U165" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V165" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NO</v>
+      </c>
+      <c r="W165" t="s">
+        <v>236</v>
+      </c>
+      <c r="X165" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
         <v>54</v>
       </c>
@@ -11104,7 +13193,7 @@
         <v>4.62</v>
       </c>
       <c r="O166" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P166" s="23">
@@ -11116,12 +13205,26 @@
       <c r="R166" s="23">
         <v>1</v>
       </c>
-      <c r="S166" s="1">
-        <f t="shared" si="6"/>
+      <c r="S166" s="13">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U166" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V166" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NO</v>
+      </c>
+      <c r="W166" t="s">
+        <v>236</v>
+      </c>
+      <c r="X166" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
         <v>89</v>
       </c>
@@ -11165,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="O167" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P167" s="23">
@@ -11177,12 +13280,26 @@
       <c r="R167" s="23">
         <v>3</v>
       </c>
-      <c r="S167" s="1">
-        <f t="shared" si="6"/>
+      <c r="S167" s="13">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U167" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V167" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NO</v>
+      </c>
+      <c r="W167" t="s">
+        <v>236</v>
+      </c>
+      <c r="X167" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>75</v>
       </c>
@@ -11226,7 +13343,7 @@
         <v>0.31</v>
       </c>
       <c r="O168" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P168" s="23">
@@ -11238,12 +13355,26 @@
       <c r="R168" s="23">
         <v>23</v>
       </c>
-      <c r="S168" s="1">
-        <f t="shared" si="6"/>
+      <c r="S168" s="13">
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U168" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V168" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W168" t="s">
+        <v>236</v>
+      </c>
+      <c r="X168" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>152</v>
       </c>
@@ -11287,7 +13418,7 @@
         <v>0.82</v>
       </c>
       <c r="O169" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P169" s="23">
@@ -11299,12 +13430,26 @@
       <c r="R169" s="13">
         <v>0</v>
       </c>
-      <c r="S169" s="1">
-        <f t="shared" si="6"/>
+      <c r="S169" s="13">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U169" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V169" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NO</v>
+      </c>
+      <c r="W169" t="s">
+        <v>236</v>
+      </c>
+      <c r="X169" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>102</v>
       </c>
@@ -11348,7 +13493,7 @@
         <v>0.82</v>
       </c>
       <c r="O170" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P170" s="23">
@@ -11360,12 +13505,26 @@
       <c r="R170" s="23">
         <v>3</v>
       </c>
-      <c r="S170" s="1">
-        <f t="shared" si="6"/>
+      <c r="S170" s="13">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U170" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V170" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NO</v>
+      </c>
+      <c r="W170" t="s">
+        <v>236</v>
+      </c>
+      <c r="X170" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
         <v>52</v>
       </c>
@@ -11409,7 +13568,7 @@
         <v>0.82</v>
       </c>
       <c r="O171" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P171" s="23">
@@ -11421,12 +13580,26 @@
       <c r="R171" s="23">
         <v>1</v>
       </c>
-      <c r="S171" s="1">
-        <f t="shared" si="6"/>
+      <c r="S171" s="13">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U171" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V171" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W171" t="s">
+        <v>236</v>
+      </c>
+      <c r="X171" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>114</v>
       </c>
@@ -11470,7 +13643,7 @@
         <v>0.82</v>
       </c>
       <c r="O172" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P172" s="23">
@@ -11482,12 +13655,26 @@
       <c r="R172" s="23">
         <v>1</v>
       </c>
-      <c r="S172" s="1">
-        <f t="shared" si="6"/>
+      <c r="S172" s="13">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U172" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V172" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>YES</v>
+      </c>
+      <c r="W172" t="s">
+        <v>236</v>
+      </c>
+      <c r="X172" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>109</v>
       </c>
@@ -11531,7 +13718,7 @@
         <v>0.82</v>
       </c>
       <c r="O173" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P173" s="23">
@@ -11543,12 +13730,26 @@
       <c r="R173" s="23">
         <v>1</v>
       </c>
-      <c r="S173" s="1">
-        <f t="shared" si="6"/>
+      <c r="S173" s="13">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U173" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V173" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NO</v>
+      </c>
+      <c r="W173" t="s">
+        <v>236</v>
+      </c>
+      <c r="X173" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>110</v>
       </c>
@@ -11592,7 +13793,7 @@
         <v>0</v>
       </c>
       <c r="O174" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P174" s="23">
@@ -11604,12 +13805,26 @@
       <c r="R174" s="23">
         <v>10</v>
       </c>
-      <c r="S174" s="1">
-        <f t="shared" si="6"/>
+      <c r="S174" s="13">
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U174" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V174" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NO</v>
+      </c>
+      <c r="W174" t="s">
+        <v>236</v>
+      </c>
+      <c r="X174" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>150</v>
       </c>
@@ -11653,7 +13868,7 @@
         <v>0</v>
       </c>
       <c r="O175" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P175" s="23">
@@ -11665,12 +13880,26 @@
       <c r="R175" s="23">
         <v>10</v>
       </c>
-      <c r="S175" s="1">
-        <f t="shared" si="6"/>
+      <c r="S175" s="13">
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U175" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V175" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NO</v>
+      </c>
+      <c r="W175" t="s">
+        <v>236</v>
+      </c>
+      <c r="X175" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" ht="15" x14ac:dyDescent="0.35">
       <c r="A176" s="7" t="s">
         <v>123</v>
       </c>
@@ -11714,7 +13943,7 @@
         <v>4.62</v>
       </c>
       <c r="O176" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P176" s="23">
@@ -11726,12 +13955,26 @@
       <c r="R176" s="13">
         <v>0</v>
       </c>
-      <c r="S176" s="1">
-        <f t="shared" si="6"/>
+      <c r="S176" s="13">
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="177" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U176" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+      <c r="V176" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>NO</v>
+      </c>
+      <c r="W176" t="s">
+        <v>236</v>
+      </c>
+      <c r="X176" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="12" t="s">
         <v>211</v>
       </c>
@@ -11786,8 +14029,11 @@
       <c r="R177" s="12" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S177" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A178" s="9" t="s">
         <v>177</v>
       </c>
@@ -11832,7 +14078,7 @@
       </c>
       <c r="O178" s="10"/>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A179" s="11" t="s">
         <v>186</v>
       </c>
@@ -11877,7 +14123,7 @@
       </c>
       <c r="O179" s="10"/>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A180" s="9" t="s">
         <v>187</v>
       </c>
@@ -11922,7 +14168,7 @@
       </c>
       <c r="O180" s="10"/>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A181" s="11" t="s">
         <v>188</v>
       </c>
@@ -11967,7 +14213,7 @@
       </c>
       <c r="O181" s="10"/>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A182" s="9" t="s">
         <v>189</v>
       </c>
@@ -12012,7 +14258,7 @@
       </c>
       <c r="O182" s="10"/>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A183" s="11" t="s">
         <v>190</v>
       </c>
@@ -12057,7 +14303,7 @@
       </c>
       <c r="O183" s="10"/>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A186" s="26" t="s">
         <v>213</v>
       </c>
@@ -12075,7 +14321,7 @@
       <c r="M186" s="27"/>
       <c r="N186" s="27"/>
     </row>
-    <row r="188" spans="1:18" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="12" t="s">
         <v>212</v>
       </c>
@@ -12119,178 +14365,178 @@
         <v>207</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B189" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C189" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Buggy",B$24:B$176)</f>
+        <f t="shared" ref="C189:O189" si="14" xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Buggy",B$24:B$176)</f>
         <v>3.225882352941178</v>
       </c>
       <c r="D189" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Buggy",C$24:C$176)</f>
+        <f t="shared" si="14"/>
         <v>78.776274509803912</v>
       </c>
       <c r="E189" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Buggy",D$24:D$176)</f>
+        <f t="shared" si="14"/>
         <v>23.686078431372543</v>
       </c>
       <c r="F189" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Buggy",E$24:E$176)</f>
+        <f t="shared" si="14"/>
         <v>7.2852941176470587</v>
       </c>
       <c r="G189" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Buggy",F$24:F$176)</f>
+        <f t="shared" si="14"/>
         <v>14.90980392156863</v>
       </c>
       <c r="H189" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Buggy",G$24:G$176)</f>
+        <f t="shared" si="14"/>
         <v>4.3131372549019602</v>
       </c>
       <c r="I189" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Buggy",H$24:H$176)</f>
+        <f t="shared" si="14"/>
         <v>11.599411764705881</v>
       </c>
       <c r="J189" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Buggy",I$24:I$176)</f>
+        <f t="shared" si="14"/>
         <v>38.596274509803898</v>
       </c>
       <c r="K189" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Buggy",J$24:J$176)</f>
+        <f t="shared" si="14"/>
         <v>65.102156862745105</v>
       </c>
       <c r="L189" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Buggy",K$24:K$176)</f>
+        <f t="shared" si="14"/>
         <v>0.56178431372549031</v>
       </c>
       <c r="M189" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Buggy",L$24:L$176)</f>
+        <f t="shared" si="14"/>
         <v>4.592156862745099E-2</v>
       </c>
       <c r="N189" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Buggy",M$24:M$176)</f>
+        <f t="shared" si="14"/>
         <v>18.572199999999999</v>
       </c>
       <c r="O189" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Buggy",N$24:N$176)</f>
+        <f t="shared" si="14"/>
         <v>2.3623725490196072</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B190" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C190" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Fixed",B$24:B$176)</f>
+        <f t="shared" ref="C190:O190" si="15" xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Fixed",B$24:B$176)</f>
         <v>3.4094117647058821</v>
       </c>
       <c r="D190" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Fixed",C$24:C$176)</f>
+        <f t="shared" si="15"/>
         <v>78.530196078431388</v>
       </c>
       <c r="E190" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Fixed",D$24:D$176)</f>
+        <f t="shared" si="15"/>
         <v>23.924901960784307</v>
       </c>
       <c r="F190" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Fixed",E$24:E$176)</f>
+        <f t="shared" si="15"/>
         <v>7.3060784313725522</v>
       </c>
       <c r="G190" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Fixed",F$24:F$176)</f>
+        <f t="shared" si="15"/>
         <v>15.764509803921564</v>
       </c>
       <c r="H190" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Fixed",G$24:G$176)</f>
+        <f t="shared" si="15"/>
         <v>4.3756862745098033</v>
       </c>
       <c r="I190" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Fixed",H$24:H$176)</f>
+        <f t="shared" si="15"/>
         <v>11.681372549019608</v>
       </c>
       <c r="J190" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Fixed",I$24:I$176)</f>
+        <f t="shared" si="15"/>
         <v>39.690392156862735</v>
       </c>
       <c r="K190" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Fixed",J$24:J$176)</f>
+        <f t="shared" si="15"/>
         <v>65.971568627450978</v>
       </c>
       <c r="L190" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Fixed",K$24:K$176)</f>
+        <f t="shared" si="15"/>
         <v>0.55860784313725487</v>
       </c>
       <c r="M190" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Fixed",L$24:L$176)</f>
+        <f t="shared" si="15"/>
         <v>4.592156862745099E-2</v>
       </c>
       <c r="N190" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Fixed",M$24:M$176)</f>
+        <f t="shared" si="15"/>
         <v>18.509399999999996</v>
       </c>
       <c r="O190" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Fixed",N$24:N$176)</f>
+        <f t="shared" si="15"/>
         <v>2.3590392156862743</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B191" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C191" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Repaired",B$24:B$176)</f>
+        <f t="shared" ref="C191:O191" si="16" xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Repaired",B$24:B$176)</f>
         <v>3.424509803921568</v>
       </c>
       <c r="D191" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Repaired",C$24:C$176)</f>
+        <f t="shared" si="16"/>
         <v>78.645686274509828</v>
       </c>
       <c r="E191" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Repaired",D$24:D$176)</f>
+        <f t="shared" si="16"/>
         <v>24.032549019607846</v>
       </c>
       <c r="F191" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Repaired",E$24:E$176)</f>
+        <f t="shared" si="16"/>
         <v>7.3231372549019627</v>
       </c>
       <c r="G191" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Repaired",F$24:F$176)</f>
+        <f t="shared" si="16"/>
         <v>15.519411764705881</v>
       </c>
       <c r="H191" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Repaired",G$24:G$176)</f>
+        <f t="shared" si="16"/>
         <v>4.3221568627450981</v>
       </c>
       <c r="I191" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Repaired",H$24:H$176)</f>
+        <f t="shared" si="16"/>
         <v>11.644705882352941</v>
       </c>
       <c r="J191" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Repaired",I$24:I$176)</f>
+        <f t="shared" si="16"/>
         <v>39.550980392156859</v>
       </c>
       <c r="K191" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Repaired",J$24:J$176)</f>
+        <f t="shared" si="16"/>
         <v>65.592745098039202</v>
       </c>
       <c r="L191" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Repaired",K$24:K$176)</f>
+        <f t="shared" si="16"/>
         <v>0.56178431372549031</v>
       </c>
       <c r="M191" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Repaired",L$24:L$176)</f>
+        <f t="shared" si="16"/>
         <v>4.592156862745099E-2</v>
       </c>
       <c r="N191" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Repaired",M$24:M$176)</f>
+        <f t="shared" si="16"/>
         <v>18.572199999999999</v>
       </c>
       <c r="O191" s="14">
-        <f xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Repaired",N$24:N$176)</f>
+        <f t="shared" si="16"/>
         <v>2.3623725490196072</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
@@ -12305,7 +14551,7 @@
       <c r="M192" s="14"/>
       <c r="N192" s="14"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A194" s="26" t="s">
         <v>214</v>
       </c>
@@ -12323,7 +14569,7 @@
       <c r="M194" s="27"/>
       <c r="N194" s="27"/>
     </row>
-    <row r="196" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:32" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="12" t="s">
         <v>212</v>
       </c>
@@ -12366,130 +14612,293 @@
       <c r="O196" s="12" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="S196" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="T196" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="U196" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="V196" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="W196" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="X196" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y196" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z196" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA196" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB196" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC196" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD196" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE196" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF196" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="197" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
-        <f>COUNTIFS($O$24:$O$176, "*Fixed", $P$24:$P$176, "&lt;2")</f>
+        <f>COUNTIFS($O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
         <v>18</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="C197" s="28">
-        <f>AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
         <v>4.8327777777777774</v>
       </c>
       <c r="D197" s="28">
-        <f>AVERAGEIFS(C$24:C$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(C$24:C$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
         <v>70.464444444444439</v>
       </c>
       <c r="E197" s="28">
-        <f>AVERAGEIFS(D$24:D$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(D$24:D$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
         <v>40.714444444444446</v>
       </c>
       <c r="F197" s="28">
-        <f>AVERAGEIFS(E$24:E$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(E$24:E$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
         <v>9.8761111111111113</v>
       </c>
       <c r="G197" s="28">
-        <f>AVERAGEIFS(F$24:F$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(F$24:F$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
         <v>26.883333333333336</v>
       </c>
       <c r="H197" s="28">
-        <f>AVERAGEIFS(G$24:G$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(G$24:G$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
         <v>6.0133333333333328</v>
       </c>
       <c r="I197" s="28">
-        <f>AVERAGEIFS(H$24:H$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(H$24:H$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
         <v>15.889444444444447</v>
       </c>
       <c r="J197" s="28">
-        <f>AVERAGEIFS(I$24:I$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(I$24:I$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
         <v>67.601111111111109</v>
       </c>
       <c r="K197" s="28">
-        <f>AVERAGEIFS(J$24:J$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(J$24:J$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
         <v>100.8888888888889</v>
       </c>
       <c r="L197" s="28">
-        <f>AVERAGEIFS(K$24:K$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(K$24:K$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
         <v>0.48499999999999993</v>
       </c>
       <c r="M197" s="28">
-        <f>AVERAGEIFS(L$24:L$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(L$24:L$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
         <v>4.1888888888888892E-2</v>
       </c>
       <c r="N197" s="28">
-        <f>AVERAGEIFS(M$24:M$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(M$24:M$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
         <v>6.5294117647058822</v>
       </c>
       <c r="O197" s="28">
-        <f>AVERAGEIFS(N$24:N$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(N$24:N$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
         <v>4.1711111111111112</v>
       </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R197">
+        <f>COUNTIFS($O$75:$O$176, "*Fixed", $P$75:$P$176, "=1", $S$75:$S$176, "=1")</f>
+        <v>0</v>
+      </c>
+      <c r="S197" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T197" s="28" t="e">
+        <f>AVERAGEIFS(B$75:B$176, $O$75:$O$176, "*Fixed", $P$75:$P$176, "=1", $S$75:$S$176, "=1")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U197" s="28" t="e">
+        <f t="shared" ref="U197:AF197" si="17">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Fixed", $P$75:$P$176, "=1", $S$75:$S$176, "=1")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V197" s="28" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W197" s="28" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X197" s="28" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y197" s="28" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z197" s="28" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA197" s="28" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB197" s="28" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC197" s="28" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD197" s="28" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE197" s="28" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF197" s="28" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="198" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
-        <f>COUNTIFS($O$24:$O$176, "*Repaired", $P$24:$P$176, "&lt;2")</f>
+        <f>COUNTIFS($O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
         <v>20</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="C198" s="28">
-        <f>AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
         <v>3.2160000000000002</v>
       </c>
       <c r="D198" s="28">
-        <f>AVERAGEIFS(C$24:C$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(C$24:C$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
         <v>79.440000000000012</v>
       </c>
       <c r="E198" s="28">
-        <f>AVERAGEIFS(D$24:D$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(D$24:D$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
         <v>19.792499999999997</v>
       </c>
       <c r="F198" s="28">
-        <f>AVERAGEIFS(E$24:E$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(E$24:E$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
         <v>6.3534999999999995</v>
       </c>
       <c r="G198" s="28">
-        <f>AVERAGEIFS(F$24:F$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(F$24:F$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
         <v>13.4305</v>
       </c>
       <c r="H198" s="28">
-        <f>AVERAGEIFS(G$24:G$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(G$24:G$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
         <v>4.0074999999999994</v>
       </c>
       <c r="I198" s="28">
-        <f>AVERAGEIFS(H$24:H$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(H$24:H$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
         <v>10.360500000000002</v>
       </c>
       <c r="J198" s="28">
-        <f>AVERAGEIFS(I$24:I$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(I$24:I$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
         <v>33.221500000000006</v>
       </c>
       <c r="K198" s="28">
-        <f>AVERAGEIFS(J$24:J$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(J$24:J$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
         <v>55.818000000000005</v>
       </c>
       <c r="L198" s="28">
-        <f>AVERAGEIFS(K$24:K$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(K$24:K$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
         <v>0.52405000000000013</v>
       </c>
       <c r="M198" s="28">
-        <f>AVERAGEIFS(L$24:L$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(L$24:L$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="N198" s="28">
-        <f>AVERAGEIFS(M$24:M$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(M$24:M$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
         <v>15.980500000000001</v>
       </c>
       <c r="O198" s="28">
-        <f>AVERAGEIFS(N$24:N$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&lt;2")</f>
+        <f>AVERAGEIFS(N$24:N$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
         <v>0.88755000000000006</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R198">
+        <f>COUNTIFS($O$75:$O$176, "*Repaired", $P$75:$P$176, "=1", $S$75:$S$176, "=1")</f>
+        <v>0</v>
+      </c>
+      <c r="S198" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T198" s="28" t="e">
+        <f>AVERAGEIFS(B$75:B$176, $O$75:$O$176, "*Repaired", $P$75:$P$176, "=1", $S$75:$S$176, "=1")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U198" s="28" t="e">
+        <f t="shared" ref="U198:AE198" si="18">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Repaired", $P$75:$P$176, "=1", $S$75:$S$176, "=1")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V198" s="28" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W198" s="28" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X198" s="28" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y198" s="28" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z198" s="28" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA198" s="28" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB198" s="28" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC198" s="28" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD198" s="28" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE198" s="28" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF198" s="28" t="e">
+        <f>AVERAGEIFS(N$75:N$176, $O$75:$O$176, "*Repaired", $P$75:$P$176, "=1", $S$75:$S$176, "=1")</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="199" spans="1:32" ht="15" x14ac:dyDescent="0.35">
+      <c r="R199"/>
+    </row>
+    <row r="200" spans="1:32" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="12" t="s">
         <v>212</v>
       </c>
@@ -12532,130 +14941,291 @@
       <c r="O200" s="12" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R200"/>
+      <c r="S200" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="T200" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="U200" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="V200" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="W200" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="X200" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y200" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z200" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA200" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB200" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC200" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD200" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE200" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF200" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="201" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <f>COUNTIFS($O$24:$O$176, "*Fixed", $P$24:$P$176, "&gt;1")</f>
         <v>33</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="C201" s="28">
-        <f>AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" ref="C201:O201" si="19">AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&gt;1")</f>
         <v>2.6330303030303046</v>
       </c>
       <c r="D201" s="28">
-        <f>AVERAGEIFS(C$24:C$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="19"/>
         <v>82.929696969696948</v>
       </c>
       <c r="E201" s="28">
-        <f>AVERAGEIFS(D$24:D$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="19"/>
         <v>14.76696969696969</v>
       </c>
       <c r="F201" s="28">
-        <f>AVERAGEIFS(E$24:E$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="19"/>
         <v>5.9042424242424261</v>
       </c>
       <c r="G201" s="28">
-        <f>AVERAGEIFS(F$24:F$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="19"/>
         <v>9.6996969696969675</v>
       </c>
       <c r="H201" s="28">
-        <f>AVERAGEIFS(G$24:G$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="19"/>
         <v>3.4824242424242415</v>
       </c>
       <c r="I201" s="28">
-        <f>AVERAGEIFS(H$24:H$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="19"/>
         <v>9.3860606060606084</v>
       </c>
       <c r="J201" s="28">
-        <f>AVERAGEIFS(I$24:I$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="19"/>
         <v>24.466363636363631</v>
       </c>
       <c r="K201" s="28">
-        <f>AVERAGEIFS(J$24:J$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="19"/>
         <v>46.925757575757572</v>
       </c>
       <c r="L201" s="28">
-        <f>AVERAGEIFS(K$24:K$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="19"/>
         <v>0.59875757575757582</v>
       </c>
       <c r="M201" s="28">
-        <f>AVERAGEIFS(L$24:L$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="19"/>
         <v>4.8121212121212113E-2</v>
       </c>
       <c r="N201" s="28">
-        <f>AVERAGEIFS(M$24:M$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="19"/>
         <v>24.680909090909093</v>
       </c>
       <c r="O201" s="28">
-        <f>AVERAGEIFS(N$24:N$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="19"/>
         <v>1.3706363636363637</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R201">
+        <f>COUNTIFS($O$75:$O$176, "*Fixed", $P$75:$P$176, "=1", $S$75:$S$176, "&gt;1")</f>
+        <v>18</v>
+      </c>
+      <c r="S201" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="T201" s="28">
+        <f>AVERAGEIFS(B$75:B$176, $O$75:$O$176, "*Fixed", $P$75:$P$176, "=1", $S$75:$S$176, "&gt;1")</f>
+        <v>4.8327777777777774</v>
+      </c>
+      <c r="U201" s="28">
+        <f t="shared" ref="U201:AF201" si="20">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Fixed", $P$75:$P$176, "=1", $S$75:$S$176, "&gt;1")</f>
+        <v>70.464444444444439</v>
+      </c>
+      <c r="V201" s="28">
+        <f t="shared" si="20"/>
+        <v>40.714444444444446</v>
+      </c>
+      <c r="W201" s="28">
+        <f t="shared" si="20"/>
+        <v>9.8761111111111113</v>
+      </c>
+      <c r="X201" s="28">
+        <f t="shared" si="20"/>
+        <v>26.883333333333336</v>
+      </c>
+      <c r="Y201" s="28">
+        <f t="shared" si="20"/>
+        <v>6.0133333333333328</v>
+      </c>
+      <c r="Z201" s="28">
+        <f t="shared" si="20"/>
+        <v>15.889444444444447</v>
+      </c>
+      <c r="AA201" s="28">
+        <f t="shared" si="20"/>
+        <v>67.601111111111109</v>
+      </c>
+      <c r="AB201" s="28">
+        <f t="shared" si="20"/>
+        <v>100.8888888888889</v>
+      </c>
+      <c r="AC201" s="28">
+        <f t="shared" si="20"/>
+        <v>0.48499999999999993</v>
+      </c>
+      <c r="AD201" s="28">
+        <f t="shared" si="20"/>
+        <v>4.1888888888888892E-2</v>
+      </c>
+      <c r="AE201" s="28">
+        <f t="shared" si="20"/>
+        <v>6.5294117647058822</v>
+      </c>
+      <c r="AF201" s="28">
+        <f t="shared" si="20"/>
+        <v>4.1711111111111112</v>
+      </c>
+    </row>
+    <row r="202" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <f>COUNTIFS($O$24:$O$176, "*Repaired", $P$24:$P$176, "&gt;1")</f>
         <v>31</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="C202" s="28">
-        <f>AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" ref="C202:O202" si="21">AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&gt;1")</f>
         <v>3.5590322580645171</v>
       </c>
       <c r="D202" s="28">
-        <f>AVERAGEIFS(C$24:C$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="21"/>
         <v>78.133225806451605</v>
       </c>
       <c r="E202" s="28">
-        <f>AVERAGEIFS(D$24:D$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="21"/>
         <v>26.76806451612903</v>
       </c>
       <c r="F202" s="28">
-        <f>AVERAGEIFS(E$24:E$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="21"/>
         <v>7.9487096774193553</v>
       </c>
       <c r="G202" s="28">
-        <f>AVERAGEIFS(F$24:F$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="21"/>
         <v>16.867096774193552</v>
       </c>
       <c r="H202" s="28">
-        <f>AVERAGEIFS(G$24:G$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="21"/>
         <v>4.5251612903225809</v>
       </c>
       <c r="I202" s="28">
-        <f>AVERAGEIFS(H$24:H$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="21"/>
         <v>12.473225806451614</v>
       </c>
       <c r="J202" s="28">
-        <f>AVERAGEIFS(I$24:I$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="21"/>
         <v>43.634516129032271</v>
       </c>
       <c r="K202" s="28">
-        <f>AVERAGEIFS(J$24:J$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="21"/>
         <v>71.899032258064494</v>
       </c>
       <c r="L202" s="28">
-        <f>AVERAGEIFS(K$24:K$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="21"/>
         <v>0.58612903225806467</v>
       </c>
       <c r="M202" s="28">
-        <f>AVERAGEIFS(L$24:L$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="21"/>
         <v>3.9225806451612902E-2</v>
       </c>
       <c r="N202" s="28">
-        <f>AVERAGEIFS(M$24:M$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="21"/>
         <v>20.300000000000004</v>
       </c>
       <c r="O202" s="28">
-        <f>AVERAGEIFS(N$24:N$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" si="21"/>
         <v>3.3138709677419356</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R202">
+        <f>COUNTIFS($O$75:$O$176, "*Repaired", $P$75:$P$176, "=1", $S$75:$S$176, "&gt;1")</f>
+        <v>20</v>
+      </c>
+      <c r="S202" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="T202" s="28">
+        <f>AVERAGEIFS(B$75:B$176, $O$75:$O$176, "*Repaired", $P$75:$P$176, "=1", $S$75:$S$176, "&gt;1")</f>
+        <v>3.2160000000000002</v>
+      </c>
+      <c r="U202" s="28">
+        <f t="shared" ref="U202:AF202" si="22">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Repaired", $P$75:$P$176, "=1", $S$75:$S$176, "&gt;1")</f>
+        <v>79.440000000000012</v>
+      </c>
+      <c r="V202" s="28">
+        <f t="shared" si="22"/>
+        <v>19.792499999999997</v>
+      </c>
+      <c r="W202" s="28">
+        <f t="shared" si="22"/>
+        <v>6.3534999999999995</v>
+      </c>
+      <c r="X202" s="28">
+        <f t="shared" si="22"/>
+        <v>13.4305</v>
+      </c>
+      <c r="Y202" s="28">
+        <f t="shared" si="22"/>
+        <v>4.0074999999999994</v>
+      </c>
+      <c r="Z202" s="28">
+        <f t="shared" si="22"/>
+        <v>10.360500000000002</v>
+      </c>
+      <c r="AA202" s="28">
+        <f t="shared" si="22"/>
+        <v>33.221500000000006</v>
+      </c>
+      <c r="AB202" s="28">
+        <f t="shared" si="22"/>
+        <v>55.818000000000005</v>
+      </c>
+      <c r="AC202" s="28">
+        <f t="shared" si="22"/>
+        <v>0.52405000000000013</v>
+      </c>
+      <c r="AD202" s="28">
+        <f t="shared" si="22"/>
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="AE202" s="28">
+        <f t="shared" si="22"/>
+        <v>15.980500000000001</v>
+      </c>
+      <c r="AF202" s="28">
+        <f t="shared" si="22"/>
+        <v>0.88755000000000006</v>
+      </c>
+    </row>
+    <row r="203" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="C203" s="28"/>
       <c r="D203" s="28"/>
       <c r="E203" s="28"/>
@@ -12669,8 +15239,22 @@
       <c r="M203" s="28"/>
       <c r="N203" s="28"/>
       <c r="O203" s="28"/>
-    </row>
-    <row r="204" spans="1:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R203"/>
+      <c r="T203" s="28"/>
+      <c r="U203" s="28"/>
+      <c r="V203" s="28"/>
+      <c r="W203" s="28"/>
+      <c r="X203" s="28"/>
+      <c r="Y203" s="28"/>
+      <c r="Z203" s="28"/>
+      <c r="AA203" s="28"/>
+      <c r="AB203" s="28"/>
+      <c r="AC203" s="28"/>
+      <c r="AD203" s="28"/>
+      <c r="AE203" s="28"/>
+      <c r="AF203" s="28"/>
+    </row>
+    <row r="204" spans="1:32" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="12" t="s">
         <v>212</v>
       </c>
@@ -12713,122 +15297,283 @@
       <c r="O204" s="12" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R204"/>
+      <c r="S204" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="T204" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="U204" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="V204" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="W204" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="X204" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y204" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z204" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA204" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB204" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC204" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD204" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE204" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF204" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="B205" s="1" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="C205" s="28" t="e">
-        <f>AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D205" s="28" t="e">
-        <f>AVERAGEIFS(C$24:C$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(C$24:C$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E205" s="28" t="e">
-        <f>AVERAGEIFS(D$24:D$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(D$24:D$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F205" s="28" t="e">
-        <f>AVERAGEIFS(E$24:E$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(E$24:E$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G205" s="28" t="e">
-        <f>AVERAGEIFS(F$24:F$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(F$24:F$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H205" s="28" t="e">
-        <f>AVERAGEIFS(G$24:G$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(G$24:G$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I205" s="28" t="e">
-        <f>AVERAGEIFS(H$24:H$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(H$24:H$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J205" s="28" t="e">
-        <f>AVERAGEIFS(I$24:I$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(I$24:I$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K205" s="28" t="e">
-        <f>AVERAGEIFS(J$24:J$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(J$24:J$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L205" s="28" t="e">
-        <f>AVERAGEIFS(K$24:K$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(K$24:K$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M205" s="28" t="e">
-        <f>AVERAGEIFS(L$24:L$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(L$24:L$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N205" s="28" t="e">
-        <f>AVERAGEIFS(M$24:M$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(M$24:M$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O205" s="28" t="e">
-        <f>AVERAGEIFS(N$24:N$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(N$24:N$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R205">
+        <f>COUNTIFS($O$75:$O$176, "*Fixed", $U$75:$U$176, "YES")</f>
+        <v>0</v>
+      </c>
+      <c r="S205" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="T205" s="28" t="e">
+        <f>AVERAGEIFS(B$75:B$176, $O$75:$O$176, "*Fixed", $U$75:$U$176, "YES")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U205" s="28" t="e">
+        <f t="shared" ref="U205:AF205" si="23">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Fixed", $U$75:$U$176, "YES")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V205" s="28" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W205" s="28" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X205" s="28" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y205" s="28" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z205" s="28" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA205" s="28" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB205" s="28" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC205" s="28" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD205" s="28" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE205" s="28" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF205" s="28" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="206" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="B206" s="1" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C206" s="28" t="e">
-        <f>AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D206" s="28" t="e">
-        <f>AVERAGEIFS(C$24:C$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(C$24:C$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E206" s="28" t="e">
-        <f>AVERAGEIFS(D$24:D$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(D$24:D$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F206" s="28" t="e">
-        <f>AVERAGEIFS(E$24:E$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(E$24:E$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G206" s="28" t="e">
-        <f>AVERAGEIFS(F$24:F$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(F$24:F$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H206" s="28" t="e">
-        <f>AVERAGEIFS(G$24:G$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(G$24:G$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I206" s="28" t="e">
-        <f>AVERAGEIFS(H$24:H$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(H$24:H$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J206" s="28" t="e">
-        <f>AVERAGEIFS(I$24:I$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(I$24:I$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K206" s="28" t="e">
-        <f>AVERAGEIFS(J$24:J$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(J$24:J$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L206" s="28" t="e">
-        <f>AVERAGEIFS(K$24:K$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(K$24:K$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M206" s="28" t="e">
-        <f>AVERAGEIFS(L$24:L$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(L$24:L$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N206" s="28" t="e">
-        <f>AVERAGEIFS(M$24:M$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(M$24:M$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O206" s="28" t="e">
-        <f>AVERAGEIFS(N$24:N$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&lt;2")</f>
+        <f>AVERAGEIFS(N$24:N$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R206">
+        <f>COUNTIFS($O$75:$O$176, "*Repaired", $U$75:$U$176, "YES")</f>
+        <v>1</v>
+      </c>
+      <c r="S206" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="T206" s="28">
+        <f>AVERAGEIFS(B$75:B$176, $O$75:$O$176, "*Repaired", $U$75:$U$176, "YES")</f>
+        <v>2.33</v>
+      </c>
+      <c r="U206" s="28">
+        <f t="shared" ref="U206:AF206" si="24">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Repaired", $U$75:$U$176, "YES")</f>
+        <v>83.06</v>
+      </c>
+      <c r="V206" s="28">
+        <f t="shared" si="24"/>
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="W206" s="28">
+        <f t="shared" si="24"/>
+        <v>5.56</v>
+      </c>
+      <c r="X206" s="28">
+        <f t="shared" si="24"/>
+        <v>7.44</v>
+      </c>
+      <c r="Y206" s="28">
+        <f t="shared" si="24"/>
+        <v>3.39</v>
+      </c>
+      <c r="Z206" s="28">
+        <f t="shared" si="24"/>
+        <v>8.94</v>
+      </c>
+      <c r="AA206" s="28">
+        <f t="shared" si="24"/>
+        <v>17.170000000000002</v>
+      </c>
+      <c r="AB206" s="28">
+        <f t="shared" si="24"/>
+        <v>41.73</v>
+      </c>
+      <c r="AC206" s="28">
+        <f t="shared" si="24"/>
+        <v>0.39</v>
+      </c>
+      <c r="AD206" s="28">
+        <f t="shared" si="24"/>
+        <v>3.9E-2</v>
+      </c>
+      <c r="AE206" s="28">
+        <f t="shared" si="24"/>
+        <v>14.74</v>
+      </c>
+      <c r="AF206" s="28">
+        <f t="shared" si="24"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="207" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="C207" s="28"/>
       <c r="D207" s="28"/>
       <c r="E207" s="28"/>
@@ -12842,8 +15587,22 @@
       <c r="M207" s="28"/>
       <c r="N207" s="28"/>
       <c r="O207" s="28"/>
-    </row>
-    <row r="208" spans="1:15" ht="31.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R207"/>
+      <c r="T207" s="28"/>
+      <c r="U207" s="28"/>
+      <c r="V207" s="28"/>
+      <c r="W207" s="28"/>
+      <c r="X207" s="28"/>
+      <c r="Y207" s="28"/>
+      <c r="Z207" s="28"/>
+      <c r="AA207" s="28"/>
+      <c r="AB207" s="28"/>
+      <c r="AC207" s="28"/>
+      <c r="AD207" s="28"/>
+      <c r="AE207" s="28"/>
+      <c r="AF207" s="28"/>
+    </row>
+    <row r="208" spans="1:32" ht="31.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="12" t="s">
         <v>212</v>
       </c>
@@ -12886,132 +15645,293 @@
       <c r="O208" s="12" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R208"/>
+      <c r="S208" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="T208" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="U208" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="V208" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="W208" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="X208" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y208" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z208" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA208" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB208" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC208" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD208" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE208" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF208" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <f>COUNTIFS($O$24:$O$176, "*Fixed", $S$24:$S$176, "&gt;1")</f>
         <v>51</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="C209" s="28">
-        <f>AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" ref="C209:O209" si="25">AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&gt;1")</f>
         <v>3.4094117647058821</v>
       </c>
       <c r="D209" s="28">
-        <f>AVERAGEIFS(C$24:C$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="25"/>
         <v>78.530196078431388</v>
       </c>
       <c r="E209" s="28">
-        <f>AVERAGEIFS(D$24:D$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="25"/>
         <v>23.924901960784307</v>
       </c>
       <c r="F209" s="28">
-        <f>AVERAGEIFS(E$24:E$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="25"/>
         <v>7.3060784313725522</v>
       </c>
       <c r="G209" s="28">
-        <f>AVERAGEIFS(F$24:F$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="25"/>
         <v>15.764509803921564</v>
       </c>
       <c r="H209" s="28">
-        <f>AVERAGEIFS(G$24:G$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="25"/>
         <v>4.3756862745098033</v>
       </c>
       <c r="I209" s="28">
-        <f>AVERAGEIFS(H$24:H$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="25"/>
         <v>11.681372549019608</v>
       </c>
       <c r="J209" s="28">
-        <f>AVERAGEIFS(I$24:I$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="25"/>
         <v>39.690392156862735</v>
       </c>
       <c r="K209" s="28">
-        <f>AVERAGEIFS(J$24:J$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="25"/>
         <v>65.971568627450978</v>
       </c>
       <c r="L209" s="28">
-        <f>AVERAGEIFS(K$24:K$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="25"/>
         <v>0.55860784313725487</v>
       </c>
       <c r="M209" s="28">
-        <f>AVERAGEIFS(L$24:L$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="25"/>
         <v>4.592156862745099E-2</v>
       </c>
       <c r="N209" s="28">
-        <f>AVERAGEIFS(M$24:M$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="25"/>
         <v>18.509399999999996</v>
       </c>
       <c r="O209" s="28">
-        <f>AVERAGEIFS(N$24:N$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="25"/>
         <v>2.3590392156862743</v>
       </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R209">
+        <f>COUNTIFS($O$75:$O$176, "*Fixed", $V$75:$V$176, "YES")</f>
+        <v>33</v>
+      </c>
+      <c r="S209" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="T209" s="28">
+        <f>AVERAGEIFS(B$75:B$176, $O$75:$O$176, "*Fixed", $V$75:$V$176, "YES")</f>
+        <v>2.6330303030303046</v>
+      </c>
+      <c r="U209" s="28">
+        <f t="shared" ref="U209:AF209" si="26">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Fixed", $V$75:$V$176, "YES")</f>
+        <v>82.929696969696948</v>
+      </c>
+      <c r="V209" s="28">
+        <f t="shared" si="26"/>
+        <v>14.76696969696969</v>
+      </c>
+      <c r="W209" s="28">
+        <f t="shared" si="26"/>
+        <v>5.9042424242424261</v>
+      </c>
+      <c r="X209" s="28">
+        <f t="shared" si="26"/>
+        <v>9.6996969696969675</v>
+      </c>
+      <c r="Y209" s="28">
+        <f t="shared" si="26"/>
+        <v>3.4824242424242415</v>
+      </c>
+      <c r="Z209" s="28">
+        <f t="shared" si="26"/>
+        <v>9.3860606060606084</v>
+      </c>
+      <c r="AA209" s="28">
+        <f t="shared" si="26"/>
+        <v>24.466363636363631</v>
+      </c>
+      <c r="AB209" s="28">
+        <f t="shared" si="26"/>
+        <v>46.925757575757572</v>
+      </c>
+      <c r="AC209" s="28">
+        <f t="shared" si="26"/>
+        <v>0.59875757575757582</v>
+      </c>
+      <c r="AD209" s="28">
+        <f t="shared" si="26"/>
+        <v>4.8121212121212113E-2</v>
+      </c>
+      <c r="AE209" s="28">
+        <f t="shared" si="26"/>
+        <v>24.680909090909093</v>
+      </c>
+      <c r="AF209" s="28">
+        <f t="shared" si="26"/>
+        <v>1.3706363636363637</v>
+      </c>
+    </row>
+    <row r="210" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <f>COUNTIFS($O$24:$O$176, "*Repaired", $S$24:$S$176, "&gt;1")</f>
         <v>51</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="C210" s="28">
-        <f>AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" ref="C210:O210" si="27">AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&gt;1")</f>
         <v>3.424509803921568</v>
       </c>
       <c r="D210" s="28">
-        <f>AVERAGEIFS(C$24:C$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="27"/>
         <v>78.645686274509828</v>
       </c>
       <c r="E210" s="28">
-        <f>AVERAGEIFS(D$24:D$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="27"/>
         <v>24.032549019607846</v>
       </c>
       <c r="F210" s="28">
-        <f>AVERAGEIFS(E$24:E$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="27"/>
         <v>7.3231372549019627</v>
       </c>
       <c r="G210" s="28">
-        <f>AVERAGEIFS(F$24:F$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="27"/>
         <v>15.519411764705881</v>
       </c>
       <c r="H210" s="28">
-        <f>AVERAGEIFS(G$24:G$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="27"/>
         <v>4.3221568627450981</v>
       </c>
       <c r="I210" s="28">
-        <f>AVERAGEIFS(H$24:H$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="27"/>
         <v>11.644705882352941</v>
       </c>
       <c r="J210" s="28">
-        <f>AVERAGEIFS(I$24:I$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="27"/>
         <v>39.550980392156859</v>
       </c>
       <c r="K210" s="28">
-        <f>AVERAGEIFS(J$24:J$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="27"/>
         <v>65.592745098039202</v>
       </c>
       <c r="L210" s="28">
-        <f>AVERAGEIFS(K$24:K$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="27"/>
         <v>0.56178431372549031</v>
       </c>
       <c r="M210" s="28">
-        <f>AVERAGEIFS(L$24:L$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="27"/>
         <v>4.592156862745099E-2</v>
       </c>
       <c r="N210" s="28">
-        <f>AVERAGEIFS(M$24:M$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="27"/>
         <v>18.572199999999999</v>
       </c>
       <c r="O210" s="28">
-        <f>AVERAGEIFS(N$24:N$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" si="27"/>
         <v>2.3623725490196072</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R210">
+        <f>COUNTIFS($O$75:$O$176, "*Repaired", $V$75:$V$176, "YES")</f>
+        <v>30</v>
+      </c>
+      <c r="S210" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="T210" s="28">
+        <f>AVERAGEIFS(B$75:B$176, $O$75:$O$176, "*Repaired", $V$75:$V$176, "YES")</f>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="U210" s="28">
+        <f t="shared" ref="U210:AF210" si="28">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Repaired", $V$75:$V$176, "YES")</f>
+        <v>77.968999999999994</v>
+      </c>
+      <c r="V210" s="28">
+        <f t="shared" si="28"/>
+        <v>27.336333333333332</v>
+      </c>
+      <c r="W210" s="28">
+        <f t="shared" si="28"/>
+        <v>8.0283333333333342</v>
+      </c>
+      <c r="X210" s="28">
+        <f t="shared" si="28"/>
+        <v>17.181333333333335</v>
+      </c>
+      <c r="Y210" s="28">
+        <f t="shared" si="28"/>
+        <v>4.5629999999999988</v>
+      </c>
+      <c r="Z210" s="28">
+        <f t="shared" si="28"/>
+        <v>12.591000000000003</v>
+      </c>
+      <c r="AA210" s="28">
+        <f t="shared" si="28"/>
+        <v>44.516666666666673</v>
+      </c>
+      <c r="AB210" s="28">
+        <f t="shared" si="28"/>
+        <v>72.904666666666643</v>
+      </c>
+      <c r="AC210" s="28">
+        <f t="shared" si="28"/>
+        <v>0.59266666666666679</v>
+      </c>
+      <c r="AD210" s="28">
+        <f t="shared" si="28"/>
+        <v>3.9233333333333335E-2</v>
+      </c>
+      <c r="AE210" s="28">
+        <f t="shared" si="28"/>
+        <v>20.491724137931037</v>
+      </c>
+      <c r="AF210" s="28">
+        <f t="shared" si="28"/>
+        <v>3.3969999999999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A213" s="26" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B213" s="27"/>
       <c r="C213" s="27"/>
@@ -13027,7 +15947,7 @@
       <c r="M213" s="27"/>
       <c r="N213" s="27"/>
     </row>
-    <row r="214" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:32" ht="15" x14ac:dyDescent="0.35">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
@@ -13043,9 +15963,9 @@
       <c r="M214"/>
       <c r="N214"/>
     </row>
-    <row r="215" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:32" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B215" s="12" t="s">
         <v>212</v>
@@ -13090,190 +16010,190 @@
         <v>207</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <f>COUNTIF($A$24:$A$176, "*Commons-Math*Buggy")</f>
         <v>49</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C216" s="28">
-        <f t="shared" ref="C216:O216" si="8">AVERAGEIF($A$24:$A$176, "*Commons-Math*_Buggy", B$24:B$176)</f>
+        <f t="shared" ref="C216:O216" si="29">AVERAGEIF($A$24:$A$176, "*Commons-Math*_Buggy", B$24:B$176)</f>
         <v>3.2914285714285727</v>
       </c>
       <c r="D216" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>78.420204081632633</v>
       </c>
       <c r="E216" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>24.387551020408157</v>
       </c>
       <c r="F216" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>7.4553061224489783</v>
       </c>
       <c r="G216" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>15.391020408163268</v>
       </c>
       <c r="H216" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>4.3769387755102036</v>
       </c>
       <c r="I216" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>11.832857142857142</v>
       </c>
       <c r="J216" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>39.778979591836716</v>
       </c>
       <c r="K216" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>66.847959183673467</v>
       </c>
       <c r="L216" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>0.58471428571428574</v>
       </c>
       <c r="M216" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>4.7795918367346951E-2</v>
       </c>
       <c r="N216" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>19.346041666666665</v>
       </c>
       <c r="O216" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="29"/>
         <v>2.4587959183673465</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <f>COUNTIF($A$24:$A$176, "*Commons-Math*Fixed")</f>
         <v>49</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C217" s="28">
-        <f t="shared" ref="C217:O217" si="9">AVERAGEIF($A$24:$A$176, "*Commons-Math*_Fixed", B$24:B$176)</f>
+        <f t="shared" ref="C217:O217" si="30">AVERAGEIF($A$24:$A$176, "*Commons-Math*_Fixed", B$24:B$176)</f>
         <v>3.4824489795918359</v>
       </c>
       <c r="D217" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>78.184489795918381</v>
       </c>
       <c r="E217" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>24.610816326530603</v>
       </c>
       <c r="F217" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>7.4614285714285753</v>
       </c>
       <c r="G217" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>16.269999999999992</v>
       </c>
       <c r="H217" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>4.4367346938775505</v>
       </c>
       <c r="I217" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>11.897755102040817</v>
       </c>
       <c r="J217" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>40.88183673469387</v>
       </c>
       <c r="K217" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>67.627142857142843</v>
       </c>
       <c r="L217" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>0.58140816326530609</v>
       </c>
       <c r="M217" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>4.7795918367346951E-2</v>
       </c>
       <c r="N217" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>19.280624999999997</v>
       </c>
       <c r="O217" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>2.4553265306122443</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <f>COUNTIF($A$24:$A$176, "*Commons-Math*Repaired")</f>
         <v>49</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C218" s="28">
-        <f t="shared" ref="C218:O218" si="10">AVERAGEIF($A$24:$A$176, "*Commons-Math*_Repaired", B$24:B$176)</f>
+        <f t="shared" ref="C218:O218" si="31">AVERAGEIF($A$24:$A$176, "*Commons-Math*_Repaired", B$24:B$176)</f>
         <v>3.4955102040816328</v>
       </c>
       <c r="D218" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>78.292040816326548</v>
       </c>
       <c r="E218" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>24.755918367346936</v>
       </c>
       <c r="F218" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>7.4893877551020438</v>
       </c>
       <c r="G218" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>16.020204081632652</v>
       </c>
       <c r="H218" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>4.3863265306122452</v>
       </c>
       <c r="I218" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>11.875102040816325</v>
       </c>
       <c r="J218" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>40.774897959183662</v>
       </c>
       <c r="K218" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>67.33612244897958</v>
       </c>
       <c r="L218" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>0.58471428571428574</v>
       </c>
       <c r="M218" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>4.7795918367346951E-2</v>
       </c>
       <c r="N218" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>19.346041666666665</v>
       </c>
       <c r="O218" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>2.4587959183673465</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:32" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="12" t="s">
         <v>212</v>
       </c>
@@ -13317,192 +16237,192 @@
         <v>207</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <f>COUNTIF($A$24:$A$176, "*Jackrabbit-Oak*Buggy")</f>
         <v>2</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C221" s="28">
-        <f t="shared" ref="C221:O221" si="11">AVERAGEIF($A$24:$A$176, "*Jackrabbit-Oak*_Buggy", B$24:B$176)</f>
+        <f t="shared" ref="C221:O221" si="32">AVERAGEIF($A$24:$A$176, "*Jackrabbit-Oak*_Buggy", B$24:B$176)</f>
         <v>1.62</v>
       </c>
       <c r="D221" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>87.5</v>
       </c>
       <c r="E221" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>6.5</v>
       </c>
       <c r="F221" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3.12</v>
       </c>
       <c r="G221" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3.12</v>
       </c>
       <c r="H221" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>2.75</v>
       </c>
       <c r="I221" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>5.88</v>
       </c>
       <c r="J221" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>9.6199999999999992</v>
       </c>
       <c r="K221" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>22.33</v>
       </c>
       <c r="L221" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M221" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N221" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O221" s="28">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <f>COUNTIF($A$24:$A$176, "*Jackrabbit-Oak*Fixed")</f>
         <v>2</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C222" s="28">
-        <f t="shared" ref="C222:O222" si="12">AVERAGEIF($A$24:$A$176, "*Jackrabbit-Oak*_Fixed", B$24:B$176)</f>
+        <f t="shared" ref="C222:O222" si="33">AVERAGEIF($A$24:$A$176, "*Jackrabbit-Oak*_Fixed", B$24:B$176)</f>
         <v>1.62</v>
       </c>
       <c r="D222" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>87</v>
       </c>
       <c r="E222" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>7.12</v>
       </c>
       <c r="F222" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>3.5</v>
       </c>
       <c r="G222" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>3.38</v>
       </c>
       <c r="H222" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>2.88</v>
       </c>
       <c r="I222" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>6.38</v>
       </c>
       <c r="J222" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>10.5</v>
       </c>
       <c r="K222" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>25.41</v>
       </c>
       <c r="L222" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M222" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N222" s="28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O222" s="28">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <f>COUNTIF($A$24:$A$176, "*Jackrabbit-Oak*Repaired")</f>
         <v>2</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C223" s="28">
-        <f t="shared" ref="C223:O223" si="13">AVERAGEIF($A$24:$A$176, "*Jackrabbit-Oak*_Repaired", B$24:B$176)</f>
+        <f t="shared" ref="C223:O223" si="34">AVERAGEIF($A$24:$A$176, "*Jackrabbit-Oak*_Repaired", B$24:B$176)</f>
         <v>1.6850000000000001</v>
       </c>
       <c r="D223" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>87.31</v>
       </c>
       <c r="E223" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>6.3100000000000005</v>
       </c>
       <c r="F223" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>3.25</v>
       </c>
       <c r="G223" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>3.25</v>
       </c>
       <c r="H223" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>2.75</v>
       </c>
       <c r="I223" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="J223" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>9.5650000000000013</v>
       </c>
       <c r="K223" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>22.880000000000003</v>
       </c>
       <c r="L223" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M223" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N223" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O223" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226" s="26" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B226" s="27"/>
       <c r="C226" s="29"/>
@@ -13538,7 +16458,7 @@
     </row>
     <row r="228" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A228" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B228" s="12" t="s">
         <v>212</v>
@@ -13589,58 +16509,58 @@
         <v>21</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C229" s="28">
-        <f t="shared" ref="C229:O229" si="14">AVERAGEIF($A$24:$A$176, "Arja*Fixed", B$24:B$176)</f>
+        <f t="shared" ref="C229:O229" si="35">AVERAGEIF($A$24:$A$176, "Arja*Fixed", B$24:B$176)</f>
         <v>3.9533333333333331</v>
       </c>
       <c r="D229" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="35"/>
         <v>76.475238095238083</v>
       </c>
       <c r="E229" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="35"/>
         <v>31.231428571428566</v>
       </c>
       <c r="F229" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="35"/>
         <v>7.8638095238095236</v>
       </c>
       <c r="G229" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="35"/>
         <v>19.423333333333332</v>
       </c>
       <c r="H229" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="35"/>
         <v>4.6747619047619038</v>
       </c>
       <c r="I229" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="35"/>
         <v>12.537619047619049</v>
       </c>
       <c r="J229" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="35"/>
         <v>50.656190476190488</v>
       </c>
       <c r="K229" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="35"/>
         <v>76.446190476190466</v>
       </c>
       <c r="L229" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="35"/>
         <v>0.64428571428571413</v>
       </c>
       <c r="M229" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="35"/>
         <v>4.5809523809523814E-2</v>
       </c>
       <c r="N229" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="35"/>
         <v>19.481904761904762</v>
       </c>
       <c r="O229" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="35"/>
         <v>1.0814285714285716</v>
       </c>
     </row>
@@ -13650,58 +16570,58 @@
         <v>21</v>
       </c>
       <c r="B230" s="30" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C230" s="31">
-        <f t="shared" ref="C230:O230" si="15">AVERAGEIF($A$24:$A$176, "Arja*Repaired", B$24:B$176)</f>
+        <f t="shared" ref="C230:O230" si="36">AVERAGEIF($A$24:$A$176, "Arja*Repaired", B$24:B$176)</f>
         <v>4.0628571428571432</v>
       </c>
       <c r="D230" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="36"/>
         <v>76.583333333333329</v>
       </c>
       <c r="E230" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="36"/>
         <v>31.759999999999998</v>
       </c>
       <c r="F230" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="36"/>
         <v>7.8466666666666667</v>
       </c>
       <c r="G230" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="36"/>
         <v>19.358095238095238</v>
       </c>
       <c r="H230" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="36"/>
         <v>4.6842857142857151</v>
       </c>
       <c r="I230" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="36"/>
         <v>12.530000000000003</v>
       </c>
       <c r="J230" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="36"/>
         <v>51.119047619047606</v>
       </c>
       <c r="K230" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="36"/>
         <v>76.477142857142852</v>
       </c>
       <c r="L230" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="36"/>
         <v>0.64428571428571413</v>
       </c>
       <c r="M230" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="36"/>
         <v>4.5809523809523814E-2</v>
       </c>
       <c r="N230" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="36"/>
         <v>19.481904761904762</v>
       </c>
       <c r="O230" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="36"/>
         <v>1.0814285714285716</v>
       </c>
     </row>
@@ -13711,58 +16631,58 @@
         <v>13</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C231" s="28">
-        <f t="shared" ref="C231:O231" si="16">AVERAGEIF($A$24:$A$176, "GenProg*Fixed", B$24:B$176)</f>
+        <f t="shared" ref="C231:O231" si="37">AVERAGEIF($A$24:$A$176, "GenProg*Fixed", B$24:B$176)</f>
         <v>2.9007692307692308</v>
       </c>
       <c r="D231" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="37"/>
         <v>80.19923076923078</v>
       </c>
       <c r="E231" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="37"/>
         <v>18.531538461538464</v>
       </c>
       <c r="F231" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="37"/>
         <v>7.2492307692307696</v>
       </c>
       <c r="G231" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="37"/>
         <v>13.443846153846156</v>
       </c>
       <c r="H231" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="37"/>
         <v>4.37</v>
       </c>
       <c r="I231" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="37"/>
         <v>11.61923076923077</v>
       </c>
       <c r="J231" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="37"/>
         <v>31.976153846153842</v>
       </c>
       <c r="K231" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="37"/>
         <v>60.873076923076937</v>
       </c>
       <c r="L231" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="37"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="M231" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="37"/>
         <v>3.6615384615384619E-2</v>
       </c>
       <c r="N231" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="37"/>
         <v>19.249166666666667</v>
       </c>
       <c r="O231" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="37"/>
         <v>6.2876923076923088</v>
       </c>
     </row>
@@ -13772,58 +16692,58 @@
         <v>13</v>
       </c>
       <c r="B232" s="30" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C232" s="31">
-        <f t="shared" ref="C232:O232" si="17">AVERAGEIF($A$24:$A$176, "GenProg*Repaired", B$24:B$176)</f>
+        <f t="shared" ref="C232:O232" si="38">AVERAGEIF($A$24:$A$176, "GenProg*Repaired", B$24:B$176)</f>
         <v>2.7846153846153849</v>
       </c>
       <c r="D232" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="38"/>
         <v>80.377692307692314</v>
       </c>
       <c r="E232" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="38"/>
         <v>18.165384615384617</v>
       </c>
       <c r="F232" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="38"/>
         <v>7.3276923076923062</v>
       </c>
       <c r="G232" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="38"/>
         <v>12.911538461538461</v>
       </c>
       <c r="H232" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="38"/>
         <v>4.24</v>
       </c>
       <c r="I232" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="38"/>
         <v>11.56769230769231</v>
       </c>
       <c r="J232" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="38"/>
         <v>31.073076923076922</v>
       </c>
       <c r="K232" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="38"/>
         <v>60.154615384615404</v>
       </c>
       <c r="L232" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="38"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="M232" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="38"/>
         <v>3.6615384615384619E-2</v>
       </c>
       <c r="N232" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="38"/>
         <v>19.249166666666667</v>
       </c>
       <c r="O232" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="38"/>
         <v>6.2876923076923088</v>
       </c>
     </row>
@@ -13833,58 +16753,58 @@
         <v>3</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C233" s="28">
-        <f t="shared" ref="C233:O233" si="18">AVERAGEIF($A$24:$A$176, "Kali*Fixed", B$24:B$176)</f>
+        <f t="shared" ref="C233:O233" si="39">AVERAGEIF($A$24:$A$176, "Kali*Fixed", B$24:B$176)</f>
         <v>2.0333333333333337</v>
       </c>
       <c r="D233" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>84.95</v>
       </c>
       <c r="E233" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>8.9666666666666668</v>
       </c>
       <c r="F233" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>4.7566666666666668</v>
       </c>
       <c r="G233" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>6.22</v>
       </c>
       <c r="H233" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>2.8933333333333331</v>
       </c>
       <c r="I233" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>7.6499999999999995</v>
       </c>
       <c r="J233" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>15.186666666666667</v>
       </c>
       <c r="K233" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>33.646666666666668</v>
       </c>
       <c r="L233" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>0.78333333333333333</v>
       </c>
       <c r="M233" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>4.2666666666666665E-2</v>
       </c>
       <c r="N233" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>32.659999999999997</v>
       </c>
       <c r="O233" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>1.8133333333333335</v>
       </c>
     </row>
@@ -13894,58 +16814,58 @@
         <v>3</v>
       </c>
       <c r="B234" s="30" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C234" s="31">
-        <f t="shared" ref="C234:O234" si="19">AVERAGEIF($A$24:$A$176, "Kali*Repaired", B$24:B$176)</f>
+        <f t="shared" ref="C234:O234" si="40">AVERAGEIF($A$24:$A$176, "Kali*Repaired", B$24:B$176)</f>
         <v>2.0066666666666664</v>
       </c>
       <c r="D234" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>85.096666666666678</v>
       </c>
       <c r="E234" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>8.4600000000000009</v>
       </c>
       <c r="F234" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>4.7433333333333332</v>
       </c>
       <c r="G234" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>5.9233333333333329</v>
       </c>
       <c r="H234" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>2.7766666666666668</v>
       </c>
       <c r="I234" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>7.5166666666666666</v>
       </c>
       <c r="J234" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>14.383333333333335</v>
       </c>
       <c r="K234" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>32.49</v>
       </c>
       <c r="L234" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>0.78333333333333333</v>
       </c>
       <c r="M234" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>4.2666666666666665E-2</v>
       </c>
       <c r="N234" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>32.659999999999997</v>
       </c>
       <c r="O234" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>1.8133333333333335</v>
       </c>
     </row>
@@ -13955,58 +16875,58 @@
         <v>1</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C235" s="28">
-        <f t="shared" ref="C235:O235" si="20">AVERAGEIF($A$24:$A$176, "Nopol*Fixed", B$24:B$176)</f>
+        <f t="shared" ref="C235:O235" si="41">AVERAGEIF($A$24:$A$176, "Nopol*Fixed", B$24:B$176)</f>
         <v>3.29</v>
       </c>
       <c r="D235" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>75.73</v>
       </c>
       <c r="E235" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>20.88</v>
       </c>
       <c r="F235" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>8.51</v>
       </c>
       <c r="G235" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>16.670000000000002</v>
       </c>
       <c r="H235" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>5.0199999999999996</v>
       </c>
       <c r="I235" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>13.53</v>
       </c>
       <c r="J235" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>37.549999999999997</v>
       </c>
       <c r="K235" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>73.849999999999994</v>
       </c>
       <c r="L235" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="M235" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>3.9E-2</v>
       </c>
       <c r="N235" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>2.4300000000000002</v>
       </c>
       <c r="O235" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -14016,58 +16936,58 @@
         <v>1</v>
       </c>
       <c r="B236" s="30" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C236" s="31">
-        <f t="shared" ref="C236:O236" si="21">AVERAGEIF($A$24:$A$176, "Nopol*Repaired", B$24:B$176)</f>
+        <f t="shared" ref="C236:O236" si="42">AVERAGEIF($A$24:$A$176, "Nopol*Repaired", B$24:B$176)</f>
         <v>3.59</v>
       </c>
       <c r="D236" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>75.3</v>
       </c>
       <c r="E236" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>21.44</v>
       </c>
       <c r="F236" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>8.61</v>
       </c>
       <c r="G236" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>17.2</v>
       </c>
       <c r="H236" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>5.31</v>
       </c>
       <c r="I236" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>13.93</v>
       </c>
       <c r="J236" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>38.65</v>
       </c>
       <c r="K236" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>76.17</v>
       </c>
       <c r="L236" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>0.26</v>
       </c>
       <c r="M236" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>3.9E-2</v>
       </c>
       <c r="N236" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>5.57</v>
       </c>
       <c r="O236" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>0.31</v>
       </c>
     </row>
@@ -14077,58 +16997,58 @@
         <v>8</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C237" s="28">
-        <f t="shared" ref="C237:O237" si="22">AVERAGEIF($A$24:$A$176, "RSRepair*Fixed", B$24:B$176)</f>
+        <f t="shared" ref="C237:O237" si="43">AVERAGEIF($A$24:$A$176, "RSRepair*Fixed", B$24:B$176)</f>
         <v>3.6725000000000003</v>
       </c>
       <c r="D237" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="43"/>
         <v>76.286249999999995</v>
       </c>
       <c r="E237" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="43"/>
         <v>27.195</v>
       </c>
       <c r="F237" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="43"/>
         <v>8.1512499999999992</v>
       </c>
       <c r="G237" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="43"/>
         <v>17.8</v>
       </c>
       <c r="H237" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="43"/>
         <v>4.6725000000000003</v>
       </c>
       <c r="I237" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="43"/>
         <v>12.823750000000002</v>
       </c>
       <c r="J237" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="43"/>
         <v>44.994999999999997</v>
       </c>
       <c r="K237" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="43"/>
         <v>74.61375000000001</v>
       </c>
       <c r="L237" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="43"/>
         <v>0.48875000000000002</v>
       </c>
       <c r="M237" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="43"/>
         <v>3.5500000000000004E-2</v>
       </c>
       <c r="N237" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="43"/>
         <v>19.6175</v>
       </c>
       <c r="O237" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="43"/>
         <v>1.0899999999999999</v>
       </c>
     </row>
@@ -14138,58 +17058,58 @@
         <v>8</v>
       </c>
       <c r="B238" s="30" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C238" s="31">
-        <f t="shared" ref="C238:O238" si="23">AVERAGEIF($A$24:$A$176, "RSRepair*Repaired", B$24:B$176)</f>
+        <f t="shared" ref="C238:O238" si="44">AVERAGEIF($A$24:$A$176, "RSRepair*Repaired", B$24:B$176)</f>
         <v>3.5812500000000003</v>
       </c>
       <c r="D238" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>76.556249999999991</v>
       </c>
       <c r="E238" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>26.94875</v>
       </c>
       <c r="F238" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>8.1187499999999986</v>
       </c>
       <c r="G238" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>17.056249999999999</v>
       </c>
       <c r="H238" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>4.5374999999999996</v>
       </c>
       <c r="I238" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>12.65625</v>
       </c>
       <c r="J238" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>44.002499999999998</v>
       </c>
       <c r="K238" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>73.032500000000013</v>
       </c>
       <c r="L238" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0.48875000000000002</v>
       </c>
       <c r="M238" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>3.5500000000000004E-2</v>
       </c>
       <c r="N238" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>19.6175</v>
       </c>
       <c r="O238" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>1.0899999999999999</v>
       </c>
     </row>
@@ -14199,90 +17119,138 @@
     <sortCondition ref="A27:A177"/>
   </sortState>
   <conditionalFormatting sqref="C191:O191">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="56" operator="equal">
       <formula>C190</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="59" operator="greaterThan">
       <formula>C190</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C190:O190">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="57" operator="equal">
       <formula>C191</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="58" operator="greaterThan">
       <formula>C191</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P75:P176">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="55" operator="greaterThan">
       <formula>$P$75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q75:Q176">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="54" operator="greaterThan">
       <formula>$P$75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R75:R176">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="53" operator="greaterThan">
       <formula>$P$75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C202:O202 C198:O198 C206:O206 C210:O210">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="49" operator="equal">
       <formula>C197</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="51" operator="greaterThan">
       <formula>C197</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C197:O197 C201:O201 C205:O205 C209:O209">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="50" operator="equal">
       <formula>C198</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="52" operator="greaterThan">
       <formula>C198</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C218:O218 C223:O223">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="45" operator="equal">
       <formula>C217</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="47" operator="greaterThan">
       <formula>C217</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C217:O217 C222:O222">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="46" operator="equal">
       <formula>C218</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="48" operator="greaterThan">
       <formula>C218</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C229:O229 C231:O231 C233:O233 C235:O235 C237:O237">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="42" operator="equal">
       <formula>C230</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="44" operator="greaterThan">
       <formula>C230</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C230:O230 C232:O232 C234:O234 C236:O236 C238:O238">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="41" operator="equal">
       <formula>C229</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="43" operator="greaterThan">
       <formula>C229</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192:N192">
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="60" operator="equal">
       <formula>C191</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="greaterThan">
       <formula>C191</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T201:AF201 T197:AF197">
+    <cfRule type="cellIs" dxfId="57" priority="38" operator="equal">
+      <formula>T198</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="40" operator="greaterThan">
+      <formula>T198</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T198:AF198">
+    <cfRule type="cellIs" dxfId="55" priority="35" operator="equal">
+      <formula>T199</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="36" operator="greaterThan">
+      <formula>T199</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T202:AF202">
+    <cfRule type="cellIs" dxfId="53" priority="33" operator="equal">
+      <formula>T203</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="34" operator="greaterThan">
+      <formula>T203</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T205:AF206">
+    <cfRule type="cellIs" dxfId="47" priority="27" operator="equal">
+      <formula>T206</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="28" operator="greaterThan">
+      <formula>T206</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T209:AF209">
+    <cfRule type="cellIs" dxfId="39" priority="19" operator="equal">
+      <formula>T210</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="20" operator="greaterThan">
+      <formula>T210</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T210:AF210">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
+      <formula>T211</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="greaterThan">
+      <formula>T211</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/3. Bears_and_Bugs.jar_Metrics/Bugs_jar_Complexity_51_Avg.xlsx
+++ b/3. Bears_and_Bugs.jar_Metrics/Bugs_jar_Complexity_51_Avg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="262">
   <si>
     <t>Bugs.jar (analysis done Today 04:38 most recent)</t>
   </si>
@@ -1507,6 +1507,30 @@
   </si>
   <si>
     <t>Multi-Chunk-Multi-Edits-Avg-Repaired</t>
+  </si>
+  <si>
+    <t>MC-SL Diff</t>
+  </si>
+  <si>
+    <t>MC-ML Diff</t>
+  </si>
+  <si>
+    <t>MC-SL Comm</t>
+  </si>
+  <si>
+    <t>MC-ML Comm</t>
+  </si>
+  <si>
+    <t>SC-SL Comm</t>
+  </si>
+  <si>
+    <t>SC-ML Comm</t>
+  </si>
+  <si>
+    <t>SL Comm</t>
+  </si>
+  <si>
+    <t>ML Comm</t>
   </si>
 </sst>
 </file>
@@ -2145,7 +2169,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2222,6 +2246,9 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2267,487 +2294,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3371,8 +2918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF238"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O171" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T202" sqref="T202"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P68" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB75" sqref="AB75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -5701,7 +5248,7 @@
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>35</v>
       </c>
@@ -5753,7 +5300,7 @@
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>65</v>
       </c>
@@ -5805,7 +5352,7 @@
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>26</v>
       </c>
@@ -5857,7 +5404,7 @@
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>122</v>
       </c>
@@ -5909,7 +5456,7 @@
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>113</v>
       </c>
@@ -5961,7 +5508,7 @@
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>118</v>
       </c>
@@ -6013,7 +5560,7 @@
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>36</v>
       </c>
@@ -6065,7 +5612,7 @@
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>37</v>
       </c>
@@ -6117,7 +5664,7 @@
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>46</v>
       </c>
@@ -6169,7 +5716,7 @@
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
     </row>
-    <row r="74" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="18" t="s">
         <v>92</v>
       </c>
@@ -6220,8 +5767,32 @@
       <c r="Q74" s="20"/>
       <c r="R74" s="20"/>
       <c r="S74" s="20"/>
-    </row>
-    <row r="75" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="U74" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="V74" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="W74" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="X74" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y74" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z74" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA74" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB74" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>56</v>
       </c>
@@ -6297,8 +5868,24 @@
         <f>IF(AND(P75&gt;1,P126&gt;1,P75&lt;S75,P126&lt;S126), "YES", "NO")</f>
         <v>NO</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y75" t="str">
+        <f>IF(AND($P75=1,$P126=1,$P75=$S75,$P126=$S126), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="Z75" t="str">
+        <f>IF(AND($P75=1,$P126=1,$P75&lt;$S75,$P126&lt;$S126), "YES", "NO")</f>
+        <v>YES</v>
+      </c>
+      <c r="AA75" t="str">
+        <f>IF(AND($S75=1,$S126=1), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="AB75" t="str">
+        <f>IF(AND($S75&gt;1,$S126&gt;1), "YES", "NO")</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" s="21" t="s">
         <v>141</v>
       </c>
@@ -6367,15 +5954,31 @@
         <v>NO</v>
       </c>
       <c r="W76" t="str">
-        <f t="shared" ref="W76:W139" si="6">IF(AND(P76&gt;1,P127&gt;1,P76=S76,P127=S127), "YES", "NO")</f>
+        <f t="shared" ref="W76:W125" si="6">IF(AND(P76&gt;1,P127&gt;1,P76=S76,P127=S127), "YES", "NO")</f>
         <v>NO</v>
       </c>
       <c r="X76" t="str">
-        <f t="shared" ref="X76:X139" si="7">IF(AND(P76&gt;1,P127&gt;1,P76&lt;S76,P127&lt;S127), "YES", "NO")</f>
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="X76:X125" si="7">IF(AND(P76&gt;1,P127&gt;1,P76&lt;S76,P127&lt;S127), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="Y76" t="str">
+        <f t="shared" ref="Y76:Y139" si="8">IF(AND($P76=1,$P118=1,$P76=$S76,$P118=$S118), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="Z76" t="str">
+        <f t="shared" ref="Z76:Z139" si="9">IF(AND($P76=1,$P118=1,$P76&lt;$S76,$P118&lt;$S118), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="AA76" t="str">
+        <f t="shared" ref="AA76:AA139" si="10">IF(AND($S76=1,$S118=1), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="AB76" t="str">
+        <f t="shared" ref="AB76:AB139" si="11">IF(AND($S76&gt;1,$S118&gt;1), "YES", "NO")</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>173</v>
       </c>
@@ -6451,8 +6054,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y77" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z77" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA77" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB77" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>135</v>
       </c>
@@ -6528,8 +6147,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y78" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z78" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA78" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB78" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>117</v>
       </c>
@@ -6605,8 +6240,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y79" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z79" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA79" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB79" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>134</v>
       </c>
@@ -6682,8 +6333,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y80" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z80" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA80" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB80" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>32</v>
       </c>
@@ -6759,8 +6426,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y81" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z81" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA81" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB81" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>73</v>
       </c>
@@ -6836,8 +6519,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y82" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z82" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA82" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB82" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>169</v>
       </c>
@@ -6913,8 +6612,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y83" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>78</v>
       </c>
@@ -6990,8 +6705,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y84" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>40</v>
       </c>
@@ -7067,8 +6798,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y85" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>90</v>
       </c>
@@ -7144,8 +6891,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y86" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>83</v>
       </c>
@@ -7221,8 +6984,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y87" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>23</v>
       </c>
@@ -7298,8 +7077,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y88" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>98</v>
       </c>
@@ -7343,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="13" t="str">
-        <f t="shared" ref="O89:O120" si="8">IF(NOT(ISERR(SEARCH("*_Buggy",$A89))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A89))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A89))), "Repaired", "")))</f>
+        <f t="shared" ref="O89:O120" si="12">IF(NOT(ISERR(SEARCH("*_Buggy",$A89))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A89))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A89))), "Repaired", "")))</f>
         <v>Fixed</v>
       </c>
       <c r="P89" s="23">
@@ -7375,8 +7170,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y89" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>171</v>
       </c>
@@ -7420,7 +7231,7 @@
         <v>4.62</v>
       </c>
       <c r="O90" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P90" s="23">
@@ -7452,8 +7263,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y90" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>101</v>
       </c>
@@ -7497,7 +7324,7 @@
         <v>4.62</v>
       </c>
       <c r="O91" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P91" s="23">
@@ -7529,8 +7356,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y91" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>132</v>
       </c>
@@ -7574,7 +7417,7 @@
         <v>4.62</v>
       </c>
       <c r="O92" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P92" s="23">
@@ -7606,8 +7449,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y92" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>69</v>
       </c>
@@ -7651,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P93" s="23">
@@ -7683,8 +7542,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y93" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>126</v>
       </c>
@@ -7728,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P94" s="23">
@@ -7760,8 +7635,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y94" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>161</v>
       </c>
@@ -7805,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P95" s="23">
@@ -7837,8 +7728,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y95" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>47</v>
       </c>
@@ -7882,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P96" s="23">
@@ -7914,8 +7821,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y96" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>111</v>
       </c>
@@ -7959,7 +7882,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="O97" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P97" s="23">
@@ -7991,8 +7914,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y97" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>129</v>
       </c>
@@ -8036,7 +7975,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="O98" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P98" s="23">
@@ -8068,8 +8007,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y98" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>64</v>
       </c>
@@ -8113,7 +8068,7 @@
         <v>0.83</v>
       </c>
       <c r="O99" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P99" s="23">
@@ -8145,8 +8100,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y99" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>105</v>
       </c>
@@ -8190,7 +8161,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="O100" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P100" s="23">
@@ -8222,8 +8193,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y100" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>53</v>
       </c>
@@ -8267,7 +8254,7 @@
         <v>0.82</v>
       </c>
       <c r="O101" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P101" s="23">
@@ -8299,8 +8286,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y101" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>74</v>
       </c>
@@ -8344,7 +8347,7 @@
         <v>0.82</v>
       </c>
       <c r="O102" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P102" s="23">
@@ -8376,8 +8379,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y102" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>51</v>
       </c>
@@ -8421,7 +8440,7 @@
         <v>0.82</v>
       </c>
       <c r="O103" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P103" s="23">
@@ -8453,8 +8472,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y103" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>125</v>
       </c>
@@ -8498,7 +8533,7 @@
         <v>0.82</v>
       </c>
       <c r="O104" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P104" s="23">
@@ -8530,8 +8565,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="105" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y104" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>146</v>
       </c>
@@ -8575,7 +8626,7 @@
         <v>0.82</v>
       </c>
       <c r="O105" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P105" s="23">
@@ -8607,8 +8658,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="106" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y105" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>70</v>
       </c>
@@ -8652,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P106" s="23">
@@ -8684,8 +8751,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y106" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>172</v>
       </c>
@@ -8729,7 +8812,7 @@
         <v>0.82</v>
       </c>
       <c r="O107" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P107" s="23">
@@ -8761,8 +8844,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y107" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>24</v>
       </c>
@@ -8806,7 +8905,7 @@
         <v>0.82</v>
       </c>
       <c r="O108" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P108" s="23">
@@ -8838,8 +8937,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y108" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z108" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA108" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB108" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>81</v>
       </c>
@@ -8883,7 +8998,7 @@
         <v>0.82</v>
       </c>
       <c r="O109" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P109" s="23">
@@ -8915,8 +9030,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y109" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z109" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA109" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB109" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>168</v>
       </c>
@@ -8960,7 +9091,7 @@
         <v>0.82</v>
       </c>
       <c r="O110" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P110" s="23">
@@ -8992,8 +9123,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y110" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z110" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA110" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB110" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>158</v>
       </c>
@@ -9037,7 +9184,7 @@
         <v>0.82</v>
       </c>
       <c r="O111" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P111" s="23">
@@ -9069,8 +9216,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y111" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z111" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA111" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB111" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>84</v>
       </c>
@@ -9114,7 +9277,7 @@
         <v>68.92</v>
       </c>
       <c r="O112" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P112" s="23">
@@ -9146,8 +9309,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y112" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z112" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA112" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB112" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>42</v>
       </c>
@@ -9191,7 +9370,7 @@
         <v>4.62</v>
       </c>
       <c r="O113" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P113" s="23">
@@ -9223,8 +9402,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y113" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z113" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA113" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB113" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>68</v>
       </c>
@@ -9268,7 +9463,7 @@
         <v>0.82</v>
       </c>
       <c r="O114" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P114" s="23">
@@ -9300,8 +9495,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y114" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z114" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA114" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB114" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>95</v>
       </c>
@@ -9345,7 +9556,7 @@
         <v>4.62</v>
       </c>
       <c r="O115" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P115" s="23">
@@ -9377,8 +9588,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y115" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z115" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA115" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB115" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>154</v>
       </c>
@@ -9422,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P116" s="23">
@@ -9454,8 +9681,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y116" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z116" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA116" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB116" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>144</v>
       </c>
@@ -9499,7 +9742,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O117" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P117" s="23">
@@ -9531,8 +9774,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y117" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z117" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA117" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB117" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>174</v>
       </c>
@@ -9576,7 +9835,7 @@
         <v>0.82</v>
       </c>
       <c r="O118" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P118" s="23">
@@ -9608,8 +9867,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="119" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y118" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z118" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA118" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB118" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>77</v>
       </c>
@@ -9653,7 +9928,7 @@
         <v>0.82</v>
       </c>
       <c r="O119" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P119" s="23">
@@ -9685,8 +9960,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="120" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y119" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z119" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA119" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB119" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>49</v>
       </c>
@@ -9730,7 +10021,7 @@
         <v>0.82</v>
       </c>
       <c r="O120" s="13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Fixed</v>
       </c>
       <c r="P120" s="23">
@@ -9762,8 +10053,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="121" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y120" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z120" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA120" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB120" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>153</v>
       </c>
@@ -9807,7 +10114,7 @@
         <v>0.82</v>
       </c>
       <c r="O121" s="13" t="str">
-        <f t="shared" ref="O121:O152" si="9">IF(NOT(ISERR(SEARCH("*_Buggy",$A121))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A121))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A121))), "Repaired", "")))</f>
+        <f t="shared" ref="O121:O152" si="13">IF(NOT(ISERR(SEARCH("*_Buggy",$A121))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A121))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A121))), "Repaired", "")))</f>
         <v>Fixed</v>
       </c>
       <c r="P121" s="23">
@@ -9839,8 +10146,24 @@
         <f t="shared" si="7"/>
         <v>YES</v>
       </c>
-    </row>
-    <row r="122" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y121" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z121" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA121" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB121" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>48</v>
       </c>
@@ -9884,7 +10207,7 @@
         <v>0.82</v>
       </c>
       <c r="O122" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Fixed</v>
       </c>
       <c r="P122" s="23">
@@ -9916,8 +10239,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="123" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y122" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z122" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA122" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB122" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>91</v>
       </c>
@@ -9961,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Fixed</v>
       </c>
       <c r="P123" s="23">
@@ -9993,8 +10332,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="124" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y123" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z123" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+      <c r="AA123" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB123" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>145</v>
       </c>
@@ -10038,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="O124" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Fixed</v>
       </c>
       <c r="P124" s="23">
@@ -10070,8 +10425,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="125" spans="1:24" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y124" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z124" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+      <c r="AA124" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB124" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="18" t="s">
         <v>41</v>
       </c>
@@ -10115,7 +10486,7 @@
         <v>4.62</v>
       </c>
       <c r="O125" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Fixed</v>
       </c>
       <c r="P125" s="25">
@@ -10148,8 +10519,24 @@
         <f t="shared" si="7"/>
         <v>NO</v>
       </c>
-    </row>
-    <row r="126" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y125" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z125" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA125" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB125" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A126" s="15" t="s">
         <v>140</v>
       </c>
@@ -10193,7 +10580,7 @@
         <v>0.95</v>
       </c>
       <c r="O126" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P126" s="24">
@@ -10223,8 +10610,24 @@
       <c r="X126" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="127" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y126" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z126" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA126" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB126" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
         <v>97</v>
       </c>
@@ -10268,7 +10671,7 @@
         <v>0.95</v>
       </c>
       <c r="O127" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P127" s="23">
@@ -10298,8 +10701,24 @@
       <c r="X127" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="128" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y127" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z127" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+      <c r="AA127" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB127" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>107</v>
       </c>
@@ -10343,7 +10762,7 @@
         <v>0.95</v>
       </c>
       <c r="O128" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P128" s="23">
@@ -10373,8 +10792,24 @@
       <c r="X128" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="129" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y128" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z128" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+      <c r="AA128" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB128" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>43</v>
       </c>
@@ -10418,7 +10853,7 @@
         <v>0.95</v>
       </c>
       <c r="O129" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P129" s="23">
@@ -10448,8 +10883,24 @@
       <c r="X129" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="130" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y129" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z129" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA129" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB129" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>61</v>
       </c>
@@ -10493,7 +10944,7 @@
         <v>0.95</v>
       </c>
       <c r="O130" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P130" s="23">
@@ -10523,8 +10974,24 @@
       <c r="X130" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="131" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y130" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z130" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA130" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB130" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>159</v>
       </c>
@@ -10568,7 +11035,7 @@
         <v>0.82</v>
       </c>
       <c r="O131" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P131" s="23">
@@ -10598,8 +11065,24 @@
       <c r="X131" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="132" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y131" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z131" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA131" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB131" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>170</v>
       </c>
@@ -10643,7 +11126,7 @@
         <v>0.82</v>
       </c>
       <c r="O132" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P132" s="23">
@@ -10673,8 +11156,24 @@
       <c r="X132" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="133" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y132" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z132" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA132" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB132" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>156</v>
       </c>
@@ -10718,7 +11217,7 @@
         <v>0.82</v>
       </c>
       <c r="O133" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P133" s="23">
@@ -10748,8 +11247,24 @@
       <c r="X133" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="134" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y133" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z133" t="str">
+        <f t="shared" si="9"/>
+        <v>YES</v>
+      </c>
+      <c r="AA133" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB133" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>28</v>
       </c>
@@ -10793,7 +11308,7 @@
         <v>0.82</v>
       </c>
       <c r="O134" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P134" s="23">
@@ -10823,8 +11338,24 @@
       <c r="X134" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="135" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y134" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z134" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA134" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB134" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>149</v>
       </c>
@@ -10868,7 +11399,7 @@
         <v>0.82</v>
       </c>
       <c r="O135" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P135" s="23">
@@ -10898,8 +11429,24 @@
       <c r="X135" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="136" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y135" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z135" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA135" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB135" t="str">
+        <f t="shared" si="11"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>82</v>
       </c>
@@ -10943,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="O136" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P136" s="23">
@@ -10973,8 +11520,24 @@
       <c r="X136" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="137" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y136" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z136" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA136" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB136" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>44</v>
       </c>
@@ -11018,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="O137" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P137" s="23">
@@ -11048,8 +11611,24 @@
       <c r="X137" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="138" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y137" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z137" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA137" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB137" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>157</v>
       </c>
@@ -11093,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="O138" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P138" s="23">
@@ -11123,8 +11702,24 @@
       <c r="X138" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="139" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y138" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z138" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA138" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB138" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>67</v>
       </c>
@@ -11168,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="O139" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P139" s="23">
@@ -11198,8 +11793,24 @@
       <c r="X139" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="140" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y139" t="str">
+        <f t="shared" si="8"/>
+        <v>NO</v>
+      </c>
+      <c r="Z139" t="str">
+        <f t="shared" si="9"/>
+        <v>NO</v>
+      </c>
+      <c r="AA139" t="str">
+        <f t="shared" si="10"/>
+        <v>NO</v>
+      </c>
+      <c r="AB139" t="str">
+        <f t="shared" si="11"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>160</v>
       </c>
@@ -11243,7 +11854,7 @@
         <v>0</v>
       </c>
       <c r="O140" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P140" s="23">
@@ -11256,15 +11867,15 @@
         <v>11</v>
       </c>
       <c r="S140" s="13">
-        <f t="shared" ref="S140:S176" si="10">Q140+R140</f>
+        <f t="shared" ref="S140:S176" si="14">Q140+R140</f>
         <v>14</v>
       </c>
       <c r="U140" s="1" t="str">
-        <f t="shared" ref="U140:U176" si="11">IF(AND(P140&gt;1,P140=S140), "YES", "NO")</f>
+        <f t="shared" ref="U140:U176" si="15">IF(AND(P140&gt;1,P140=S140), "YES", "NO")</f>
         <v>NO</v>
       </c>
       <c r="V140" s="1" t="str">
-        <f t="shared" ref="V140:V176" si="12">IF(AND(P140&gt;1,P140&lt;S140), "YES", "NO")</f>
+        <f t="shared" ref="V140:V176" si="16">IF(AND(P140&gt;1,P140&lt;S140), "YES", "NO")</f>
         <v>YES</v>
       </c>
       <c r="W140" t="s">
@@ -11273,8 +11884,24 @@
       <c r="X140" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="141" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y140" t="str">
+        <f t="shared" ref="Y140:Y176" si="17">IF(AND($P140=1,$P182=1,$P140=$S140,$P182=$S182), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="Z140" t="str">
+        <f t="shared" ref="Z140:Z176" si="18">IF(AND($P140=1,$P182=1,$P140&lt;$S140,$P182&lt;$S182), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="AA140" t="str">
+        <f t="shared" ref="AA140:AA176" si="19">IF(AND($S140=1,$S182=1), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="AB140" t="str">
+        <f t="shared" ref="AB140:AB176" si="20">IF(AND($S140&gt;1,$S182&gt;1), "YES", "NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>162</v>
       </c>
@@ -11318,7 +11945,7 @@
         <v>4.62</v>
       </c>
       <c r="O141" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P141" s="23">
@@ -11331,15 +11958,15 @@
         <v>0</v>
       </c>
       <c r="S141" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="U141" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V141" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W141" t="s">
@@ -11348,8 +11975,24 @@
       <c r="X141" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="142" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y141" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z141" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA141" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB141" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>155</v>
       </c>
@@ -11393,7 +12036,7 @@
         <v>4.62</v>
       </c>
       <c r="O142" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P142" s="23">
@@ -11406,15 +12049,15 @@
         <v>5</v>
       </c>
       <c r="S142" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="U142" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V142" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W142" t="s">
@@ -11423,8 +12066,24 @@
       <c r="X142" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="143" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y142" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z142" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA142" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB142" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>55</v>
       </c>
@@ -11468,7 +12127,7 @@
         <v>4.62</v>
       </c>
       <c r="O143" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P143" s="23">
@@ -11481,15 +12140,15 @@
         <v>12</v>
       </c>
       <c r="S143" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="U143" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V143" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W143" t="s">
@@ -11498,8 +12157,24 @@
       <c r="X143" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="144" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y143" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z143" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA143" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB143" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>120</v>
       </c>
@@ -11543,7 +12218,7 @@
         <v>0</v>
       </c>
       <c r="O144" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P144" s="23">
@@ -11556,15 +12231,15 @@
         <v>4</v>
       </c>
       <c r="S144" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="U144" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V144" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W144" t="s">
@@ -11573,8 +12248,24 @@
       <c r="X144" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="145" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y144" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z144" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA144" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB144" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>104</v>
       </c>
@@ -11618,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="O145" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P145" s="23">
@@ -11631,15 +12322,15 @@
         <v>6</v>
       </c>
       <c r="S145" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="U145" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V145" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W145" t="s">
@@ -11648,8 +12339,24 @@
       <c r="X145" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="146" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y145" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z145" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA145" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB145" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>130</v>
       </c>
@@ -11693,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="O146" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P146" s="23">
@@ -11706,15 +12413,15 @@
         <v>1</v>
       </c>
       <c r="S146" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="U146" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V146" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>NO</v>
       </c>
       <c r="W146" t="s">
@@ -11723,8 +12430,24 @@
       <c r="X146" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="147" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y146" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z146" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA146" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB146" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>139</v>
       </c>
@@ -11768,7 +12491,7 @@
         <v>0</v>
       </c>
       <c r="O147" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P147" s="23">
@@ -11781,15 +12504,15 @@
         <v>3</v>
       </c>
       <c r="S147" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="U147" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V147" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>NO</v>
       </c>
       <c r="W147" t="s">
@@ -11798,8 +12521,24 @@
       <c r="X147" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="148" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y147" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z147" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA147" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB147" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>136</v>
       </c>
@@ -11843,7 +12582,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="O148" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P148" s="23">
@@ -11856,15 +12595,15 @@
         <v>5</v>
       </c>
       <c r="S148" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="U148" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V148" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>NO</v>
       </c>
       <c r="W148" t="s">
@@ -11873,8 +12612,24 @@
       <c r="X148" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="149" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y148" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z148" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA148" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB148" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>88</v>
       </c>
@@ -11918,7 +12673,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="O149" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P149" s="23">
@@ -11931,15 +12686,15 @@
         <v>5</v>
       </c>
       <c r="S149" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="U149" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V149" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>NO</v>
       </c>
       <c r="W149" t="s">
@@ -11948,8 +12703,24 @@
       <c r="X149" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="150" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y149" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z149" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA149" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB149" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>167</v>
       </c>
@@ -11993,7 +12764,7 @@
         <v>0.83</v>
       </c>
       <c r="O150" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P150" s="23">
@@ -12006,15 +12777,15 @@
         <v>1</v>
       </c>
       <c r="S150" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="U150" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V150" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>NO</v>
       </c>
       <c r="W150" t="s">
@@ -12023,8 +12794,24 @@
       <c r="X150" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="151" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y150" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z150" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA150" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB150" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>62</v>
       </c>
@@ -12068,7 +12855,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="O151" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P151" s="23">
@@ -12081,15 +12868,15 @@
         <v>3</v>
       </c>
       <c r="S151" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="U151" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V151" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>NO</v>
       </c>
       <c r="W151" t="s">
@@ -12098,8 +12885,24 @@
       <c r="X151" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="152" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y151" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z151" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA151" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB151" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>131</v>
       </c>
@@ -12143,7 +12946,7 @@
         <v>0.82</v>
       </c>
       <c r="O152" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Repaired</v>
       </c>
       <c r="P152" s="23">
@@ -12156,15 +12959,15 @@
         <v>3</v>
       </c>
       <c r="S152" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="U152" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V152" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W152" t="s">
@@ -12173,8 +12976,24 @@
       <c r="X152" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="153" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y152" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z152" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA152" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB152" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>25</v>
       </c>
@@ -12218,7 +13037,7 @@
         <v>0.82</v>
       </c>
       <c r="O153" s="13" t="str">
-        <f t="shared" ref="O153:O176" si="13">IF(NOT(ISERR(SEARCH("*_Buggy",$A153))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A153))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A153))), "Repaired", "")))</f>
+        <f t="shared" ref="O153:O176" si="21">IF(NOT(ISERR(SEARCH("*_Buggy",$A153))), "Buggy", IF(NOT(ISERR(SEARCH("*_Fixed",$A153))), "Fixed", IF(NOT(ISERR(SEARCH("*_Repaired",$A153))), "Repaired", "")))</f>
         <v>Repaired</v>
       </c>
       <c r="P153" s="23">
@@ -12231,15 +13050,15 @@
         <v>4</v>
       </c>
       <c r="S153" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="U153" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V153" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W153" t="s">
@@ -12248,8 +13067,24 @@
       <c r="X153" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="154" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y153" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z153" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA153" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB153" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>124</v>
       </c>
@@ -12293,7 +13128,7 @@
         <v>0.82</v>
       </c>
       <c r="O154" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P154" s="23">
@@ -12306,15 +13141,15 @@
         <v>0</v>
       </c>
       <c r="S154" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="U154" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V154" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W154" t="s">
@@ -12323,8 +13158,24 @@
       <c r="X154" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="155" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y154" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z154" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA154" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB154" t="str">
+        <f t="shared" si="20"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>57</v>
       </c>
@@ -12368,7 +13219,7 @@
         <v>0.82</v>
       </c>
       <c r="O155" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P155" s="23">
@@ -12381,15 +13232,15 @@
         <v>5</v>
       </c>
       <c r="S155" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="U155" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V155" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W155" t="s">
@@ -12398,8 +13249,24 @@
       <c r="X155" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="156" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y155" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z155" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA155" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB155" t="str">
+        <f t="shared" si="20"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>27</v>
       </c>
@@ -12443,7 +13310,7 @@
         <v>0.82</v>
       </c>
       <c r="O156" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P156" s="23">
@@ -12456,15 +13323,15 @@
         <v>8</v>
       </c>
       <c r="S156" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="U156" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V156" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W156" t="s">
@@ -12473,8 +13340,24 @@
       <c r="X156" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="157" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y156" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z156" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA156" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB156" t="str">
+        <f t="shared" si="20"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>34</v>
       </c>
@@ -12518,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="O157" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P157" s="23">
@@ -12531,15 +13414,15 @@
         <v>10</v>
       </c>
       <c r="S157" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="U157" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V157" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>NO</v>
       </c>
       <c r="W157" t="s">
@@ -12548,8 +13431,24 @@
       <c r="X157" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="158" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y157" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z157" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA157" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB157" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>59</v>
       </c>
@@ -12593,7 +13492,7 @@
         <v>0.82</v>
       </c>
       <c r="O158" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P158" s="23">
@@ -12606,15 +13505,15 @@
         <v>6</v>
       </c>
       <c r="S158" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="U158" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V158" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W158" t="s">
@@ -12623,8 +13522,24 @@
       <c r="X158" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="159" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y158" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z158" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA158" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB158" t="str">
+        <f t="shared" si="20"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
         <v>76</v>
       </c>
@@ -12668,7 +13583,7 @@
         <v>0.82</v>
       </c>
       <c r="O159" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P159" s="23">
@@ -12681,15 +13596,15 @@
         <v>21</v>
       </c>
       <c r="S159" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>36</v>
       </c>
       <c r="U159" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V159" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W159" t="s">
@@ -12698,8 +13613,24 @@
       <c r="X159" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="160" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y159" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z159" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA159" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB159" t="str">
+        <f t="shared" si="20"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>94</v>
       </c>
@@ -12743,7 +13674,7 @@
         <v>0.82</v>
       </c>
       <c r="O160" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P160" s="23">
@@ -12756,15 +13687,15 @@
         <v>3</v>
       </c>
       <c r="S160" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="U160" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V160" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W160" t="s">
@@ -12773,8 +13704,24 @@
       <c r="X160" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="161" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y160" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z160" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA160" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB160" t="str">
+        <f t="shared" si="20"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>176</v>
       </c>
@@ -12818,7 +13765,7 @@
         <v>0.82</v>
       </c>
       <c r="O161" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P161" s="23">
@@ -12831,15 +13778,15 @@
         <v>17</v>
       </c>
       <c r="S161" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="U161" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V161" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W161" t="s">
@@ -12848,8 +13795,24 @@
       <c r="X161" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="162" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y161" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z161" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA161" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB161" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
         <v>163</v>
       </c>
@@ -12893,7 +13856,7 @@
         <v>0.82</v>
       </c>
       <c r="O162" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P162" s="23">
@@ -12906,15 +13869,15 @@
         <v>13</v>
       </c>
       <c r="S162" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="U162" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V162" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W162" t="s">
@@ -12923,8 +13886,24 @@
       <c r="X162" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="163" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y162" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z162" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA162" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB162" t="str">
+        <f t="shared" si="20"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
         <v>151</v>
       </c>
@@ -12968,7 +13947,7 @@
         <v>68.92</v>
       </c>
       <c r="O163" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P163" s="23">
@@ -12981,15 +13960,15 @@
         <v>23</v>
       </c>
       <c r="S163" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>43</v>
       </c>
       <c r="U163" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V163" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W163" t="s">
@@ -12998,8 +13977,24 @@
       <c r="X163" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="164" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y163" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z163" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA163" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB163" t="str">
+        <f t="shared" si="20"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
         <v>165</v>
       </c>
@@ -13043,7 +14038,7 @@
         <v>4.62</v>
       </c>
       <c r="O164" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P164" s="23">
@@ -13056,15 +14051,15 @@
         <v>0</v>
       </c>
       <c r="S164" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="U164" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V164" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W164" t="s">
@@ -13073,8 +14068,24 @@
       <c r="X164" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="165" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y164" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z164" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA164" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB164" t="str">
+        <f t="shared" si="20"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>108</v>
       </c>
@@ -13118,7 +14129,7 @@
         <v>0.82</v>
       </c>
       <c r="O165" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P165" s="23">
@@ -13131,15 +14142,15 @@
         <v>3</v>
       </c>
       <c r="S165" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="U165" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V165" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>NO</v>
       </c>
       <c r="W165" t="s">
@@ -13148,8 +14159,24 @@
       <c r="X165" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="166" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y165" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z165" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA165" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB165" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
         <v>54</v>
       </c>
@@ -13193,7 +14220,7 @@
         <v>4.62</v>
       </c>
       <c r="O166" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P166" s="23">
@@ -13206,15 +14233,15 @@
         <v>1</v>
       </c>
       <c r="S166" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="U166" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V166" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>NO</v>
       </c>
       <c r="W166" t="s">
@@ -13223,8 +14250,24 @@
       <c r="X166" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="167" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y166" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z166" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA166" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB166" t="str">
+        <f t="shared" si="20"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
         <v>89</v>
       </c>
@@ -13268,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="O167" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P167" s="23">
@@ -13281,15 +14324,15 @@
         <v>3</v>
       </c>
       <c r="S167" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="U167" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V167" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>NO</v>
       </c>
       <c r="W167" t="s">
@@ -13298,8 +14341,24 @@
       <c r="X167" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="168" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y167" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z167" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA167" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB167" t="str">
+        <f t="shared" si="20"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>75</v>
       </c>
@@ -13343,7 +14402,7 @@
         <v>0.31</v>
       </c>
       <c r="O168" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P168" s="23">
@@ -13356,15 +14415,15 @@
         <v>23</v>
       </c>
       <c r="S168" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>44</v>
       </c>
       <c r="U168" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V168" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W168" t="s">
@@ -13373,8 +14432,24 @@
       <c r="X168" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="169" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y168" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z168" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA168" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB168" t="str">
+        <f t="shared" si="20"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>152</v>
       </c>
@@ -13418,7 +14493,7 @@
         <v>0.82</v>
       </c>
       <c r="O169" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P169" s="23">
@@ -13431,15 +14506,15 @@
         <v>0</v>
       </c>
       <c r="S169" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="U169" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V169" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>NO</v>
       </c>
       <c r="W169" t="s">
@@ -13448,8 +14523,24 @@
       <c r="X169" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="170" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y169" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z169" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA169" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB169" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>102</v>
       </c>
@@ -13493,7 +14584,7 @@
         <v>0.82</v>
       </c>
       <c r="O170" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P170" s="23">
@@ -13506,15 +14597,15 @@
         <v>3</v>
       </c>
       <c r="S170" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="U170" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V170" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>NO</v>
       </c>
       <c r="W170" t="s">
@@ -13523,8 +14614,24 @@
       <c r="X170" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="171" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y170" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z170" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA170" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB170" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
         <v>52</v>
       </c>
@@ -13568,7 +14675,7 @@
         <v>0.82</v>
       </c>
       <c r="O171" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P171" s="23">
@@ -13581,15 +14688,15 @@
         <v>1</v>
       </c>
       <c r="S171" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="U171" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V171" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W171" t="s">
@@ -13598,8 +14705,24 @@
       <c r="X171" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="172" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y171" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z171" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA171" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB171" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>114</v>
       </c>
@@ -13643,7 +14766,7 @@
         <v>0.82</v>
       </c>
       <c r="O172" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P172" s="23">
@@ -13656,15 +14779,15 @@
         <v>1</v>
       </c>
       <c r="S172" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="U172" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V172" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>YES</v>
       </c>
       <c r="W172" t="s">
@@ -13673,8 +14796,24 @@
       <c r="X172" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="173" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y172" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z172" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA172" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB172" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>109</v>
       </c>
@@ -13718,7 +14857,7 @@
         <v>0.82</v>
       </c>
       <c r="O173" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P173" s="23">
@@ -13731,15 +14870,15 @@
         <v>1</v>
       </c>
       <c r="S173" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="U173" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V173" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>NO</v>
       </c>
       <c r="W173" t="s">
@@ -13748,8 +14887,24 @@
       <c r="X173" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="174" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y173" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z173" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA173" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB173" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>110</v>
       </c>
@@ -13793,7 +14948,7 @@
         <v>0</v>
       </c>
       <c r="O174" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P174" s="23">
@@ -13806,15 +14961,15 @@
         <v>10</v>
       </c>
       <c r="S174" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="U174" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V174" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>NO</v>
       </c>
       <c r="W174" t="s">
@@ -13823,8 +14978,24 @@
       <c r="X174" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="175" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y174" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z174" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA174" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB174" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>150</v>
       </c>
@@ -13868,7 +15039,7 @@
         <v>0</v>
       </c>
       <c r="O175" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P175" s="23">
@@ -13881,15 +15052,15 @@
         <v>10</v>
       </c>
       <c r="S175" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="U175" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V175" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>NO</v>
       </c>
       <c r="W175" t="s">
@@ -13898,8 +15069,24 @@
       <c r="X175" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="176" spans="1:24" ht="15" x14ac:dyDescent="0.35">
+      <c r="Y175" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z175" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA175" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB175" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28" ht="15" x14ac:dyDescent="0.35">
       <c r="A176" s="7" t="s">
         <v>123</v>
       </c>
@@ -13943,7 +15130,7 @@
         <v>4.62</v>
       </c>
       <c r="O176" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Repaired</v>
       </c>
       <c r="P176" s="23">
@@ -13956,15 +15143,15 @@
         <v>0</v>
       </c>
       <c r="S176" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="U176" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>NO</v>
       </c>
       <c r="V176" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>NO</v>
       </c>
       <c r="W176" t="s">
@@ -13973,8 +15160,24 @@
       <c r="X176" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="177" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y176" t="str">
+        <f t="shared" si="17"/>
+        <v>NO</v>
+      </c>
+      <c r="Z176" t="str">
+        <f t="shared" si="18"/>
+        <v>NO</v>
+      </c>
+      <c r="AA176" t="str">
+        <f t="shared" si="19"/>
+        <v>NO</v>
+      </c>
+      <c r="AB176" t="str">
+        <f t="shared" si="20"/>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="12" t="s">
         <v>211</v>
       </c>
@@ -14032,8 +15235,32 @@
       <c r="S177" s="12" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U177" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="V177" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="W177" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="X177" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y177" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z177" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA177" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB177" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A178" s="9" t="s">
         <v>177</v>
       </c>
@@ -14078,7 +15305,7 @@
       </c>
       <c r="O178" s="10"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A179" s="11" t="s">
         <v>186</v>
       </c>
@@ -14123,7 +15350,7 @@
       </c>
       <c r="O179" s="10"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A180" s="9" t="s">
         <v>187</v>
       </c>
@@ -14168,7 +15395,7 @@
       </c>
       <c r="O180" s="10"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A181" s="11" t="s">
         <v>188</v>
       </c>
@@ -14213,7 +15440,7 @@
       </c>
       <c r="O181" s="10"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A182" s="9" t="s">
         <v>189</v>
       </c>
@@ -14258,7 +15485,7 @@
       </c>
       <c r="O182" s="10"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A183" s="11" t="s">
         <v>190</v>
       </c>
@@ -14303,7 +15530,7 @@
       </c>
       <c r="O183" s="10"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A186" s="26" t="s">
         <v>213</v>
       </c>
@@ -14321,7 +15548,7 @@
       <c r="M186" s="27"/>
       <c r="N186" s="27"/>
     </row>
-    <row r="188" spans="1:19" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:28" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="12" t="s">
         <v>212</v>
       </c>
@@ -14365,178 +15592,178 @@
         <v>207</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B189" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C189" s="14">
-        <f t="shared" ref="C189:O189" si="14" xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Buggy",B$24:B$176)</f>
+        <f t="shared" ref="C189:O189" si="22" xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Buggy",B$24:B$176)</f>
         <v>3.225882352941178</v>
       </c>
       <c r="D189" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>78.776274509803912</v>
       </c>
       <c r="E189" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>23.686078431372543</v>
       </c>
       <c r="F189" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>7.2852941176470587</v>
       </c>
       <c r="G189" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>14.90980392156863</v>
       </c>
       <c r="H189" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>4.3131372549019602</v>
       </c>
       <c r="I189" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>11.599411764705881</v>
       </c>
       <c r="J189" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>38.596274509803898</v>
       </c>
       <c r="K189" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>65.102156862745105</v>
       </c>
       <c r="L189" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.56178431372549031</v>
       </c>
       <c r="M189" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>4.592156862745099E-2</v>
       </c>
       <c r="N189" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>18.572199999999999</v>
       </c>
       <c r="O189" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2.3623725490196072</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B190" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C190" s="14">
-        <f t="shared" ref="C190:O190" si="15" xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Fixed",B$24:B$176)</f>
+        <f t="shared" ref="C190:O190" si="23" xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Fixed",B$24:B$176)</f>
         <v>3.4094117647058821</v>
       </c>
       <c r="D190" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>78.530196078431388</v>
       </c>
       <c r="E190" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>23.924901960784307</v>
       </c>
       <c r="F190" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>7.3060784313725522</v>
       </c>
       <c r="G190" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>15.764509803921564</v>
       </c>
       <c r="H190" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>4.3756862745098033</v>
       </c>
       <c r="I190" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>11.681372549019608</v>
       </c>
       <c r="J190" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>39.690392156862735</v>
       </c>
       <c r="K190" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>65.971568627450978</v>
       </c>
       <c r="L190" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.55860784313725487</v>
       </c>
       <c r="M190" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>4.592156862745099E-2</v>
       </c>
       <c r="N190" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>18.509399999999996</v>
       </c>
       <c r="O190" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>2.3590392156862743</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B191" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C191" s="14">
-        <f t="shared" ref="C191:O191" si="16" xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Repaired",B$24:B$176)</f>
+        <f t="shared" ref="C191:O191" si="24" xml:space="preserve"> AVERAGEIF($A$24:$A$176, "*Repaired",B$24:B$176)</f>
         <v>3.424509803921568</v>
       </c>
       <c r="D191" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>78.645686274509828</v>
       </c>
       <c r="E191" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>24.032549019607846</v>
       </c>
       <c r="F191" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>7.3231372549019627</v>
       </c>
       <c r="G191" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>15.519411764705881</v>
       </c>
       <c r="H191" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>4.3221568627450981</v>
       </c>
       <c r="I191" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>11.644705882352941</v>
       </c>
       <c r="J191" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>39.550980392156859</v>
       </c>
       <c r="K191" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>65.592745098039202</v>
       </c>
       <c r="L191" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.56178431372549031</v>
       </c>
       <c r="M191" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>4.592156862745099E-2</v>
       </c>
       <c r="N191" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>18.572199999999999</v>
       </c>
       <c r="O191" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>2.3623725490196072</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
@@ -14664,55 +15891,55 @@
         <v>238</v>
       </c>
       <c r="C197" s="28">
-        <f>AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
+        <f t="shared" ref="C197:O197" si="25">AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
         <v>4.8327777777777774</v>
       </c>
       <c r="D197" s="28">
-        <f>AVERAGEIFS(C$24:C$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="25"/>
         <v>70.464444444444439</v>
       </c>
       <c r="E197" s="28">
-        <f>AVERAGEIFS(D$24:D$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="25"/>
         <v>40.714444444444446</v>
       </c>
       <c r="F197" s="28">
-        <f>AVERAGEIFS(E$24:E$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="25"/>
         <v>9.8761111111111113</v>
       </c>
       <c r="G197" s="28">
-        <f>AVERAGEIFS(F$24:F$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="25"/>
         <v>26.883333333333336</v>
       </c>
       <c r="H197" s="28">
-        <f>AVERAGEIFS(G$24:G$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="25"/>
         <v>6.0133333333333328</v>
       </c>
       <c r="I197" s="28">
-        <f>AVERAGEIFS(H$24:H$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="25"/>
         <v>15.889444444444447</v>
       </c>
       <c r="J197" s="28">
-        <f>AVERAGEIFS(I$24:I$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="25"/>
         <v>67.601111111111109</v>
       </c>
       <c r="K197" s="28">
-        <f>AVERAGEIFS(J$24:J$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="25"/>
         <v>100.8888888888889</v>
       </c>
       <c r="L197" s="28">
-        <f>AVERAGEIFS(K$24:K$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="25"/>
         <v>0.48499999999999993</v>
       </c>
       <c r="M197" s="28">
-        <f>AVERAGEIFS(L$24:L$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="25"/>
         <v>4.1888888888888892E-2</v>
       </c>
       <c r="N197" s="28">
-        <f>AVERAGEIFS(M$24:M$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="25"/>
         <v>6.5294117647058822</v>
       </c>
       <c r="O197" s="28">
-        <f>AVERAGEIFS(N$24:N$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="25"/>
         <v>4.1711111111111112</v>
       </c>
       <c r="R197">
@@ -14727,51 +15954,51 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U197" s="28" t="e">
-        <f t="shared" ref="U197:AF197" si="17">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Fixed", $P$75:$P$176, "=1", $S$75:$S$176, "=1")</f>
+        <f t="shared" ref="U197:AF197" si="26">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Fixed", $P$75:$P$176, "=1", $S$75:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V197" s="28" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W197" s="28" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X197" s="28" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y197" s="28" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z197" s="28" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA197" s="28" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB197" s="28" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC197" s="28" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD197" s="28" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE197" s="28" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF197" s="28" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14784,55 +16011,55 @@
         <v>239</v>
       </c>
       <c r="C198" s="28">
-        <f>AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
+        <f t="shared" ref="C198:O198" si="27">AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
         <v>3.2160000000000002</v>
       </c>
       <c r="D198" s="28">
-        <f>AVERAGEIFS(C$24:C$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="27"/>
         <v>79.440000000000012</v>
       </c>
       <c r="E198" s="28">
-        <f>AVERAGEIFS(D$24:D$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="27"/>
         <v>19.792499999999997</v>
       </c>
       <c r="F198" s="28">
-        <f>AVERAGEIFS(E$24:E$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="27"/>
         <v>6.3534999999999995</v>
       </c>
       <c r="G198" s="28">
-        <f>AVERAGEIFS(F$24:F$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="27"/>
         <v>13.4305</v>
       </c>
       <c r="H198" s="28">
-        <f>AVERAGEIFS(G$24:G$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="27"/>
         <v>4.0074999999999994</v>
       </c>
       <c r="I198" s="28">
-        <f>AVERAGEIFS(H$24:H$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="27"/>
         <v>10.360500000000002</v>
       </c>
       <c r="J198" s="28">
-        <f>AVERAGEIFS(I$24:I$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="27"/>
         <v>33.221500000000006</v>
       </c>
       <c r="K198" s="28">
-        <f>AVERAGEIFS(J$24:J$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="27"/>
         <v>55.818000000000005</v>
       </c>
       <c r="L198" s="28">
-        <f>AVERAGEIFS(K$24:K$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="27"/>
         <v>0.52405000000000013</v>
       </c>
       <c r="M198" s="28">
-        <f>AVERAGEIFS(L$24:L$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="27"/>
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="N198" s="28">
-        <f>AVERAGEIFS(M$24:M$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="27"/>
         <v>15.980500000000001</v>
       </c>
       <c r="O198" s="28">
-        <f>AVERAGEIFS(N$24:N$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "=1")</f>
+        <f t="shared" si="27"/>
         <v>0.88755000000000006</v>
       </c>
       <c r="R198">
@@ -14847,47 +16074,47 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U198" s="28" t="e">
-        <f t="shared" ref="U198:AE198" si="18">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Repaired", $P$75:$P$176, "=1", $S$75:$S$176, "=1")</f>
+        <f t="shared" ref="U198:AE198" si="28">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Repaired", $P$75:$P$176, "=1", $S$75:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V198" s="28" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W198" s="28" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X198" s="28" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y198" s="28" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z198" s="28" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA198" s="28" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB198" s="28" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC198" s="28" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD198" s="28" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE198" s="28" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF198" s="28" t="e">
@@ -14994,55 +16221,55 @@
         <v>240</v>
       </c>
       <c r="C201" s="28">
-        <f t="shared" ref="C201:O201" si="19">AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" ref="C201:O201" si="29">AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Fixed", $P$24:$P$176, "&gt;1")</f>
         <v>2.6330303030303046</v>
       </c>
       <c r="D201" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>82.929696969696948</v>
       </c>
       <c r="E201" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>14.76696969696969</v>
       </c>
       <c r="F201" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>5.9042424242424261</v>
       </c>
       <c r="G201" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>9.6996969696969675</v>
       </c>
       <c r="H201" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>3.4824242424242415</v>
       </c>
       <c r="I201" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>9.3860606060606084</v>
       </c>
       <c r="J201" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>24.466363636363631</v>
       </c>
       <c r="K201" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>46.925757575757572</v>
       </c>
       <c r="L201" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.59875757575757582</v>
       </c>
       <c r="M201" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>4.8121212121212113E-2</v>
       </c>
       <c r="N201" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>24.680909090909093</v>
       </c>
       <c r="O201" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1.3706363636363637</v>
       </c>
       <c r="R201">
@@ -15057,51 +16284,51 @@
         <v>4.8327777777777774</v>
       </c>
       <c r="U201" s="28">
-        <f t="shared" ref="U201:AF201" si="20">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Fixed", $P$75:$P$176, "=1", $S$75:$S$176, "&gt;1")</f>
+        <f t="shared" ref="U201:AF201" si="30">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Fixed", $P$75:$P$176, "=1", $S$75:$S$176, "&gt;1")</f>
         <v>70.464444444444439</v>
       </c>
       <c r="V201" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>40.714444444444446</v>
       </c>
       <c r="W201" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>9.8761111111111113</v>
       </c>
       <c r="X201" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>26.883333333333336</v>
       </c>
       <c r="Y201" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>6.0133333333333328</v>
       </c>
       <c r="Z201" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>15.889444444444447</v>
       </c>
       <c r="AA201" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>67.601111111111109</v>
       </c>
       <c r="AB201" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>100.8888888888889</v>
       </c>
       <c r="AC201" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.48499999999999993</v>
       </c>
       <c r="AD201" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>4.1888888888888892E-2</v>
       </c>
       <c r="AE201" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>6.5294117647058822</v>
       </c>
       <c r="AF201" s="28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>4.1711111111111112</v>
       </c>
     </row>
@@ -15114,55 +16341,55 @@
         <v>241</v>
       </c>
       <c r="C202" s="28">
-        <f t="shared" ref="C202:O202" si="21">AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&gt;1")</f>
+        <f t="shared" ref="C202:O202" si="31">AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Repaired", $P$24:$P$176, "&gt;1")</f>
         <v>3.5590322580645171</v>
       </c>
       <c r="D202" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>78.133225806451605</v>
       </c>
       <c r="E202" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>26.76806451612903</v>
       </c>
       <c r="F202" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>7.9487096774193553</v>
       </c>
       <c r="G202" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>16.867096774193552</v>
       </c>
       <c r="H202" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>4.5251612903225809</v>
       </c>
       <c r="I202" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>12.473225806451614</v>
       </c>
       <c r="J202" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>43.634516129032271</v>
       </c>
       <c r="K202" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>71.899032258064494</v>
       </c>
       <c r="L202" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0.58612903225806467</v>
       </c>
       <c r="M202" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>3.9225806451612902E-2</v>
       </c>
       <c r="N202" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>20.300000000000004</v>
       </c>
       <c r="O202" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>3.3138709677419356</v>
       </c>
       <c r="R202">
@@ -15177,51 +16404,51 @@
         <v>3.2160000000000002</v>
       </c>
       <c r="U202" s="28">
-        <f t="shared" ref="U202:AF202" si="22">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Repaired", $P$75:$P$176, "=1", $S$75:$S$176, "&gt;1")</f>
+        <f t="shared" ref="U202:AF202" si="32">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Repaired", $P$75:$P$176, "=1", $S$75:$S$176, "&gt;1")</f>
         <v>79.440000000000012</v>
       </c>
       <c r="V202" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>19.792499999999997</v>
       </c>
       <c r="W202" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>6.3534999999999995</v>
       </c>
       <c r="X202" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>13.4305</v>
       </c>
       <c r="Y202" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>4.0074999999999994</v>
       </c>
       <c r="Z202" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>10.360500000000002</v>
       </c>
       <c r="AA202" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>33.221500000000006</v>
       </c>
       <c r="AB202" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>55.818000000000005</v>
       </c>
       <c r="AC202" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.52405000000000013</v>
       </c>
       <c r="AD202" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>5.6300000000000003E-2</v>
       </c>
       <c r="AE202" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>15.980500000000001</v>
       </c>
       <c r="AF202" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.88755000000000006</v>
       </c>
     </row>
@@ -15346,55 +16573,55 @@
         <v>242</v>
       </c>
       <c r="C205" s="28" t="e">
-        <f>AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
+        <f t="shared" ref="C205:O205" si="33">AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D205" s="28" t="e">
-        <f>AVERAGEIFS(C$24:C$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E205" s="28" t="e">
-        <f>AVERAGEIFS(D$24:D$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F205" s="28" t="e">
-        <f>AVERAGEIFS(E$24:E$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G205" s="28" t="e">
-        <f>AVERAGEIFS(F$24:F$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H205" s="28" t="e">
-        <f>AVERAGEIFS(G$24:G$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I205" s="28" t="e">
-        <f>AVERAGEIFS(H$24:H$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J205" s="28" t="e">
-        <f>AVERAGEIFS(I$24:I$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K205" s="28" t="e">
-        <f>AVERAGEIFS(J$24:J$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L205" s="28" t="e">
-        <f>AVERAGEIFS(K$24:K$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M205" s="28" t="e">
-        <f>AVERAGEIFS(L$24:L$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N205" s="28" t="e">
-        <f>AVERAGEIFS(M$24:M$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O205" s="28" t="e">
-        <f>AVERAGEIFS(N$24:N$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R205">
@@ -15409,51 +16636,51 @@
         <v>#DIV/0!</v>
       </c>
       <c r="U205" s="28" t="e">
-        <f t="shared" ref="U205:AF205" si="23">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Fixed", $U$75:$U$176, "YES")</f>
+        <f t="shared" ref="U205:AF205" si="34">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Fixed", $U$75:$U$176, "YES")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V205" s="28" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W205" s="28" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X205" s="28" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y205" s="28" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z205" s="28" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA205" s="28" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB205" s="28" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC205" s="28" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD205" s="28" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE205" s="28" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF205" s="28" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15462,55 +16689,55 @@
         <v>243</v>
       </c>
       <c r="C206" s="28" t="e">
-        <f>AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
+        <f t="shared" ref="C206:O206" si="35">AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D206" s="28" t="e">
-        <f>AVERAGEIFS(C$24:C$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E206" s="28" t="e">
-        <f>AVERAGEIFS(D$24:D$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F206" s="28" t="e">
-        <f>AVERAGEIFS(E$24:E$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G206" s="28" t="e">
-        <f>AVERAGEIFS(F$24:F$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H206" s="28" t="e">
-        <f>AVERAGEIFS(G$24:G$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I206" s="28" t="e">
-        <f>AVERAGEIFS(H$24:H$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J206" s="28" t="e">
-        <f>AVERAGEIFS(I$24:I$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K206" s="28" t="e">
-        <f>AVERAGEIFS(J$24:J$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L206" s="28" t="e">
-        <f>AVERAGEIFS(K$24:K$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M206" s="28" t="e">
-        <f>AVERAGEIFS(L$24:L$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N206" s="28" t="e">
-        <f>AVERAGEIFS(M$24:M$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O206" s="28" t="e">
-        <f>AVERAGEIFS(N$24:N$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "=1")</f>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R206">
@@ -15525,51 +16752,51 @@
         <v>2.33</v>
       </c>
       <c r="U206" s="28">
-        <f t="shared" ref="U206:AF206" si="24">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Repaired", $U$75:$U$176, "YES")</f>
+        <f t="shared" ref="U206:AF206" si="36">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Repaired", $U$75:$U$176, "YES")</f>
         <v>83.06</v>
       </c>
       <c r="V206" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>9.7200000000000006</v>
       </c>
       <c r="W206" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>5.56</v>
       </c>
       <c r="X206" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>7.44</v>
       </c>
       <c r="Y206" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>3.39</v>
       </c>
       <c r="Z206" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>8.94</v>
       </c>
       <c r="AA206" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>17.170000000000002</v>
       </c>
       <c r="AB206" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>41.73</v>
       </c>
       <c r="AC206" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0.39</v>
       </c>
       <c r="AD206" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>3.9E-2</v>
       </c>
       <c r="AE206" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>14.74</v>
       </c>
       <c r="AF206" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0.82</v>
       </c>
     </row>
@@ -15698,55 +16925,55 @@
         <v>244</v>
       </c>
       <c r="C209" s="28">
-        <f t="shared" ref="C209:O209" si="25">AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" ref="C209:O209" si="37">AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Fixed", $S$24:$S$176, "&gt;1")</f>
         <v>3.4094117647058821</v>
       </c>
       <c r="D209" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>78.530196078431388</v>
       </c>
       <c r="E209" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>23.924901960784307</v>
       </c>
       <c r="F209" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>7.3060784313725522</v>
       </c>
       <c r="G209" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>15.764509803921564</v>
       </c>
       <c r="H209" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>4.3756862745098033</v>
       </c>
       <c r="I209" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>11.681372549019608</v>
       </c>
       <c r="J209" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>39.690392156862735</v>
       </c>
       <c r="K209" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>65.971568627450978</v>
       </c>
       <c r="L209" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.55860784313725487</v>
       </c>
       <c r="M209" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>4.592156862745099E-2</v>
       </c>
       <c r="N209" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>18.509399999999996</v>
       </c>
       <c r="O209" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>2.3590392156862743</v>
       </c>
       <c r="R209">
@@ -15761,51 +16988,51 @@
         <v>2.6330303030303046</v>
       </c>
       <c r="U209" s="28">
-        <f t="shared" ref="U209:AF209" si="26">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Fixed", $V$75:$V$176, "YES")</f>
+        <f t="shared" ref="U209:AF209" si="38">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Fixed", $V$75:$V$176, "YES")</f>
         <v>82.929696969696948</v>
       </c>
       <c r="V209" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>14.76696969696969</v>
       </c>
       <c r="W209" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>5.9042424242424261</v>
       </c>
       <c r="X209" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>9.6996969696969675</v>
       </c>
       <c r="Y209" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>3.4824242424242415</v>
       </c>
       <c r="Z209" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>9.3860606060606084</v>
       </c>
       <c r="AA209" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>24.466363636363631</v>
       </c>
       <c r="AB209" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>46.925757575757572</v>
       </c>
       <c r="AC209" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>0.59875757575757582</v>
       </c>
       <c r="AD209" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>4.8121212121212113E-2</v>
       </c>
       <c r="AE209" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>24.680909090909093</v>
       </c>
       <c r="AF209" s="28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>1.3706363636363637</v>
       </c>
     </row>
@@ -15818,55 +17045,55 @@
         <v>245</v>
       </c>
       <c r="C210" s="28">
-        <f t="shared" ref="C210:O210" si="27">AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&gt;1")</f>
+        <f t="shared" ref="C210:O210" si="39">AVERAGEIFS(B$24:B$176, $O$24:$O$176, "*Repaired", $S$24:$S$176, "&gt;1")</f>
         <v>3.424509803921568</v>
       </c>
       <c r="D210" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>78.645686274509828</v>
       </c>
       <c r="E210" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>24.032549019607846</v>
       </c>
       <c r="F210" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>7.3231372549019627</v>
       </c>
       <c r="G210" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>15.519411764705881</v>
       </c>
       <c r="H210" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>4.3221568627450981</v>
       </c>
       <c r="I210" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>11.644705882352941</v>
       </c>
       <c r="J210" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>39.550980392156859</v>
       </c>
       <c r="K210" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>65.592745098039202</v>
       </c>
       <c r="L210" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>0.56178431372549031</v>
       </c>
       <c r="M210" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>4.592156862745099E-2</v>
       </c>
       <c r="N210" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>18.572199999999999</v>
       </c>
       <c r="O210" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>2.3623725490196072</v>
       </c>
       <c r="R210">
@@ -15881,51 +17108,51 @@
         <v>3.6000000000000005</v>
       </c>
       <c r="U210" s="28">
-        <f t="shared" ref="U210:AF210" si="28">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Repaired", $V$75:$V$176, "YES")</f>
+        <f t="shared" ref="U210:AF210" si="40">AVERAGEIFS(C$75:C$176, $O$75:$O$176, "*Repaired", $V$75:$V$176, "YES")</f>
         <v>77.968999999999994</v>
       </c>
       <c r="V210" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>27.336333333333332</v>
       </c>
       <c r="W210" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>8.0283333333333342</v>
       </c>
       <c r="X210" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>17.181333333333335</v>
       </c>
       <c r="Y210" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>4.5629999999999988</v>
       </c>
       <c r="Z210" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>12.591000000000003</v>
       </c>
       <c r="AA210" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>44.516666666666673</v>
       </c>
       <c r="AB210" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>72.904666666666643</v>
       </c>
       <c r="AC210" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>0.59266666666666679</v>
       </c>
       <c r="AD210" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>3.9233333333333335E-2</v>
       </c>
       <c r="AE210" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>20.491724137931037</v>
       </c>
       <c r="AF210" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>3.3969999999999998</v>
       </c>
     </row>
@@ -16019,55 +17246,55 @@
         <v>229</v>
       </c>
       <c r="C216" s="28">
-        <f t="shared" ref="C216:O216" si="29">AVERAGEIF($A$24:$A$176, "*Commons-Math*_Buggy", B$24:B$176)</f>
+        <f t="shared" ref="C216:O216" si="41">AVERAGEIF($A$24:$A$176, "*Commons-Math*_Buggy", B$24:B$176)</f>
         <v>3.2914285714285727</v>
       </c>
       <c r="D216" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>78.420204081632633</v>
       </c>
       <c r="E216" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>24.387551020408157</v>
       </c>
       <c r="F216" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>7.4553061224489783</v>
       </c>
       <c r="G216" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>15.391020408163268</v>
       </c>
       <c r="H216" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>4.3769387755102036</v>
       </c>
       <c r="I216" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11.832857142857142</v>
       </c>
       <c r="J216" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>39.778979591836716</v>
       </c>
       <c r="K216" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>66.847959183673467</v>
       </c>
       <c r="L216" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>0.58471428571428574</v>
       </c>
       <c r="M216" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>4.7795918367346951E-2</v>
       </c>
       <c r="N216" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>19.346041666666665</v>
       </c>
       <c r="O216" s="28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>2.4587959183673465</v>
       </c>
     </row>
@@ -16080,55 +17307,55 @@
         <v>230</v>
       </c>
       <c r="C217" s="28">
-        <f t="shared" ref="C217:O217" si="30">AVERAGEIF($A$24:$A$176, "*Commons-Math*_Fixed", B$24:B$176)</f>
+        <f t="shared" ref="C217:O217" si="42">AVERAGEIF($A$24:$A$176, "*Commons-Math*_Fixed", B$24:B$176)</f>
         <v>3.4824489795918359</v>
       </c>
       <c r="D217" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>78.184489795918381</v>
       </c>
       <c r="E217" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>24.610816326530603</v>
       </c>
       <c r="F217" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>7.4614285714285753</v>
       </c>
       <c r="G217" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>16.269999999999992</v>
       </c>
       <c r="H217" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>4.4367346938775505</v>
       </c>
       <c r="I217" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>11.897755102040817</v>
       </c>
       <c r="J217" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>40.88183673469387</v>
       </c>
       <c r="K217" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>67.627142857142843</v>
       </c>
       <c r="L217" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>0.58140816326530609</v>
       </c>
       <c r="M217" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>4.7795918367346951E-2</v>
       </c>
       <c r="N217" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>19.280624999999997</v>
       </c>
       <c r="O217" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2.4553265306122443</v>
       </c>
     </row>
@@ -16141,55 +17368,55 @@
         <v>231</v>
       </c>
       <c r="C218" s="28">
-        <f t="shared" ref="C218:O218" si="31">AVERAGEIF($A$24:$A$176, "*Commons-Math*_Repaired", B$24:B$176)</f>
+        <f t="shared" ref="C218:O218" si="43">AVERAGEIF($A$24:$A$176, "*Commons-Math*_Repaired", B$24:B$176)</f>
         <v>3.4955102040816328</v>
       </c>
       <c r="D218" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>78.292040816326548</v>
       </c>
       <c r="E218" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>24.755918367346936</v>
       </c>
       <c r="F218" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>7.4893877551020438</v>
       </c>
       <c r="G218" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>16.020204081632652</v>
       </c>
       <c r="H218" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>4.3863265306122452</v>
       </c>
       <c r="I218" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>11.875102040816325</v>
       </c>
       <c r="J218" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>40.774897959183662</v>
       </c>
       <c r="K218" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>67.33612244897958</v>
       </c>
       <c r="L218" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>0.58471428571428574</v>
       </c>
       <c r="M218" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>4.7795918367346951E-2</v>
       </c>
       <c r="N218" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>19.346041666666665</v>
       </c>
       <c r="O218" s="28">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>2.4587959183673465</v>
       </c>
     </row>
@@ -16246,55 +17473,55 @@
         <v>232</v>
       </c>
       <c r="C221" s="28">
-        <f t="shared" ref="C221:O221" si="32">AVERAGEIF($A$24:$A$176, "*Jackrabbit-Oak*_Buggy", B$24:B$176)</f>
+        <f t="shared" ref="C221:O221" si="44">AVERAGEIF($A$24:$A$176, "*Jackrabbit-Oak*_Buggy", B$24:B$176)</f>
         <v>1.62</v>
       </c>
       <c r="D221" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>87.5</v>
       </c>
       <c r="E221" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>6.5</v>
       </c>
       <c r="F221" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>3.12</v>
       </c>
       <c r="G221" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>3.12</v>
       </c>
       <c r="H221" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2.75</v>
       </c>
       <c r="I221" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>5.88</v>
       </c>
       <c r="J221" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>9.6199999999999992</v>
       </c>
       <c r="K221" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>22.33</v>
       </c>
       <c r="L221" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="M221" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="N221" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="O221" s="28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -16307,55 +17534,55 @@
         <v>233</v>
       </c>
       <c r="C222" s="28">
-        <f t="shared" ref="C222:O222" si="33">AVERAGEIF($A$24:$A$176, "*Jackrabbit-Oak*_Fixed", B$24:B$176)</f>
+        <f t="shared" ref="C222:O222" si="45">AVERAGEIF($A$24:$A$176, "*Jackrabbit-Oak*_Fixed", B$24:B$176)</f>
         <v>1.62</v>
       </c>
       <c r="D222" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>87</v>
       </c>
       <c r="E222" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>7.12</v>
       </c>
       <c r="F222" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>3.5</v>
       </c>
       <c r="G222" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>3.38</v>
       </c>
       <c r="H222" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>2.88</v>
       </c>
       <c r="I222" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>6.38</v>
       </c>
       <c r="J222" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>10.5</v>
       </c>
       <c r="K222" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>25.41</v>
       </c>
       <c r="L222" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="M222" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="N222" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="O222" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -16368,55 +17595,55 @@
         <v>234</v>
       </c>
       <c r="C223" s="28">
-        <f t="shared" ref="C223:O223" si="34">AVERAGEIF($A$24:$A$176, "*Jackrabbit-Oak*_Repaired", B$24:B$176)</f>
+        <f t="shared" ref="C223:O223" si="46">AVERAGEIF($A$24:$A$176, "*Jackrabbit-Oak*_Repaired", B$24:B$176)</f>
         <v>1.6850000000000001</v>
       </c>
       <c r="D223" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>87.31</v>
       </c>
       <c r="E223" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>6.3100000000000005</v>
       </c>
       <c r="F223" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>3.25</v>
       </c>
       <c r="G223" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>3.25</v>
       </c>
       <c r="H223" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>2.75</v>
       </c>
       <c r="I223" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>6</v>
       </c>
       <c r="J223" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>9.5650000000000013</v>
       </c>
       <c r="K223" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>22.880000000000003</v>
       </c>
       <c r="L223" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="M223" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N223" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O223" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -16512,55 +17739,55 @@
         <v>219</v>
       </c>
       <c r="C229" s="28">
-        <f t="shared" ref="C229:O229" si="35">AVERAGEIF($A$24:$A$176, "Arja*Fixed", B$24:B$176)</f>
+        <f t="shared" ref="C229:O229" si="47">AVERAGEIF($A$24:$A$176, "Arja*Fixed", B$24:B$176)</f>
         <v>3.9533333333333331</v>
       </c>
       <c r="D229" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>76.475238095238083</v>
       </c>
       <c r="E229" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>31.231428571428566</v>
       </c>
       <c r="F229" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>7.8638095238095236</v>
       </c>
       <c r="G229" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>19.423333333333332</v>
       </c>
       <c r="H229" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>4.6747619047619038</v>
       </c>
       <c r="I229" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>12.537619047619049</v>
       </c>
       <c r="J229" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>50.656190476190488</v>
       </c>
       <c r="K229" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>76.446190476190466</v>
       </c>
       <c r="L229" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>0.64428571428571413</v>
       </c>
       <c r="M229" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>4.5809523809523814E-2</v>
       </c>
       <c r="N229" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>19.481904761904762</v>
       </c>
       <c r="O229" s="28">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>1.0814285714285716</v>
       </c>
     </row>
@@ -16573,55 +17800,55 @@
         <v>220</v>
       </c>
       <c r="C230" s="31">
-        <f t="shared" ref="C230:O230" si="36">AVERAGEIF($A$24:$A$176, "Arja*Repaired", B$24:B$176)</f>
+        <f t="shared" ref="C230:O230" si="48">AVERAGEIF($A$24:$A$176, "Arja*Repaired", B$24:B$176)</f>
         <v>4.0628571428571432</v>
       </c>
       <c r="D230" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>76.583333333333329</v>
       </c>
       <c r="E230" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>31.759999999999998</v>
       </c>
       <c r="F230" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>7.8466666666666667</v>
       </c>
       <c r="G230" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>19.358095238095238</v>
       </c>
       <c r="H230" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>4.6842857142857151</v>
       </c>
       <c r="I230" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>12.530000000000003</v>
       </c>
       <c r="J230" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>51.119047619047606</v>
       </c>
       <c r="K230" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>76.477142857142852</v>
       </c>
       <c r="L230" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.64428571428571413</v>
       </c>
       <c r="M230" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>4.5809523809523814E-2</v>
       </c>
       <c r="N230" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>19.481904761904762</v>
       </c>
       <c r="O230" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>1.0814285714285716</v>
       </c>
     </row>
@@ -16634,55 +17861,55 @@
         <v>221</v>
       </c>
       <c r="C231" s="28">
-        <f t="shared" ref="C231:O231" si="37">AVERAGEIF($A$24:$A$176, "GenProg*Fixed", B$24:B$176)</f>
+        <f t="shared" ref="C231:O231" si="49">AVERAGEIF($A$24:$A$176, "GenProg*Fixed", B$24:B$176)</f>
         <v>2.9007692307692308</v>
       </c>
       <c r="D231" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>80.19923076923078</v>
       </c>
       <c r="E231" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>18.531538461538464</v>
       </c>
       <c r="F231" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>7.2492307692307696</v>
       </c>
       <c r="G231" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>13.443846153846156</v>
       </c>
       <c r="H231" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>4.37</v>
       </c>
       <c r="I231" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>11.61923076923077</v>
       </c>
       <c r="J231" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>31.976153846153842</v>
       </c>
       <c r="K231" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>60.873076923076937</v>
       </c>
       <c r="L231" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="M231" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>3.6615384615384619E-2</v>
       </c>
       <c r="N231" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>19.249166666666667</v>
       </c>
       <c r="O231" s="28">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>6.2876923076923088</v>
       </c>
     </row>
@@ -16695,55 +17922,55 @@
         <v>222</v>
       </c>
       <c r="C232" s="31">
-        <f t="shared" ref="C232:O232" si="38">AVERAGEIF($A$24:$A$176, "GenProg*Repaired", B$24:B$176)</f>
+        <f t="shared" ref="C232:O232" si="50">AVERAGEIF($A$24:$A$176, "GenProg*Repaired", B$24:B$176)</f>
         <v>2.7846153846153849</v>
       </c>
       <c r="D232" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>80.377692307692314</v>
       </c>
       <c r="E232" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>18.165384615384617</v>
       </c>
       <c r="F232" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>7.3276923076923062</v>
       </c>
       <c r="G232" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>12.911538461538461</v>
       </c>
       <c r="H232" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>4.24</v>
       </c>
       <c r="I232" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>11.56769230769231</v>
       </c>
       <c r="J232" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>31.073076923076922</v>
       </c>
       <c r="K232" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>60.154615384615404</v>
       </c>
       <c r="L232" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="M232" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>3.6615384615384619E-2</v>
       </c>
       <c r="N232" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>19.249166666666667</v>
       </c>
       <c r="O232" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>6.2876923076923088</v>
       </c>
     </row>
@@ -16756,55 +17983,55 @@
         <v>223</v>
       </c>
       <c r="C233" s="28">
-        <f t="shared" ref="C233:O233" si="39">AVERAGEIF($A$24:$A$176, "Kali*Fixed", B$24:B$176)</f>
+        <f t="shared" ref="C233:O233" si="51">AVERAGEIF($A$24:$A$176, "Kali*Fixed", B$24:B$176)</f>
         <v>2.0333333333333337</v>
       </c>
       <c r="D233" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>84.95</v>
       </c>
       <c r="E233" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>8.9666666666666668</v>
       </c>
       <c r="F233" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>4.7566666666666668</v>
       </c>
       <c r="G233" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>6.22</v>
       </c>
       <c r="H233" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>2.8933333333333331</v>
       </c>
       <c r="I233" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>7.6499999999999995</v>
       </c>
       <c r="J233" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>15.186666666666667</v>
       </c>
       <c r="K233" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>33.646666666666668</v>
       </c>
       <c r="L233" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>0.78333333333333333</v>
       </c>
       <c r="M233" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>4.2666666666666665E-2</v>
       </c>
       <c r="N233" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>32.659999999999997</v>
       </c>
       <c r="O233" s="28">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>1.8133333333333335</v>
       </c>
     </row>
@@ -16817,55 +18044,55 @@
         <v>224</v>
       </c>
       <c r="C234" s="31">
-        <f t="shared" ref="C234:O234" si="40">AVERAGEIF($A$24:$A$176, "Kali*Repaired", B$24:B$176)</f>
+        <f t="shared" ref="C234:O234" si="52">AVERAGEIF($A$24:$A$176, "Kali*Repaired", B$24:B$176)</f>
         <v>2.0066666666666664</v>
       </c>
       <c r="D234" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>85.096666666666678</v>
       </c>
       <c r="E234" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>8.4600000000000009</v>
       </c>
       <c r="F234" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>4.7433333333333332</v>
       </c>
       <c r="G234" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>5.9233333333333329</v>
       </c>
       <c r="H234" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>2.7766666666666668</v>
       </c>
       <c r="I234" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>7.5166666666666666</v>
       </c>
       <c r="J234" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>14.383333333333335</v>
       </c>
       <c r="K234" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>32.49</v>
       </c>
       <c r="L234" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>0.78333333333333333</v>
       </c>
       <c r="M234" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>4.2666666666666665E-2</v>
       </c>
       <c r="N234" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>32.659999999999997</v>
       </c>
       <c r="O234" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>1.8133333333333335</v>
       </c>
     </row>
@@ -16878,55 +18105,55 @@
         <v>225</v>
       </c>
       <c r="C235" s="28">
-        <f t="shared" ref="C235:O235" si="41">AVERAGEIF($A$24:$A$176, "Nopol*Fixed", B$24:B$176)</f>
+        <f t="shared" ref="C235:O235" si="53">AVERAGEIF($A$24:$A$176, "Nopol*Fixed", B$24:B$176)</f>
         <v>3.29</v>
       </c>
       <c r="D235" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>75.73</v>
       </c>
       <c r="E235" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>20.88</v>
       </c>
       <c r="F235" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>8.51</v>
       </c>
       <c r="G235" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>16.670000000000002</v>
       </c>
       <c r="H235" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>5.0199999999999996</v>
       </c>
       <c r="I235" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>13.53</v>
       </c>
       <c r="J235" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>37.549999999999997</v>
       </c>
       <c r="K235" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>73.849999999999994</v>
       </c>
       <c r="L235" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="M235" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>3.9E-2</v>
       </c>
       <c r="N235" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>2.4300000000000002</v>
       </c>
       <c r="O235" s="28">
-        <f t="shared" si="41"/>
+        <f t="shared" si="53"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -16939,55 +18166,55 @@
         <v>226</v>
       </c>
       <c r="C236" s="31">
-        <f t="shared" ref="C236:O236" si="42">AVERAGEIF($A$24:$A$176, "Nopol*Repaired", B$24:B$176)</f>
+        <f t="shared" ref="C236:O236" si="54">AVERAGEIF($A$24:$A$176, "Nopol*Repaired", B$24:B$176)</f>
         <v>3.59</v>
       </c>
       <c r="D236" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>75.3</v>
       </c>
       <c r="E236" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>21.44</v>
       </c>
       <c r="F236" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>8.61</v>
       </c>
       <c r="G236" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>17.2</v>
       </c>
       <c r="H236" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>5.31</v>
       </c>
       <c r="I236" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>13.93</v>
       </c>
       <c r="J236" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>38.65</v>
       </c>
       <c r="K236" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>76.17</v>
       </c>
       <c r="L236" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>0.26</v>
       </c>
       <c r="M236" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>3.9E-2</v>
       </c>
       <c r="N236" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>5.57</v>
       </c>
       <c r="O236" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="54"/>
         <v>0.31</v>
       </c>
     </row>
@@ -17000,55 +18227,55 @@
         <v>227</v>
       </c>
       <c r="C237" s="28">
-        <f t="shared" ref="C237:O237" si="43">AVERAGEIF($A$24:$A$176, "RSRepair*Fixed", B$24:B$176)</f>
+        <f t="shared" ref="C237:O237" si="55">AVERAGEIF($A$24:$A$176, "RSRepair*Fixed", B$24:B$176)</f>
         <v>3.6725000000000003</v>
       </c>
       <c r="D237" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>76.286249999999995</v>
       </c>
       <c r="E237" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>27.195</v>
       </c>
       <c r="F237" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>8.1512499999999992</v>
       </c>
       <c r="G237" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>17.8</v>
       </c>
       <c r="H237" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>4.6725000000000003</v>
       </c>
       <c r="I237" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>12.823750000000002</v>
       </c>
       <c r="J237" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>44.994999999999997</v>
       </c>
       <c r="K237" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>74.61375000000001</v>
       </c>
       <c r="L237" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>0.48875000000000002</v>
       </c>
       <c r="M237" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>3.5500000000000004E-2</v>
       </c>
       <c r="N237" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>19.6175</v>
       </c>
       <c r="O237" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>1.0899999999999999</v>
       </c>
     </row>
@@ -17061,55 +18288,55 @@
         <v>228</v>
       </c>
       <c r="C238" s="31">
-        <f t="shared" ref="C238:O238" si="44">AVERAGEIF($A$24:$A$176, "RSRepair*Repaired", B$24:B$176)</f>
+        <f t="shared" ref="C238:O238" si="56">AVERAGEIF($A$24:$A$176, "RSRepair*Repaired", B$24:B$176)</f>
         <v>3.5812500000000003</v>
       </c>
       <c r="D238" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>76.556249999999991</v>
       </c>
       <c r="E238" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>26.94875</v>
       </c>
       <c r="F238" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>8.1187499999999986</v>
       </c>
       <c r="G238" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>17.056249999999999</v>
       </c>
       <c r="H238" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>4.5374999999999996</v>
       </c>
       <c r="I238" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>12.65625</v>
       </c>
       <c r="J238" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>44.002499999999998</v>
       </c>
       <c r="K238" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>73.032500000000013</v>
       </c>
       <c r="L238" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>0.48875000000000002</v>
       </c>
       <c r="M238" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>3.5500000000000004E-2</v>
       </c>
       <c r="N238" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>19.6175</v>
       </c>
       <c r="O238" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>1.0899999999999999</v>
       </c>
     </row>
@@ -17119,137 +18346,137 @@
     <sortCondition ref="A27:A177"/>
   </sortState>
   <conditionalFormatting sqref="C191:O191">
-    <cfRule type="cellIs" dxfId="80" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="56" operator="equal">
       <formula>C190</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="59" operator="greaterThan">
       <formula>C190</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C190:O190">
-    <cfRule type="cellIs" dxfId="78" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="57" operator="equal">
       <formula>C191</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="58" operator="greaterThan">
       <formula>C191</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P75:P176">
-    <cfRule type="cellIs" dxfId="76" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="55" operator="greaterThan">
       <formula>$P$75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q75:Q176">
-    <cfRule type="cellIs" dxfId="75" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="54" operator="greaterThan">
       <formula>$P$75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R75:R176">
-    <cfRule type="cellIs" dxfId="74" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="53" operator="greaterThan">
       <formula>$P$75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C202:O202 C198:O198 C206:O206 C210:O210">
-    <cfRule type="cellIs" dxfId="73" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="49" operator="equal">
       <formula>C197</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="51" operator="greaterThan">
       <formula>C197</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C197:O197 C201:O201 C205:O205 C209:O209">
-    <cfRule type="cellIs" dxfId="71" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="50" operator="equal">
       <formula>C198</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="52" operator="greaterThan">
       <formula>C198</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C218:O218 C223:O223">
-    <cfRule type="cellIs" dxfId="69" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="45" operator="equal">
       <formula>C217</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="47" operator="greaterThan">
       <formula>C217</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C217:O217 C222:O222">
-    <cfRule type="cellIs" dxfId="67" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="46" operator="equal">
       <formula>C218</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="48" operator="greaterThan">
       <formula>C218</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C229:O229 C231:O231 C233:O233 C235:O235 C237:O237">
-    <cfRule type="cellIs" dxfId="65" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="42" operator="equal">
       <formula>C230</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="44" operator="greaterThan">
       <formula>C230</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C230:O230 C232:O232 C234:O234 C236:O236 C238:O238">
-    <cfRule type="cellIs" dxfId="63" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="41" operator="equal">
       <formula>C229</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="43" operator="greaterThan">
       <formula>C229</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B192:N192">
-    <cfRule type="cellIs" dxfId="61" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="60" operator="equal">
       <formula>C191</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="61" operator="greaterThan">
       <formula>C191</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T201:AF201 T197:AF197">
-    <cfRule type="cellIs" dxfId="57" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="38" operator="equal">
       <formula>T198</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="40" operator="greaterThan">
       <formula>T198</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T198:AF198">
-    <cfRule type="cellIs" dxfId="55" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">
       <formula>T199</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="36" operator="greaterThan">
       <formula>T199</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T202:AF202">
-    <cfRule type="cellIs" dxfId="53" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="33" operator="equal">
       <formula>T203</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="34" operator="greaterThan">
       <formula>T203</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T205:AF206">
-    <cfRule type="cellIs" dxfId="47" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="27" operator="equal">
       <formula>T206</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="28" operator="greaterThan">
       <formula>T206</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T209:AF209">
-    <cfRule type="cellIs" dxfId="39" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
       <formula>T210</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="20" operator="greaterThan">
       <formula>T210</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T210:AF210">
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
       <formula>T211</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="greaterThan">
       <formula>T211</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3. Bears_and_Bugs.jar_Metrics/Bugs_jar_Complexity_51_Avg.xlsx
+++ b/3. Bears_and_Bugs.jar_Metrics/Bugs_jar_Complexity_51_Avg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="261">
   <si>
     <t>Bugs.jar (analysis done Today 04:38 most recent)</t>
   </si>
@@ -1518,9 +1518,6 @@
     <t>42 projects</t>
   </si>
   <si>
-    <t>Multi-Chunk &amp; Multi-Line Common</t>
-  </si>
-  <si>
     <t>Two-Factor Common</t>
   </si>
   <si>
@@ -1528,6 +1525,9 @@
   </si>
   <si>
     <t>Multi-Chunk-High-Edits-Avg-Repaired</t>
+  </si>
+  <si>
+    <t>Chunks &amp; Lines Common</t>
   </si>
 </sst>
 </file>
@@ -2660,10 +2660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF238"/>
+  <dimension ref="A1:AF242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I200" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S217" sqref="S217"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A183" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -4821,8 +4821,8 @@
       <c r="L61" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="M61" s="6" t="s">
-        <v>85</v>
+      <c r="M61" s="6">
+        <v>1241</v>
       </c>
       <c r="N61" s="6">
         <v>68.92</v>
@@ -8139,8 +8139,8 @@
       <c r="L112" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="M112" s="8" t="s">
-        <v>85</v>
+      <c r="M112" s="8">
+        <v>1241</v>
       </c>
       <c r="N112" s="8">
         <v>68.92</v>
@@ -12275,8 +12275,8 @@
       <c r="L163" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="M163" s="8" t="s">
-        <v>85</v>
+      <c r="M163" s="8">
+        <v>1241</v>
       </c>
       <c r="N163" s="8">
         <v>68.92</v>
@@ -13888,7 +13888,7 @@
       </c>
       <c r="N189" s="14">
         <f t="shared" si="13"/>
-        <v>18.572199999999999</v>
+        <v>42.541372549019584</v>
       </c>
       <c r="O189" s="14">
         <f t="shared" si="13"/>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="N190" s="14">
         <f t="shared" si="14"/>
-        <v>18.509399999999996</v>
+        <v>42.479803921568603</v>
       </c>
       <c r="O190" s="14">
         <f t="shared" si="14"/>
@@ -14002,7 +14002,7 @@
       </c>
       <c r="N191" s="14">
         <f t="shared" si="15"/>
-        <v>18.572199999999999</v>
+        <v>42.541372549019584</v>
       </c>
       <c r="O191" s="14">
         <f t="shared" si="15"/>
@@ -14026,7 +14026,7 @@
     </row>
     <row r="194" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A194" s="26" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B194" s="27"/>
       <c r="C194" s="27"/>
@@ -14042,7 +14042,7 @@
       <c r="M194" s="27"/>
       <c r="N194" s="27"/>
       <c r="R194" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S194" s="35"/>
       <c r="T194" s="35"/>
@@ -14213,55 +14213,55 @@
         <v>243</v>
       </c>
       <c r="T197" s="28" t="e">
-        <f>AVERAGEIFS(B$75:B$125, $U$126:$U$176, "YES")</f>
+        <f t="shared" ref="T197:AF197" si="17">AVERAGEIFS(B$75:B$125, $U$126:$U$176, "YES")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U197" s="28" t="e">
-        <f>AVERAGEIFS(C$75:C$125, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V197" s="28" t="e">
-        <f>AVERAGEIFS(D$75:D$125, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W197" s="28" t="e">
-        <f>AVERAGEIFS(E$75:E$125, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X197" s="28" t="e">
-        <f>AVERAGEIFS(F$75:F$125, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y197" s="28" t="e">
-        <f>AVERAGEIFS(G$75:G$125, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z197" s="28" t="e">
-        <f>AVERAGEIFS(H$75:H$125, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA197" s="28" t="e">
-        <f>AVERAGEIFS(I$75:I$125, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB197" s="28" t="e">
-        <f>AVERAGEIFS(J$75:J$125, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC197" s="28" t="e">
-        <f>AVERAGEIFS(K$75:K$125, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD197" s="28" t="e">
-        <f>AVERAGEIFS(L$75:L$125, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE197" s="28" t="e">
-        <f>AVERAGEIFS(M$75:M$125, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF197" s="28" t="e">
-        <f>AVERAGEIFS(N$75:N$125, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14278,51 +14278,51 @@
         <v>4.2279999999999998</v>
       </c>
       <c r="D198" s="28">
-        <f t="shared" ref="D198:O198" si="17">AVERAGEIFS(C$126:C$176, $P$75:$P$125, "=1", $P$126:$P$176, "=1")</f>
+        <f t="shared" ref="D198:O198" si="18">AVERAGEIFS(C$126:C$176, $P$75:$P$125, "=1", $P$126:$P$176, "=1")</f>
         <v>75.234000000000009</v>
       </c>
       <c r="E198" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30.006</v>
       </c>
       <c r="F198" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.516</v>
       </c>
       <c r="G198" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19.7</v>
       </c>
       <c r="H198" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.8609999999999998</v>
       </c>
       <c r="I198" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.377000000000001</v>
       </c>
       <c r="J198" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>49.704999999999998</v>
       </c>
       <c r="K198" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>74.150999999999996</v>
       </c>
       <c r="L198" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.43</v>
       </c>
       <c r="M198" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.3200000000000004E-2</v>
       </c>
       <c r="N198" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.6719999999999997</v>
       </c>
       <c r="O198" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.42599999999999999</v>
       </c>
       <c r="R198" s="1">
@@ -14333,55 +14333,55 @@
         <v>244</v>
       </c>
       <c r="T198" s="28" t="e">
-        <f>AVERAGEIFS(B$126:B$176, $U$126:$U$176, "YES")</f>
+        <f t="shared" ref="T198:AF198" si="19">AVERAGEIFS(B$126:B$176, $U$126:$U$176, "YES")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U198" s="28" t="e">
-        <f>AVERAGEIFS(C$126:C$176, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V198" s="28" t="e">
-        <f>AVERAGEIFS(D$126:D$176, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W198" s="28" t="e">
-        <f>AVERAGEIFS(E$126:E$176, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X198" s="28" t="e">
-        <f>AVERAGEIFS(F$126:F$176, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y198" s="28" t="e">
-        <f>AVERAGEIFS(G$126:G$176, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z198" s="28" t="e">
-        <f>AVERAGEIFS(H$126:H$176, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA198" s="28" t="e">
-        <f>AVERAGEIFS(I$126:I$176, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB198" s="28" t="e">
-        <f>AVERAGEIFS(J$126:J$176, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC198" s="28" t="e">
-        <f>AVERAGEIFS(K$126:K$176, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD198" s="28" t="e">
-        <f>AVERAGEIFS(L$126:L$176, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE198" s="28" t="e">
-        <f>AVERAGEIFS(M$126:M$176, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF198" s="28" t="e">
-        <f>AVERAGEIFS(N$126:N$176, $U$126:$U$176, "YES")</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14487,51 +14487,51 @@
         <v>2.7747826086956535</v>
       </c>
       <c r="D201" s="28">
-        <f t="shared" ref="D201:O201" si="18">AVERAGEIFS(C$75:C$125, $P$75:$P$125, "&gt;1", $P$126:$P$176, "&gt;1")</f>
+        <f t="shared" ref="D201:O201" si="20">AVERAGEIFS(C$75:C$125, $P$75:$P$125, "&gt;1", $P$126:$P$176, "&gt;1")</f>
         <v>82.67434782608693</v>
       </c>
       <c r="E201" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>16.830434782608698</v>
       </c>
       <c r="F201" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.2204347826086979</v>
       </c>
       <c r="G201" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10.641739130434784</v>
       </c>
       <c r="H201" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.5808695652173914</v>
       </c>
       <c r="I201" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.800434782608697</v>
       </c>
       <c r="J201" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>27.471304347826084</v>
       </c>
       <c r="K201" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50.61478260869567</v>
       </c>
       <c r="L201" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.59034782608695657</v>
       </c>
       <c r="M201" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.3217391304347832E-2</v>
       </c>
       <c r="N201" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>24.85130434782609</v>
       </c>
       <c r="O201" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.3800000000000003</v>
       </c>
       <c r="R201" s="1">
@@ -14542,55 +14542,55 @@
         <v>245</v>
       </c>
       <c r="T201" s="28">
-        <f>AVERAGEIFS(B$75:B$125, $V$126:$V$176, "YES")</f>
+        <f t="shared" ref="T201:AF201" si="21">AVERAGEIFS(B$75:B$125, $V$126:$V$176, "YES")</f>
         <v>4.0890000000000004</v>
       </c>
       <c r="U201" s="28">
-        <f>AVERAGEIFS(C$75:C$125, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="21"/>
         <v>75.169000000000011</v>
       </c>
       <c r="V201" s="28">
-        <f>AVERAGEIFS(D$75:D$125, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="21"/>
         <v>29.628999999999998</v>
       </c>
       <c r="W201" s="28">
-        <f>AVERAGEIFS(E$75:E$125, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="21"/>
         <v>7.5569999999999995</v>
       </c>
       <c r="X201" s="28">
-        <f>AVERAGEIFS(F$75:F$125, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="21"/>
         <v>19.756</v>
       </c>
       <c r="Y201" s="28">
-        <f>AVERAGEIFS(G$75:G$125, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="21"/>
         <v>4.8970000000000002</v>
       </c>
       <c r="Z201" s="28">
-        <f>AVERAGEIFS(H$75:H$125, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="21"/>
         <v>12.453999999999999</v>
       </c>
       <c r="AA201" s="28">
-        <f>AVERAGEIFS(I$75:I$125, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="21"/>
         <v>49.387999999999991</v>
       </c>
       <c r="AB201" s="28">
-        <f>AVERAGEIFS(J$75:J$125, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="21"/>
         <v>74.53</v>
       </c>
       <c r="AC201" s="28">
-        <f>AVERAGEIFS(K$75:K$125, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="21"/>
         <v>0.43</v>
       </c>
       <c r="AD201" s="28">
-        <f>AVERAGEIFS(L$75:L$125, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="21"/>
         <v>5.3200000000000004E-2</v>
       </c>
       <c r="AE201" s="28">
-        <f>AVERAGEIFS(M$75:M$125, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="21"/>
         <v>7.6719999999999997</v>
       </c>
       <c r="AF201" s="28">
-        <f>AVERAGEIFS(N$75:N$125, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="21"/>
         <v>0.42599999999999999</v>
       </c>
     </row>
@@ -14607,51 +14607,51 @@
         <v>2.6243478260869559</v>
       </c>
       <c r="D202" s="28">
-        <f t="shared" ref="D202:O202" si="19">AVERAGEIFS(C$126:C$176, $P$75:$P$125, "&gt;1", $P$126:$P$176, "&gt;1")</f>
+        <f t="shared" ref="D202:O202" si="22">AVERAGEIFS(C$126:C$176, $P$75:$P$125, "&gt;1", $P$126:$P$176, "&gt;1")</f>
         <v>82.895652173913035</v>
       </c>
       <c r="E202" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>16.311304347826088</v>
       </c>
       <c r="F202" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6.253043478260869</v>
       </c>
       <c r="G202" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>10.121739130434781</v>
       </c>
       <c r="H202" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3.463043478260869</v>
       </c>
       <c r="I202" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>9.715217391304348</v>
       </c>
       <c r="J202" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>26.432173913043474</v>
       </c>
       <c r="K202" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>49.544782608695662</v>
       </c>
       <c r="L202" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.59739130434782606</v>
       </c>
       <c r="M202" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4.3217391304347832E-2</v>
       </c>
       <c r="N202" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>24.987826086956527</v>
       </c>
       <c r="O202" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3873913043478263</v>
       </c>
       <c r="R202" s="1">
@@ -14662,55 +14662,55 @@
         <v>246</v>
       </c>
       <c r="T202" s="28">
-        <f>AVERAGEIFS(B$126:B$176, $V$126:$V$176, "YES")</f>
+        <f t="shared" ref="T202:AF202" si="23">AVERAGEIFS(B$126:B$176, $V$126:$V$176, "YES")</f>
         <v>4.2279999999999998</v>
       </c>
       <c r="U202" s="28">
-        <f>AVERAGEIFS(C$126:C$176, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="23"/>
         <v>75.234000000000009</v>
       </c>
       <c r="V202" s="28">
-        <f>AVERAGEIFS(D$126:D$176, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="23"/>
         <v>30.006</v>
       </c>
       <c r="W202" s="28">
-        <f>AVERAGEIFS(E$126:E$176, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="23"/>
         <v>7.516</v>
       </c>
       <c r="X202" s="28">
-        <f>AVERAGEIFS(F$126:F$176, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="23"/>
         <v>19.7</v>
       </c>
       <c r="Y202" s="28">
-        <f>AVERAGEIFS(G$126:G$176, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="23"/>
         <v>4.8609999999999998</v>
       </c>
       <c r="Z202" s="28">
-        <f>AVERAGEIFS(H$126:H$176, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="23"/>
         <v>12.377000000000001</v>
       </c>
       <c r="AA202" s="28">
-        <f>AVERAGEIFS(I$126:I$176, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="23"/>
         <v>49.704999999999998</v>
       </c>
       <c r="AB202" s="28">
-        <f>AVERAGEIFS(J$126:J$176, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="23"/>
         <v>74.150999999999996</v>
       </c>
       <c r="AC202" s="28">
-        <f>AVERAGEIFS(K$126:K$176, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="23"/>
         <v>0.43</v>
       </c>
       <c r="AD202" s="28">
-        <f>AVERAGEIFS(L$126:L$176, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="23"/>
         <v>5.3200000000000004E-2</v>
       </c>
       <c r="AE202" s="28">
-        <f>AVERAGEIFS(M$126:M$176, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="23"/>
         <v>7.6719999999999997</v>
       </c>
       <c r="AF202" s="28">
-        <f>AVERAGEIFS(N$126:N$176, $V$126:$V$176, "YES")</f>
+        <f t="shared" si="23"/>
         <v>0.42599999999999999</v>
       </c>
     </row>
@@ -14842,51 +14842,51 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D205" s="28" t="e">
-        <f t="shared" ref="D205:O205" si="20">AVERAGEIFS(C$75:C$125, $S$75:$S$125, "=1", $S$126:$S$176, "=1")</f>
+        <f t="shared" ref="D205:O205" si="24">AVERAGEIFS(C$75:C$125, $S$75:$S$125, "=1", $S$126:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E205" s="28" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F205" s="28" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G205" s="28" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H205" s="28" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I205" s="28" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J205" s="28" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K205" s="28" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L205" s="28" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M205" s="28" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N205" s="28" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O205" s="28" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R205" s="1">
@@ -14897,55 +14897,55 @@
         <v>247</v>
       </c>
       <c r="T205" s="28" t="e">
-        <f>AVERAGEIFS(B$75:B$125, $W$126:$W$176, "YES")</f>
+        <f t="shared" ref="T205:AF205" si="25">AVERAGEIFS(B$75:B$125, $W$126:$W$176, "YES")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U205" s="28" t="e">
-        <f>AVERAGEIFS(C$75:C$125, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V205" s="28" t="e">
-        <f>AVERAGEIFS(D$75:D$125, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W205" s="28" t="e">
-        <f>AVERAGEIFS(E$75:E$125, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X205" s="28" t="e">
-        <f>AVERAGEIFS(F$75:F$125, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y205" s="28" t="e">
-        <f>AVERAGEIFS(G$75:G$125, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z205" s="28" t="e">
-        <f>AVERAGEIFS(H$75:H$125, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA205" s="28" t="e">
-        <f>AVERAGEIFS(I$75:I$125, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB205" s="28" t="e">
-        <f>AVERAGEIFS(J$75:J$125, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC205" s="28" t="e">
-        <f>AVERAGEIFS(K$75:K$125, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD205" s="28" t="e">
-        <f>AVERAGEIFS(L$75:L$125, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE205" s="28" t="e">
-        <f>AVERAGEIFS(M$75:M$125, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF205" s="28" t="e">
-        <f>AVERAGEIFS(N$75:N$125, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14962,51 +14962,51 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D206" s="28" t="e">
-        <f t="shared" ref="D206:O206" si="21">AVERAGEIFS(C$126:C$176, $S$75:$S$125, "=1", $S$126:$S$176, "=1")</f>
+        <f t="shared" ref="D206:O206" si="26">AVERAGEIFS(C$126:C$176, $S$75:$S$125, "=1", $S$126:$S$176, "=1")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E206" s="28" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F206" s="28" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G206" s="28" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H206" s="28" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I206" s="28" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J206" s="28" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K206" s="28" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L206" s="28" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M206" s="28" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N206" s="28" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O206" s="28" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R206" s="1">
@@ -15017,55 +15017,55 @@
         <v>248</v>
       </c>
       <c r="T206" s="28" t="e">
-        <f>AVERAGEIFS(B$126:B$176, $W$126:$W$176, "YES")</f>
+        <f t="shared" ref="T206:AF206" si="27">AVERAGEIFS(B$126:B$176, $W$126:$W$176, "YES")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U206" s="28" t="e">
-        <f>AVERAGEIFS(C$126:C$176, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V206" s="28" t="e">
-        <f>AVERAGEIFS(D$126:D$176, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W206" s="28" t="e">
-        <f>AVERAGEIFS(E$126:E$176, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X206" s="28" t="e">
-        <f>AVERAGEIFS(F$126:F$176, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y206" s="28" t="e">
-        <f>AVERAGEIFS(G$126:G$176, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z206" s="28" t="e">
-        <f>AVERAGEIFS(H$126:H$176, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA206" s="28" t="e">
-        <f>AVERAGEIFS(I$126:I$176, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB206" s="28" t="e">
-        <f>AVERAGEIFS(J$126:J$176, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC206" s="28" t="e">
-        <f>AVERAGEIFS(K$126:K$176, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD206" s="28" t="e">
-        <f>AVERAGEIFS(L$126:L$176, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE206" s="28" t="e">
-        <f>AVERAGEIFS(M$126:M$176, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AF206" s="28" t="e">
-        <f>AVERAGEIFS(N$126:N$176, $W$126:$W$176, "YES")</f>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -15197,51 +15197,51 @@
         <v>3.4094117647058821</v>
       </c>
       <c r="D209" s="28">
-        <f t="shared" ref="D209:O209" si="22">AVERAGEIFS(C$75:C$125, $S$75:$S$125, "&gt;1", $S$126:$S$176, "&gt;1")</f>
+        <f t="shared" ref="D209:O209" si="28">AVERAGEIFS(C$75:C$125, $S$75:$S$125, "&gt;1", $S$126:$S$176, "&gt;1")</f>
         <v>78.530196078431388</v>
       </c>
       <c r="E209" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>23.924901960784307</v>
       </c>
       <c r="F209" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>7.3060784313725522</v>
       </c>
       <c r="G209" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>15.764509803921564</v>
       </c>
       <c r="H209" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>4.3756862745098033</v>
       </c>
       <c r="I209" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>11.681372549019608</v>
       </c>
       <c r="J209" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>39.690392156862735</v>
       </c>
       <c r="K209" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>65.971568627450978</v>
       </c>
       <c r="L209" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.55860784313725487</v>
       </c>
       <c r="M209" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>4.592156862745099E-2</v>
       </c>
       <c r="N209" s="28">
-        <f t="shared" si="22"/>
-        <v>18.509399999999996</v>
+        <f t="shared" si="28"/>
+        <v>42.479803921568603</v>
       </c>
       <c r="O209" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>2.3590392156862743</v>
       </c>
       <c r="R209" s="1">
@@ -15252,55 +15252,55 @@
         <v>249</v>
       </c>
       <c r="T209" s="28">
-        <f>AVERAGEIFS(B$75:B$125, $X$126:$X$176, "YES")</f>
+        <f t="shared" ref="T209:AF209" si="29">AVERAGEIFS(B$75:B$125, $X$126:$X$176, "YES")</f>
         <v>2.7845454545454555</v>
       </c>
       <c r="U209" s="28">
-        <f>AVERAGEIFS(C$75:C$125, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="29"/>
         <v>82.677272727272694</v>
       </c>
       <c r="V209" s="28">
-        <f>AVERAGEIFS(D$75:D$125, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="29"/>
         <v>17.105454545454545</v>
       </c>
       <c r="W209" s="28">
-        <f>AVERAGEIFS(E$75:E$125, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="29"/>
         <v>6.2481818181818198</v>
       </c>
       <c r="X209" s="28">
-        <f>AVERAGEIFS(F$75:F$125, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="29"/>
         <v>10.74909090909091</v>
       </c>
       <c r="Y209" s="28">
-        <f>AVERAGEIFS(G$75:G$125, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="29"/>
         <v>3.5818181818181816</v>
       </c>
       <c r="Z209" s="28">
-        <f>AVERAGEIFS(H$75:H$125, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="29"/>
         <v>9.82909090909091</v>
       </c>
       <c r="AA209" s="28">
-        <f>AVERAGEIFS(I$75:I$125, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="29"/>
         <v>27.853636363636358</v>
       </c>
       <c r="AB209" s="28">
-        <f>AVERAGEIFS(J$75:J$125, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="29"/>
         <v>50.912272727272736</v>
       </c>
       <c r="AC209" s="28">
-        <f>AVERAGEIFS(K$75:K$125, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="29"/>
         <v>0.59945454545454546</v>
       </c>
       <c r="AD209" s="28">
-        <f>AVERAGEIFS(L$75:L$125, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="29"/>
         <v>4.3409090909090925E-2</v>
       </c>
       <c r="AE209" s="28">
-        <f>AVERAGEIFS(M$75:M$125, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="29"/>
         <v>25.310909090909092</v>
       </c>
       <c r="AF209" s="28">
-        <f>AVERAGEIFS(N$75:N$125, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="29"/>
         <v>1.4054545454545457</v>
       </c>
     </row>
@@ -15317,51 +15317,51 @@
         <v>3.424509803921568</v>
       </c>
       <c r="D210" s="28">
-        <f t="shared" ref="D210:O210" si="23">AVERAGEIFS(C$126:C$176, $S$75:$S$125, "&gt;1", $S$126:$S$176, "&gt;1")</f>
+        <f t="shared" ref="D210:O210" si="30">AVERAGEIFS(C$126:C$176, $S$75:$S$125, "&gt;1", $S$126:$S$176, "&gt;1")</f>
         <v>78.645686274509828</v>
       </c>
       <c r="E210" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>24.032549019607846</v>
       </c>
       <c r="F210" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>7.3231372549019627</v>
       </c>
       <c r="G210" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>15.519411764705881</v>
       </c>
       <c r="H210" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>4.3221568627450981</v>
       </c>
       <c r="I210" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>11.644705882352941</v>
       </c>
       <c r="J210" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>39.550980392156859</v>
       </c>
       <c r="K210" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>65.592745098039202</v>
       </c>
       <c r="L210" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0.56178431372549031</v>
       </c>
       <c r="M210" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>4.592156862745099E-2</v>
       </c>
       <c r="N210" s="28">
-        <f t="shared" si="23"/>
-        <v>18.572199999999999</v>
+        <f t="shared" si="30"/>
+        <v>42.541372549019584</v>
       </c>
       <c r="O210" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>2.3623725490196072</v>
       </c>
       <c r="R210" s="1">
@@ -15372,1402 +15372,1406 @@
         <v>250</v>
       </c>
       <c r="T210" s="28">
-        <f>AVERAGEIFS(B$126:B$176, $X$126:$X$176, "YES")</f>
+        <f t="shared" ref="T210:AF210" si="31">AVERAGEIFS(B$126:B$176, $X$126:$X$176, "YES")</f>
         <v>2.6377272727272723</v>
       </c>
       <c r="U210" s="28">
-        <f>AVERAGEIFS(C$126:C$176, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="31"/>
         <v>82.888181818181806</v>
       </c>
       <c r="V210" s="28">
-        <f>AVERAGEIFS(D$126:D$176, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="31"/>
         <v>16.61090909090909</v>
       </c>
       <c r="W210" s="28">
-        <f>AVERAGEIFS(E$126:E$176, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="31"/>
         <v>6.2845454545454542</v>
       </c>
       <c r="X210" s="28">
-        <f>AVERAGEIFS(F$126:F$176, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="31"/>
         <v>10.243636363636362</v>
       </c>
       <c r="Y210" s="28">
-        <f>AVERAGEIFS(G$126:G$176, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="31"/>
         <v>3.4663636363636368</v>
       </c>
       <c r="Z210" s="28">
-        <f>AVERAGEIFS(H$126:H$176, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="31"/>
         <v>9.750454545454545</v>
       </c>
       <c r="AA210" s="28">
-        <f>AVERAGEIFS(I$126:I$176, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="31"/>
         <v>26.853181818181817</v>
       </c>
       <c r="AB210" s="28">
-        <f>AVERAGEIFS(J$126:J$176, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="31"/>
         <v>49.9</v>
       </c>
       <c r="AC210" s="28">
-        <f>AVERAGEIFS(K$126:K$176, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="31"/>
         <v>0.60681818181818181</v>
       </c>
       <c r="AD210" s="28">
-        <f>AVERAGEIFS(L$126:L$176, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="31"/>
         <v>4.3409090909090925E-2</v>
       </c>
       <c r="AE210" s="28">
-        <f>AVERAGEIFS(M$126:M$176, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="31"/>
         <v>25.45363636363637</v>
       </c>
       <c r="AF210" s="28">
-        <f>AVERAGEIFS(N$126:N$176, $X$126:$X$176, "YES")</f>
+        <f t="shared" si="31"/>
         <v>1.4131818181818183</v>
       </c>
     </row>
-    <row r="212" spans="1:32" ht="43.2" x14ac:dyDescent="0.35">
-      <c r="R212" s="34"/>
-      <c r="S212" s="12" t="s">
+    <row r="212" spans="1:32" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A212" s="34"/>
+      <c r="B212" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="T212" s="12" t="s">
+      <c r="C212" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="U212" s="12" t="s">
+      <c r="D212" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="V212" s="12" t="s">
+      <c r="E212" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="W212" s="12" t="s">
+      <c r="F212" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="X212" s="12" t="s">
+      <c r="G212" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="Y212" s="12" t="s">
+      <c r="H212" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Z212" s="12" t="s">
+      <c r="I212" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="AA212" s="12" t="s">
+      <c r="J212" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="AB212" s="12" t="s">
+      <c r="K212" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="AC212" s="12" t="s">
+      <c r="L212" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="AD212" s="12" t="s">
+      <c r="M212" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="AE212" s="12" t="s">
+      <c r="N212" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="AF212" s="12" t="s">
+      <c r="O212" s="12" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="213" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A213" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="B213" s="27"/>
-      <c r="C213" s="27"/>
-      <c r="D213" s="27"/>
-      <c r="E213" s="27"/>
-      <c r="F213" s="27"/>
-      <c r="G213" s="27"/>
-      <c r="H213" s="27"/>
-      <c r="I213" s="27"/>
-      <c r="J213" s="27"/>
-      <c r="K213" s="27"/>
-      <c r="L213" s="27"/>
-      <c r="M213" s="27"/>
-      <c r="N213" s="27"/>
-      <c r="R213" s="1">
+      <c r="A213" s="1">
         <f>COUNTIFS($Y$126:$Y$176, "YES")</f>
         <v>26</v>
       </c>
-      <c r="S213" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="T213" s="28">
-        <f>AVERAGEIFS(B$75:B$125, $Y$126:$Y$176, "YES")</f>
+      <c r="B213" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C213" s="28">
+        <f t="shared" ref="C213:O213" si="32">AVERAGEIFS(B$75:B$125, $Y$126:$Y$176, "YES")</f>
         <v>3.8342307692307696</v>
       </c>
-      <c r="U213" s="28">
-        <f>AVERAGEIFS(C$75:C$125, $Y$126:$Y$176, "YES")</f>
+      <c r="D213" s="28">
+        <f t="shared" si="32"/>
         <v>75.066538461538443</v>
       </c>
-      <c r="V213" s="28">
-        <f>AVERAGEIFS(D$75:D$125, $Y$126:$Y$176, "YES")</f>
+      <c r="E213" s="28">
+        <f t="shared" si="32"/>
         <v>31.476153846153842</v>
       </c>
-      <c r="W213" s="28">
-        <f>AVERAGEIFS(E$75:E$125, $Y$126:$Y$176, "YES")</f>
+      <c r="F213" s="28">
+        <f t="shared" si="32"/>
         <v>8.7419230769230758</v>
       </c>
-      <c r="X213" s="28">
-        <f>AVERAGEIFS(F$75:F$125, $Y$126:$Y$176, "YES")</f>
+      <c r="G213" s="28">
+        <f t="shared" si="32"/>
         <v>20.19499999999999</v>
       </c>
-      <c r="Y213" s="28">
-        <f>AVERAGEIFS(G$75:G$125, $Y$126:$Y$176, "YES")</f>
+      <c r="H213" s="28">
+        <f t="shared" si="32"/>
         <v>4.8926923076923066</v>
       </c>
-      <c r="Z213" s="28">
-        <f>AVERAGEIFS(H$75:H$125, $Y$126:$Y$176, "YES")</f>
+      <c r="I213" s="28">
+        <f t="shared" si="32"/>
         <v>13.634615384615385</v>
       </c>
-      <c r="AA213" s="28">
-        <f>AVERAGEIFS(I$75:I$125, $Y$126:$Y$176, "YES")</f>
+      <c r="J213" s="28">
+        <f t="shared" si="32"/>
         <v>51.671538461538447</v>
       </c>
-      <c r="AB213" s="28">
-        <f>AVERAGEIFS(J$75:J$125, $Y$126:$Y$176, "YES")</f>
+      <c r="K213" s="28">
+        <f t="shared" si="32"/>
         <v>80.881153846153836</v>
       </c>
-      <c r="AC213" s="28">
-        <f>AVERAGEIFS(K$75:K$125, $Y$126:$Y$176, "YES")</f>
+      <c r="L213" s="28">
+        <f t="shared" si="32"/>
         <v>0.52419230769230762</v>
       </c>
-      <c r="AD213" s="28">
-        <f>AVERAGEIFS(L$75:L$125, $Y$126:$Y$176, "YES")</f>
+      <c r="M213" s="28">
+        <f t="shared" si="32"/>
         <v>4.1346153846153859E-2</v>
       </c>
-      <c r="AE213" s="28">
-        <f>AVERAGEIFS(M$75:M$125, $Y$126:$Y$176, "YES")</f>
+      <c r="N213" s="28">
+        <f t="shared" si="32"/>
         <v>21.885384615384616</v>
       </c>
-      <c r="AF213" s="28">
-        <f>AVERAGEIFS(N$75:N$125, $Y$126:$Y$176, "YES")</f>
+      <c r="O213" s="28">
+        <f t="shared" si="32"/>
         <v>1.2150384615384617</v>
       </c>
     </row>
-    <row r="214" spans="1:32" ht="15" x14ac:dyDescent="0.35">
-      <c r="A214"/>
-      <c r="B214"/>
-      <c r="C214"/>
-      <c r="D214"/>
-      <c r="E214"/>
-      <c r="F214"/>
-      <c r="G214"/>
-      <c r="H214"/>
-      <c r="I214"/>
-      <c r="J214"/>
-      <c r="K214"/>
-      <c r="L214"/>
-      <c r="M214"/>
-      <c r="N214"/>
-      <c r="R214" s="1">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
         <f>COUNTIFS($Y$126:$Y$176, "YES")</f>
         <v>26</v>
       </c>
-      <c r="S214" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="T214" s="28">
-        <f>AVERAGEIFS(B$126:B$176, $Y$126:$Y$176, "YES")</f>
+      <c r="B214" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C214" s="28">
+        <f t="shared" ref="C214:O214" si="33">AVERAGEIFS(B$126:B$176, $Y$126:$Y$176, "YES")</f>
         <v>3.9238461538461555</v>
       </c>
-      <c r="U214" s="28">
-        <f>AVERAGEIFS(C$126:C$176, $Y$126:$Y$176, "YES")</f>
+      <c r="D214" s="28">
+        <f t="shared" si="33"/>
         <v>75.171153846153828</v>
       </c>
-      <c r="V214" s="28">
-        <f>AVERAGEIFS(D$126:D$176, $Y$126:$Y$176, "YES")</f>
+      <c r="E214" s="28">
+        <f t="shared" si="33"/>
         <v>31.912307692307692</v>
       </c>
-      <c r="W214" s="28">
-        <f>AVERAGEIFS(E$126:E$176, $Y$126:$Y$176, "YES")</f>
+      <c r="F214" s="28">
+        <f t="shared" si="33"/>
         <v>8.7803846153846159</v>
       </c>
-      <c r="X214" s="28">
-        <f>AVERAGEIFS(F$126:F$176, $Y$126:$Y$176, "YES")</f>
+      <c r="G214" s="28">
+        <f t="shared" si="33"/>
         <v>19.922692307692312</v>
       </c>
-      <c r="Y214" s="28">
-        <f>AVERAGEIFS(G$126:G$176, $Y$126:$Y$176, "YES")</f>
+      <c r="H214" s="28">
+        <f t="shared" si="33"/>
         <v>4.8623076923076916</v>
       </c>
-      <c r="Z214" s="28">
-        <f>AVERAGEIFS(H$126:H$176, $Y$126:$Y$176, "YES")</f>
+      <c r="I214" s="28">
+        <f t="shared" si="33"/>
         <v>13.643076923076926</v>
       </c>
-      <c r="AA214" s="28">
-        <f>AVERAGEIFS(I$126:I$176, $Y$126:$Y$176, "YES")</f>
+      <c r="J214" s="28">
+        <f t="shared" si="33"/>
         <v>51.832307692307708</v>
       </c>
-      <c r="AB214" s="28">
-        <f>AVERAGEIFS(J$126:J$176, $Y$126:$Y$176, "YES")</f>
+      <c r="K214" s="28">
+        <f t="shared" si="33"/>
         <v>80.86615384615385</v>
       </c>
-      <c r="AC214" s="28">
-        <f>AVERAGEIFS(K$126:K$176, $Y$126:$Y$176, "YES")</f>
+      <c r="L214" s="28">
+        <f t="shared" si="33"/>
         <v>0.53042307692307678</v>
       </c>
-      <c r="AD214" s="28">
-        <f>AVERAGEIFS(L$126:L$176, $Y$126:$Y$176, "YES")</f>
+      <c r="M214" s="28">
+        <f t="shared" si="33"/>
         <v>4.1346153846153859E-2</v>
       </c>
-      <c r="AE214" s="28">
-        <f>AVERAGEIFS(M$126:M$176, $Y$126:$Y$176, "YES")</f>
+      <c r="N214" s="28">
+        <f t="shared" si="33"/>
         <v>22.006153846153843</v>
       </c>
-      <c r="AF214" s="28">
-        <f>AVERAGEIFS(N$126:N$176, $Y$126:$Y$176, "YES")</f>
+      <c r="O214" s="28">
+        <f t="shared" si="33"/>
         <v>1.2215769230769231</v>
       </c>
     </row>
-    <row r="215" spans="1:32" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="12" t="s">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A217" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B217" s="27"/>
+      <c r="C217" s="27"/>
+      <c r="D217" s="27"/>
+      <c r="E217" s="27"/>
+      <c r="F217" s="27"/>
+      <c r="G217" s="27"/>
+      <c r="H217" s="27"/>
+      <c r="I217" s="27"/>
+      <c r="J217" s="27"/>
+      <c r="K217" s="27"/>
+      <c r="L217" s="27"/>
+      <c r="M217" s="27"/>
+      <c r="N217" s="27"/>
+    </row>
+    <row r="218" spans="1:32" ht="15" x14ac:dyDescent="0.35">
+      <c r="A218"/>
+      <c r="B218"/>
+      <c r="C218"/>
+      <c r="D218"/>
+      <c r="E218"/>
+      <c r="F218"/>
+      <c r="G218"/>
+      <c r="H218"/>
+      <c r="I218"/>
+      <c r="J218"/>
+      <c r="K218"/>
+      <c r="L218"/>
+      <c r="M218"/>
+      <c r="N218"/>
+    </row>
+    <row r="219" spans="1:32" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B215" s="12" t="s">
+      <c r="B219" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C215" s="12" t="s">
+      <c r="C219" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D215" s="12" t="s">
+      <c r="D219" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E215" s="12" t="s">
+      <c r="E219" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F215" s="12" t="s">
+      <c r="F219" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G215" s="12" t="s">
+      <c r="G219" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="H215" s="12" t="s">
+      <c r="H219" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I215" s="12" t="s">
+      <c r="I219" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="J215" s="12" t="s">
+      <c r="J219" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="K215" s="12" t="s">
+      <c r="K219" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="L215" s="12" t="s">
+      <c r="L219" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="M215" s="12" t="s">
+      <c r="M219" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="N215" s="12" t="s">
+      <c r="N219" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="O215" s="12" t="s">
+      <c r="O219" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="216" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A216" s="1">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
         <f>COUNTIF($A$24:$A$176, "*Commons-Math*Buggy")</f>
         <v>49</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C216" s="28">
-        <f t="shared" ref="C216:O216" si="24">AVERAGEIF($A$24:$A$176, "*Commons-Math*_Buggy", B$24:B$176)</f>
+      <c r="C220" s="28">
+        <f t="shared" ref="C220:O220" si="34">AVERAGEIF($A$24:$A$176, "*Commons-Math*_Buggy", B$24:B$176)</f>
         <v>3.2914285714285727</v>
       </c>
-      <c r="D216" s="28">
-        <f t="shared" si="24"/>
+      <c r="D220" s="28">
+        <f t="shared" si="34"/>
         <v>78.420204081632633</v>
       </c>
-      <c r="E216" s="28">
-        <f t="shared" si="24"/>
+      <c r="E220" s="28">
+        <f t="shared" si="34"/>
         <v>24.387551020408157</v>
       </c>
-      <c r="F216" s="28">
-        <f t="shared" si="24"/>
+      <c r="F220" s="28">
+        <f t="shared" si="34"/>
         <v>7.4553061224489783</v>
       </c>
-      <c r="G216" s="28">
-        <f t="shared" si="24"/>
+      <c r="G220" s="28">
+        <f t="shared" si="34"/>
         <v>15.391020408163268</v>
       </c>
-      <c r="H216" s="28">
-        <f t="shared" si="24"/>
+      <c r="H220" s="28">
+        <f t="shared" si="34"/>
         <v>4.3769387755102036</v>
       </c>
-      <c r="I216" s="28">
-        <f t="shared" si="24"/>
+      <c r="I220" s="28">
+        <f t="shared" si="34"/>
         <v>11.832857142857142</v>
       </c>
-      <c r="J216" s="28">
-        <f t="shared" si="24"/>
+      <c r="J220" s="28">
+        <f t="shared" si="34"/>
         <v>39.778979591836716</v>
       </c>
-      <c r="K216" s="28">
-        <f t="shared" si="24"/>
+      <c r="K220" s="28">
+        <f t="shared" si="34"/>
         <v>66.847959183673467</v>
       </c>
-      <c r="L216" s="28">
-        <f t="shared" si="24"/>
+      <c r="L220" s="28">
+        <f t="shared" si="34"/>
         <v>0.58471428571428574</v>
       </c>
-      <c r="M216" s="28">
-        <f t="shared" si="24"/>
+      <c r="M220" s="28">
+        <f t="shared" si="34"/>
         <v>4.7795918367346951E-2</v>
       </c>
-      <c r="N216" s="28">
-        <f t="shared" si="24"/>
-        <v>19.346041666666665</v>
-      </c>
-      <c r="O216" s="28">
-        <f t="shared" si="24"/>
+      <c r="N220" s="28">
+        <f t="shared" si="34"/>
+        <v>44.277755102040793</v>
+      </c>
+      <c r="O220" s="28">
+        <f t="shared" si="34"/>
         <v>2.4587959183673465</v>
       </c>
     </row>
-    <row r="217" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A217" s="1">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
         <f>COUNTIF($A$24:$A$176, "*Commons-Math*Fixed")</f>
         <v>49</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C217" s="28">
-        <f t="shared" ref="C217:O217" si="25">AVERAGEIF($A$24:$A$176, "*Commons-Math*_Fixed", B$24:B$176)</f>
+      <c r="C221" s="28">
+        <f t="shared" ref="C221:O221" si="35">AVERAGEIF($A$24:$A$176, "*Commons-Math*_Fixed", B$24:B$176)</f>
         <v>3.4824489795918359</v>
       </c>
-      <c r="D217" s="28">
-        <f t="shared" si="25"/>
+      <c r="D221" s="28">
+        <f t="shared" si="35"/>
         <v>78.184489795918381</v>
       </c>
-      <c r="E217" s="28">
-        <f t="shared" si="25"/>
+      <c r="E221" s="28">
+        <f t="shared" si="35"/>
         <v>24.610816326530603</v>
       </c>
-      <c r="F217" s="28">
-        <f t="shared" si="25"/>
+      <c r="F221" s="28">
+        <f t="shared" si="35"/>
         <v>7.4614285714285753</v>
       </c>
-      <c r="G217" s="28">
-        <f t="shared" si="25"/>
+      <c r="G221" s="28">
+        <f t="shared" si="35"/>
         <v>16.269999999999992</v>
       </c>
-      <c r="H217" s="28">
-        <f t="shared" si="25"/>
+      <c r="H221" s="28">
+        <f t="shared" si="35"/>
         <v>4.4367346938775505</v>
       </c>
-      <c r="I217" s="28">
-        <f t="shared" si="25"/>
+      <c r="I221" s="28">
+        <f t="shared" si="35"/>
         <v>11.897755102040817</v>
       </c>
-      <c r="J217" s="28">
-        <f t="shared" si="25"/>
+      <c r="J221" s="28">
+        <f t="shared" si="35"/>
         <v>40.88183673469387</v>
       </c>
-      <c r="K217" s="28">
-        <f t="shared" si="25"/>
+      <c r="K221" s="28">
+        <f t="shared" si="35"/>
         <v>67.627142857142843</v>
       </c>
-      <c r="L217" s="28">
-        <f t="shared" si="25"/>
+      <c r="L221" s="28">
+        <f t="shared" si="35"/>
         <v>0.58140816326530609</v>
       </c>
-      <c r="M217" s="28">
-        <f t="shared" si="25"/>
+      <c r="M221" s="28">
+        <f t="shared" si="35"/>
         <v>4.7795918367346951E-2</v>
       </c>
-      <c r="N217" s="28">
-        <f t="shared" si="25"/>
-        <v>19.280624999999997</v>
-      </c>
-      <c r="O217" s="28">
-        <f t="shared" si="25"/>
+      <c r="N221" s="28">
+        <f t="shared" si="35"/>
+        <v>44.213673469387736</v>
+      </c>
+      <c r="O221" s="28">
+        <f t="shared" si="35"/>
         <v>2.4553265306122443</v>
       </c>
     </row>
-    <row r="218" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A218" s="1">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
         <f>COUNTIF($A$24:$A$176, "*Commons-Math*Repaired")</f>
         <v>49</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C218" s="28">
-        <f t="shared" ref="C218:O218" si="26">AVERAGEIF($A$24:$A$176, "*Commons-Math*_Repaired", B$24:B$176)</f>
+      <c r="C222" s="28">
+        <f t="shared" ref="C222:O222" si="36">AVERAGEIF($A$24:$A$176, "*Commons-Math*_Repaired", B$24:B$176)</f>
         <v>3.4955102040816328</v>
       </c>
-      <c r="D218" s="28">
-        <f t="shared" si="26"/>
+      <c r="D222" s="28">
+        <f t="shared" si="36"/>
         <v>78.292040816326548</v>
       </c>
-      <c r="E218" s="28">
-        <f t="shared" si="26"/>
+      <c r="E222" s="28">
+        <f t="shared" si="36"/>
         <v>24.755918367346936</v>
       </c>
-      <c r="F218" s="28">
-        <f t="shared" si="26"/>
+      <c r="F222" s="28">
+        <f t="shared" si="36"/>
         <v>7.4893877551020438</v>
       </c>
-      <c r="G218" s="28">
-        <f t="shared" si="26"/>
+      <c r="G222" s="28">
+        <f t="shared" si="36"/>
         <v>16.020204081632652</v>
       </c>
-      <c r="H218" s="28">
-        <f t="shared" si="26"/>
+      <c r="H222" s="28">
+        <f t="shared" si="36"/>
         <v>4.3863265306122452</v>
       </c>
-      <c r="I218" s="28">
-        <f t="shared" si="26"/>
+      <c r="I222" s="28">
+        <f t="shared" si="36"/>
         <v>11.875102040816325</v>
       </c>
-      <c r="J218" s="28">
-        <f t="shared" si="26"/>
+      <c r="J222" s="28">
+        <f t="shared" si="36"/>
         <v>40.774897959183662</v>
       </c>
-      <c r="K218" s="28">
-        <f t="shared" si="26"/>
+      <c r="K222" s="28">
+        <f t="shared" si="36"/>
         <v>67.33612244897958</v>
       </c>
-      <c r="L218" s="28">
-        <f t="shared" si="26"/>
+      <c r="L222" s="28">
+        <f t="shared" si="36"/>
         <v>0.58471428571428574</v>
       </c>
-      <c r="M218" s="28">
-        <f t="shared" si="26"/>
+      <c r="M222" s="28">
+        <f t="shared" si="36"/>
         <v>4.7795918367346951E-2</v>
       </c>
-      <c r="N218" s="28">
-        <f t="shared" si="26"/>
-        <v>19.346041666666665</v>
-      </c>
-      <c r="O218" s="28">
-        <f t="shared" si="26"/>
+      <c r="N222" s="28">
+        <f t="shared" si="36"/>
+        <v>44.277755102040793</v>
+      </c>
+      <c r="O222" s="28">
+        <f t="shared" si="36"/>
         <v>2.4587959183673465</v>
       </c>
     </row>
-    <row r="220" spans="1:32" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B220" s="12" t="s">
+    <row r="224" spans="1:32" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B224" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C220" s="12" t="s">
+      <c r="C224" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D220" s="12" t="s">
+      <c r="D224" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E220" s="12" t="s">
+      <c r="E224" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F220" s="12" t="s">
+      <c r="F224" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G220" s="12" t="s">
+      <c r="G224" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="H220" s="12" t="s">
+      <c r="H224" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I220" s="12" t="s">
+      <c r="I224" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="J220" s="12" t="s">
+      <c r="J224" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="K220" s="12" t="s">
+      <c r="K224" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="L220" s="12" t="s">
+      <c r="L224" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="M220" s="12" t="s">
+      <c r="M224" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="N220" s="12" t="s">
+      <c r="N224" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="O220" s="12" t="s">
+      <c r="O224" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="221" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A221" s="1">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
         <f>COUNTIF($A$24:$A$176, "*Jackrabbit-Oak*Buggy")</f>
         <v>2</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B225" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C221" s="28">
-        <f t="shared" ref="C221:O221" si="27">AVERAGEIF($A$24:$A$176, "*Jackrabbit-Oak*_Buggy", B$24:B$176)</f>
+      <c r="C225" s="28">
+        <f t="shared" ref="C225:O225" si="37">AVERAGEIF($A$24:$A$176, "*Jackrabbit-Oak*_Buggy", B$24:B$176)</f>
         <v>1.62</v>
       </c>
-      <c r="D221" s="28">
-        <f t="shared" si="27"/>
+      <c r="D225" s="28">
+        <f t="shared" si="37"/>
         <v>87.5</v>
       </c>
-      <c r="E221" s="28">
-        <f t="shared" si="27"/>
+      <c r="E225" s="28">
+        <f t="shared" si="37"/>
         <v>6.5</v>
       </c>
-      <c r="F221" s="28">
-        <f t="shared" si="27"/>
+      <c r="F225" s="28">
+        <f t="shared" si="37"/>
         <v>3.12</v>
       </c>
-      <c r="G221" s="28">
-        <f t="shared" si="27"/>
+      <c r="G225" s="28">
+        <f t="shared" si="37"/>
         <v>3.12</v>
       </c>
-      <c r="H221" s="28">
-        <f t="shared" si="27"/>
+      <c r="H225" s="28">
+        <f t="shared" si="37"/>
         <v>2.75</v>
       </c>
-      <c r="I221" s="28">
-        <f t="shared" si="27"/>
+      <c r="I225" s="28">
+        <f t="shared" si="37"/>
         <v>5.88</v>
       </c>
-      <c r="J221" s="28">
-        <f t="shared" si="27"/>
+      <c r="J225" s="28">
+        <f t="shared" si="37"/>
         <v>9.6199999999999992</v>
       </c>
-      <c r="K221" s="28">
-        <f t="shared" si="27"/>
+      <c r="K225" s="28">
+        <f t="shared" si="37"/>
         <v>22.33</v>
       </c>
-      <c r="L221" s="28">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M221" s="28">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N221" s="28">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O221" s="28">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A222" s="1">
+      <c r="L225" s="28">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M225" s="28">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N225" s="28">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="O225" s="28">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
         <f>COUNTIF($A$24:$A$176, "*Jackrabbit-Oak*Fixed")</f>
         <v>2</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C222" s="28">
-        <f t="shared" ref="C222:O222" si="28">AVERAGEIF($A$24:$A$176, "*Jackrabbit-Oak*_Fixed", B$24:B$176)</f>
+      <c r="C226" s="28">
+        <f t="shared" ref="C226:O226" si="38">AVERAGEIF($A$24:$A$176, "*Jackrabbit-Oak*_Fixed", B$24:B$176)</f>
         <v>1.62</v>
       </c>
-      <c r="D222" s="28">
-        <f t="shared" si="28"/>
+      <c r="D226" s="28">
+        <f t="shared" si="38"/>
         <v>87</v>
       </c>
-      <c r="E222" s="28">
-        <f t="shared" si="28"/>
+      <c r="E226" s="28">
+        <f t="shared" si="38"/>
         <v>7.12</v>
       </c>
-      <c r="F222" s="28">
-        <f t="shared" si="28"/>
+      <c r="F226" s="28">
+        <f t="shared" si="38"/>
         <v>3.5</v>
       </c>
-      <c r="G222" s="28">
-        <f t="shared" si="28"/>
+      <c r="G226" s="28">
+        <f t="shared" si="38"/>
         <v>3.38</v>
       </c>
-      <c r="H222" s="28">
-        <f t="shared" si="28"/>
+      <c r="H226" s="28">
+        <f t="shared" si="38"/>
         <v>2.88</v>
       </c>
-      <c r="I222" s="28">
-        <f t="shared" si="28"/>
+      <c r="I226" s="28">
+        <f t="shared" si="38"/>
         <v>6.38</v>
       </c>
-      <c r="J222" s="28">
-        <f t="shared" si="28"/>
+      <c r="J226" s="28">
+        <f t="shared" si="38"/>
         <v>10.5</v>
       </c>
-      <c r="K222" s="28">
-        <f t="shared" si="28"/>
+      <c r="K226" s="28">
+        <f t="shared" si="38"/>
         <v>25.41</v>
       </c>
-      <c r="L222" s="28">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M222" s="28">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N222" s="28">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="O222" s="28">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A223" s="1">
+      <c r="L226" s="28">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M226" s="28">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N226" s="28">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O226" s="28">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
         <f>COUNTIF($A$24:$A$176, "*Jackrabbit-Oak*Repaired")</f>
         <v>2</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B227" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C223" s="28">
-        <f t="shared" ref="C223:O223" si="29">AVERAGEIF($A$24:$A$176, "*Jackrabbit-Oak*_Repaired", B$24:B$176)</f>
+      <c r="C227" s="28">
+        <f t="shared" ref="C227:O227" si="39">AVERAGEIF($A$24:$A$176, "*Jackrabbit-Oak*_Repaired", B$24:B$176)</f>
         <v>1.6850000000000001</v>
       </c>
-      <c r="D223" s="28">
-        <f t="shared" si="29"/>
+      <c r="D227" s="28">
+        <f t="shared" si="39"/>
         <v>87.31</v>
       </c>
-      <c r="E223" s="28">
-        <f t="shared" si="29"/>
+      <c r="E227" s="28">
+        <f t="shared" si="39"/>
         <v>6.3100000000000005</v>
       </c>
-      <c r="F223" s="28">
-        <f t="shared" si="29"/>
+      <c r="F227" s="28">
+        <f t="shared" si="39"/>
         <v>3.25</v>
       </c>
-      <c r="G223" s="28">
-        <f t="shared" si="29"/>
+      <c r="G227" s="28">
+        <f t="shared" si="39"/>
         <v>3.25</v>
       </c>
-      <c r="H223" s="28">
-        <f t="shared" si="29"/>
+      <c r="H227" s="28">
+        <f t="shared" si="39"/>
         <v>2.75</v>
       </c>
-      <c r="I223" s="28">
-        <f t="shared" si="29"/>
+      <c r="I227" s="28">
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
-      <c r="J223" s="28">
-        <f t="shared" si="29"/>
+      <c r="J227" s="28">
+        <f t="shared" si="39"/>
         <v>9.5650000000000013</v>
       </c>
-      <c r="K223" s="28">
-        <f t="shared" si="29"/>
+      <c r="K227" s="28">
+        <f t="shared" si="39"/>
         <v>22.880000000000003</v>
       </c>
-      <c r="L223" s="28">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M223" s="28">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N223" s="28">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O223" s="28">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A226" s="26" t="s">
+      <c r="L227" s="28">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="M227" s="28">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N227" s="28">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O227" s="28">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A230" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="B226" s="27"/>
-      <c r="C226" s="29"/>
-      <c r="D226" s="29"/>
-      <c r="E226" s="29"/>
-      <c r="F226" s="29"/>
-      <c r="G226" s="29"/>
-      <c r="H226" s="29"/>
-      <c r="I226" s="29"/>
-      <c r="J226" s="29"/>
-      <c r="K226" s="29"/>
-      <c r="L226" s="29"/>
-      <c r="M226" s="29"/>
-      <c r="N226" s="29"/>
-      <c r="O226" s="29"/>
-    </row>
-    <row r="227" spans="1:15" ht="15" x14ac:dyDescent="0.35">
-      <c r="A227"/>
-      <c r="B227"/>
-      <c r="C227"/>
-      <c r="D227"/>
-      <c r="E227"/>
-      <c r="F227"/>
-      <c r="G227"/>
-      <c r="H227"/>
-      <c r="I227"/>
-      <c r="J227"/>
-      <c r="K227"/>
-      <c r="L227"/>
-      <c r="M227"/>
-      <c r="N227"/>
-      <c r="O227"/>
-    </row>
-    <row r="228" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
-      <c r="A228" s="12" t="s">
+      <c r="B230" s="27"/>
+      <c r="C230" s="29"/>
+      <c r="D230" s="29"/>
+      <c r="E230" s="29"/>
+      <c r="F230" s="29"/>
+      <c r="G230" s="29"/>
+      <c r="H230" s="29"/>
+      <c r="I230" s="29"/>
+      <c r="J230" s="29"/>
+      <c r="K230" s="29"/>
+      <c r="L230" s="29"/>
+      <c r="M230" s="29"/>
+      <c r="N230" s="29"/>
+      <c r="O230" s="29"/>
+    </row>
+    <row r="231" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A231"/>
+      <c r="B231"/>
+      <c r="C231"/>
+      <c r="D231"/>
+      <c r="E231"/>
+      <c r="F231"/>
+      <c r="G231"/>
+      <c r="H231"/>
+      <c r="I231"/>
+      <c r="J231"/>
+      <c r="K231"/>
+      <c r="L231"/>
+      <c r="M231"/>
+      <c r="N231"/>
+      <c r="O231"/>
+    </row>
+    <row r="232" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A232" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B228" s="12" t="s">
+      <c r="B232" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C228" s="12" t="s">
+      <c r="C232" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D228" s="12" t="s">
+      <c r="D232" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E228" s="12" t="s">
+      <c r="E232" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F228" s="12" t="s">
+      <c r="F232" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G228" s="12" t="s">
+      <c r="G232" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="H228" s="12" t="s">
+      <c r="H232" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I228" s="12" t="s">
+      <c r="I232" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="J228" s="12" t="s">
+      <c r="J232" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="K228" s="12" t="s">
+      <c r="K232" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="L228" s="12" t="s">
+      <c r="L232" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="M228" s="12" t="s">
+      <c r="M232" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="N228" s="12" t="s">
+      <c r="N232" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="O228" s="12" t="s">
+      <c r="O232" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A229" s="1">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
         <f>COUNTIF($A$24:$A$176, "Arja*Fixed")</f>
         <v>21</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C229" s="28">
-        <f t="shared" ref="C229:O229" si="30">AVERAGEIF($A$24:$A$176, "Arja*Fixed", B$24:B$176)</f>
+      <c r="C233" s="28">
+        <f t="shared" ref="C233:O233" si="40">AVERAGEIF($A$24:$A$176, "Arja*Fixed", B$24:B$176)</f>
         <v>3.9533333333333331</v>
       </c>
-      <c r="D229" s="28">
-        <f t="shared" si="30"/>
+      <c r="D233" s="28">
+        <f t="shared" si="40"/>
         <v>76.475238095238083</v>
       </c>
-      <c r="E229" s="28">
-        <f t="shared" si="30"/>
+      <c r="E233" s="28">
+        <f t="shared" si="40"/>
         <v>31.231428571428566</v>
       </c>
-      <c r="F229" s="28">
-        <f t="shared" si="30"/>
+      <c r="F233" s="28">
+        <f t="shared" si="40"/>
         <v>7.8638095238095236</v>
       </c>
-      <c r="G229" s="28">
-        <f t="shared" si="30"/>
+      <c r="G233" s="28">
+        <f t="shared" si="40"/>
         <v>19.423333333333332</v>
       </c>
-      <c r="H229" s="28">
-        <f t="shared" si="30"/>
+      <c r="H233" s="28">
+        <f t="shared" si="40"/>
         <v>4.6747619047619038</v>
       </c>
-      <c r="I229" s="28">
-        <f t="shared" si="30"/>
+      <c r="I233" s="28">
+        <f t="shared" si="40"/>
         <v>12.537619047619049</v>
       </c>
-      <c r="J229" s="28">
-        <f t="shared" si="30"/>
+      <c r="J233" s="28">
+        <f t="shared" si="40"/>
         <v>50.656190476190488</v>
       </c>
-      <c r="K229" s="28">
-        <f t="shared" si="30"/>
+      <c r="K233" s="28">
+        <f t="shared" si="40"/>
         <v>76.446190476190466</v>
       </c>
-      <c r="L229" s="28">
-        <f t="shared" si="30"/>
+      <c r="L233" s="28">
+        <f t="shared" si="40"/>
         <v>0.64428571428571413</v>
       </c>
-      <c r="M229" s="28">
-        <f t="shared" si="30"/>
+      <c r="M233" s="28">
+        <f t="shared" si="40"/>
         <v>4.5809523809523814E-2</v>
       </c>
-      <c r="N229" s="28">
-        <f t="shared" si="30"/>
+      <c r="N233" s="28">
+        <f t="shared" si="40"/>
         <v>19.481904761904762</v>
       </c>
-      <c r="O229" s="28">
-        <f t="shared" si="30"/>
+      <c r="O233" s="28">
+        <f t="shared" si="40"/>
         <v>1.0814285714285716</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="30">
+    <row r="234" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A234" s="30">
         <f>COUNTIF($A$24:$A$176, "Arja*Repaired")</f>
         <v>21</v>
       </c>
-      <c r="B230" s="30" t="s">
+      <c r="B234" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="C230" s="31">
-        <f t="shared" ref="C230:O230" si="31">AVERAGEIF($A$24:$A$176, "Arja*Repaired", B$24:B$176)</f>
+      <c r="C234" s="31">
+        <f t="shared" ref="C234:O234" si="41">AVERAGEIF($A$24:$A$176, "Arja*Repaired", B$24:B$176)</f>
         <v>4.0628571428571432</v>
       </c>
-      <c r="D230" s="31">
-        <f t="shared" si="31"/>
+      <c r="D234" s="31">
+        <f t="shared" si="41"/>
         <v>76.583333333333329</v>
       </c>
-      <c r="E230" s="31">
-        <f t="shared" si="31"/>
+      <c r="E234" s="31">
+        <f t="shared" si="41"/>
         <v>31.759999999999998</v>
       </c>
-      <c r="F230" s="31">
-        <f t="shared" si="31"/>
+      <c r="F234" s="31">
+        <f t="shared" si="41"/>
         <v>7.8466666666666667</v>
       </c>
-      <c r="G230" s="31">
-        <f t="shared" si="31"/>
+      <c r="G234" s="31">
+        <f t="shared" si="41"/>
         <v>19.358095238095238</v>
       </c>
-      <c r="H230" s="31">
-        <f t="shared" si="31"/>
+      <c r="H234" s="31">
+        <f t="shared" si="41"/>
         <v>4.6842857142857151</v>
       </c>
-      <c r="I230" s="31">
-        <f t="shared" si="31"/>
+      <c r="I234" s="31">
+        <f t="shared" si="41"/>
         <v>12.530000000000003</v>
       </c>
-      <c r="J230" s="31">
-        <f t="shared" si="31"/>
+      <c r="J234" s="31">
+        <f t="shared" si="41"/>
         <v>51.119047619047606</v>
       </c>
-      <c r="K230" s="31">
-        <f t="shared" si="31"/>
+      <c r="K234" s="31">
+        <f t="shared" si="41"/>
         <v>76.477142857142852</v>
       </c>
-      <c r="L230" s="31">
-        <f t="shared" si="31"/>
+      <c r="L234" s="31">
+        <f t="shared" si="41"/>
         <v>0.64428571428571413</v>
       </c>
-      <c r="M230" s="31">
-        <f t="shared" si="31"/>
+      <c r="M234" s="31">
+        <f t="shared" si="41"/>
         <v>4.5809523809523814E-2</v>
       </c>
-      <c r="N230" s="31">
-        <f t="shared" si="31"/>
+      <c r="N234" s="31">
+        <f t="shared" si="41"/>
         <v>19.481904761904762</v>
       </c>
-      <c r="O230" s="31">
-        <f t="shared" si="31"/>
+      <c r="O234" s="31">
+        <f t="shared" si="41"/>
         <v>1.0814285714285716</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A231" s="1">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
         <f>COUNTIF($A$24:$A$176, "GenProg*Fixed")</f>
         <v>13</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B235" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C231" s="28">
-        <f t="shared" ref="C231:O231" si="32">AVERAGEIF($A$24:$A$176, "GenProg*Fixed", B$24:B$176)</f>
+      <c r="C235" s="28">
+        <f t="shared" ref="C235:O235" si="42">AVERAGEIF($A$24:$A$176, "GenProg*Fixed", B$24:B$176)</f>
         <v>2.9007692307692308</v>
       </c>
-      <c r="D231" s="28">
-        <f t="shared" si="32"/>
+      <c r="D235" s="28">
+        <f t="shared" si="42"/>
         <v>80.19923076923078</v>
       </c>
-      <c r="E231" s="28">
-        <f t="shared" si="32"/>
+      <c r="E235" s="28">
+        <f t="shared" si="42"/>
         <v>18.531538461538464</v>
       </c>
-      <c r="F231" s="28">
-        <f t="shared" si="32"/>
+      <c r="F235" s="28">
+        <f t="shared" si="42"/>
         <v>7.2492307692307696</v>
       </c>
-      <c r="G231" s="28">
-        <f t="shared" si="32"/>
+      <c r="G235" s="28">
+        <f t="shared" si="42"/>
         <v>13.443846153846156</v>
       </c>
-      <c r="H231" s="28">
-        <f t="shared" si="32"/>
+      <c r="H235" s="28">
+        <f t="shared" si="42"/>
         <v>4.37</v>
       </c>
-      <c r="I231" s="28">
-        <f t="shared" si="32"/>
+      <c r="I235" s="28">
+        <f t="shared" si="42"/>
         <v>11.61923076923077</v>
       </c>
-      <c r="J231" s="28">
-        <f t="shared" si="32"/>
+      <c r="J235" s="28">
+        <f t="shared" si="42"/>
         <v>31.976153846153842</v>
       </c>
-      <c r="K231" s="28">
-        <f t="shared" si="32"/>
+      <c r="K235" s="28">
+        <f t="shared" si="42"/>
         <v>60.873076923076937</v>
       </c>
-      <c r="L231" s="28">
-        <f t="shared" si="32"/>
+      <c r="L235" s="28">
+        <f t="shared" si="42"/>
         <v>0.57000000000000006</v>
       </c>
-      <c r="M231" s="28">
-        <f t="shared" si="32"/>
+      <c r="M235" s="28">
+        <f t="shared" si="42"/>
         <v>3.6615384615384619E-2</v>
       </c>
-      <c r="N231" s="28">
-        <f t="shared" si="32"/>
-        <v>19.249166666666667</v>
-      </c>
-      <c r="O231" s="28">
-        <f t="shared" si="32"/>
+      <c r="N235" s="28">
+        <f t="shared" si="42"/>
+        <v>113.23</v>
+      </c>
+      <c r="O235" s="28">
+        <f t="shared" si="42"/>
         <v>6.2876923076923088</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="30">
+    <row r="236" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A236" s="30">
         <f>COUNTIF($A$24:$A$176, "GenProg*Repaired")</f>
         <v>13</v>
       </c>
-      <c r="B232" s="30" t="s">
+      <c r="B236" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="C232" s="31">
-        <f t="shared" ref="C232:O232" si="33">AVERAGEIF($A$24:$A$176, "GenProg*Repaired", B$24:B$176)</f>
+      <c r="C236" s="31">
+        <f t="shared" ref="C236:O236" si="43">AVERAGEIF($A$24:$A$176, "GenProg*Repaired", B$24:B$176)</f>
         <v>2.7846153846153849</v>
       </c>
-      <c r="D232" s="31">
-        <f t="shared" si="33"/>
+      <c r="D236" s="31">
+        <f t="shared" si="43"/>
         <v>80.377692307692314</v>
       </c>
-      <c r="E232" s="31">
-        <f t="shared" si="33"/>
+      <c r="E236" s="31">
+        <f t="shared" si="43"/>
         <v>18.165384615384617</v>
       </c>
-      <c r="F232" s="31">
-        <f t="shared" si="33"/>
+      <c r="F236" s="31">
+        <f t="shared" si="43"/>
         <v>7.3276923076923062</v>
       </c>
-      <c r="G232" s="31">
-        <f t="shared" si="33"/>
+      <c r="G236" s="31">
+        <f t="shared" si="43"/>
         <v>12.911538461538461</v>
       </c>
-      <c r="H232" s="31">
-        <f t="shared" si="33"/>
+      <c r="H236" s="31">
+        <f t="shared" si="43"/>
         <v>4.24</v>
       </c>
-      <c r="I232" s="31">
-        <f t="shared" si="33"/>
+      <c r="I236" s="31">
+        <f t="shared" si="43"/>
         <v>11.56769230769231</v>
       </c>
-      <c r="J232" s="31">
-        <f t="shared" si="33"/>
+      <c r="J236" s="31">
+        <f t="shared" si="43"/>
         <v>31.073076923076922</v>
       </c>
-      <c r="K232" s="31">
-        <f t="shared" si="33"/>
+      <c r="K236" s="31">
+        <f t="shared" si="43"/>
         <v>60.154615384615404</v>
       </c>
-      <c r="L232" s="31">
-        <f t="shared" si="33"/>
+      <c r="L236" s="31">
+        <f t="shared" si="43"/>
         <v>0.57000000000000006</v>
       </c>
-      <c r="M232" s="31">
-        <f t="shared" si="33"/>
+      <c r="M236" s="31">
+        <f t="shared" si="43"/>
         <v>3.6615384615384619E-2</v>
       </c>
-      <c r="N232" s="31">
-        <f t="shared" si="33"/>
-        <v>19.249166666666667</v>
-      </c>
-      <c r="O232" s="31">
-        <f t="shared" si="33"/>
+      <c r="N236" s="31">
+        <f t="shared" si="43"/>
+        <v>113.23</v>
+      </c>
+      <c r="O236" s="31">
+        <f t="shared" si="43"/>
         <v>6.2876923076923088</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A233" s="1">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
         <f>COUNTIF($A$24:$A$176, "Kali*Fixed")</f>
         <v>3</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B237" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C233" s="28">
-        <f t="shared" ref="C233:O233" si="34">AVERAGEIF($A$24:$A$176, "Kali*Fixed", B$24:B$176)</f>
+      <c r="C237" s="28">
+        <f t="shared" ref="C237:O237" si="44">AVERAGEIF($A$24:$A$176, "Kali*Fixed", B$24:B$176)</f>
         <v>2.0333333333333337</v>
       </c>
-      <c r="D233" s="28">
-        <f t="shared" si="34"/>
+      <c r="D237" s="28">
+        <f t="shared" si="44"/>
         <v>84.95</v>
       </c>
-      <c r="E233" s="28">
-        <f t="shared" si="34"/>
+      <c r="E237" s="28">
+        <f t="shared" si="44"/>
         <v>8.9666666666666668</v>
       </c>
-      <c r="F233" s="28">
-        <f t="shared" si="34"/>
+      <c r="F237" s="28">
+        <f t="shared" si="44"/>
         <v>4.7566666666666668</v>
       </c>
-      <c r="G233" s="28">
-        <f t="shared" si="34"/>
+      <c r="G237" s="28">
+        <f t="shared" si="44"/>
         <v>6.22</v>
       </c>
-      <c r="H233" s="28">
-        <f t="shared" si="34"/>
+      <c r="H237" s="28">
+        <f t="shared" si="44"/>
         <v>2.8933333333333331</v>
       </c>
-      <c r="I233" s="28">
-        <f t="shared" si="34"/>
+      <c r="I237" s="28">
+        <f t="shared" si="44"/>
         <v>7.6499999999999995</v>
       </c>
-      <c r="J233" s="28">
-        <f t="shared" si="34"/>
+      <c r="J237" s="28">
+        <f t="shared" si="44"/>
         <v>15.186666666666667</v>
       </c>
-      <c r="K233" s="28">
-        <f t="shared" si="34"/>
+      <c r="K237" s="28">
+        <f t="shared" si="44"/>
         <v>33.646666666666668</v>
       </c>
-      <c r="L233" s="28">
-        <f t="shared" si="34"/>
+      <c r="L237" s="28">
+        <f t="shared" si="44"/>
         <v>0.78333333333333333</v>
       </c>
-      <c r="M233" s="28">
-        <f t="shared" si="34"/>
+      <c r="M237" s="28">
+        <f t="shared" si="44"/>
         <v>4.2666666666666665E-2</v>
       </c>
-      <c r="N233" s="28">
-        <f t="shared" si="34"/>
+      <c r="N237" s="28">
+        <f t="shared" si="44"/>
         <v>32.659999999999997</v>
       </c>
-      <c r="O233" s="28">
-        <f t="shared" si="34"/>
+      <c r="O237" s="28">
+        <f t="shared" si="44"/>
         <v>1.8133333333333335</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="30">
+    <row r="238" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A238" s="30">
         <f>COUNTIF($A$24:$A$176, "Kali*Repaired")</f>
         <v>3</v>
       </c>
-      <c r="B234" s="30" t="s">
+      <c r="B238" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="C234" s="31">
-        <f t="shared" ref="C234:O234" si="35">AVERAGEIF($A$24:$A$176, "Kali*Repaired", B$24:B$176)</f>
+      <c r="C238" s="31">
+        <f t="shared" ref="C238:O238" si="45">AVERAGEIF($A$24:$A$176, "Kali*Repaired", B$24:B$176)</f>
         <v>2.0066666666666664</v>
       </c>
-      <c r="D234" s="31">
-        <f t="shared" si="35"/>
+      <c r="D238" s="31">
+        <f t="shared" si="45"/>
         <v>85.096666666666678</v>
       </c>
-      <c r="E234" s="31">
-        <f t="shared" si="35"/>
+      <c r="E238" s="31">
+        <f t="shared" si="45"/>
         <v>8.4600000000000009</v>
       </c>
-      <c r="F234" s="31">
-        <f t="shared" si="35"/>
+      <c r="F238" s="31">
+        <f t="shared" si="45"/>
         <v>4.7433333333333332</v>
       </c>
-      <c r="G234" s="31">
-        <f t="shared" si="35"/>
+      <c r="G238" s="31">
+        <f t="shared" si="45"/>
         <v>5.9233333333333329</v>
       </c>
-      <c r="H234" s="31">
-        <f t="shared" si="35"/>
+      <c r="H238" s="31">
+        <f t="shared" si="45"/>
         <v>2.7766666666666668</v>
       </c>
-      <c r="I234" s="31">
-        <f t="shared" si="35"/>
+      <c r="I238" s="31">
+        <f t="shared" si="45"/>
         <v>7.5166666666666666</v>
       </c>
-      <c r="J234" s="31">
-        <f t="shared" si="35"/>
+      <c r="J238" s="31">
+        <f t="shared" si="45"/>
         <v>14.383333333333335</v>
       </c>
-      <c r="K234" s="31">
-        <f t="shared" si="35"/>
+      <c r="K238" s="31">
+        <f t="shared" si="45"/>
         <v>32.49</v>
       </c>
-      <c r="L234" s="31">
-        <f t="shared" si="35"/>
+      <c r="L238" s="31">
+        <f t="shared" si="45"/>
         <v>0.78333333333333333</v>
       </c>
-      <c r="M234" s="31">
-        <f t="shared" si="35"/>
+      <c r="M238" s="31">
+        <f t="shared" si="45"/>
         <v>4.2666666666666665E-2</v>
       </c>
-      <c r="N234" s="31">
-        <f t="shared" si="35"/>
+      <c r="N238" s="31">
+        <f t="shared" si="45"/>
         <v>32.659999999999997</v>
       </c>
-      <c r="O234" s="31">
-        <f t="shared" si="35"/>
+      <c r="O238" s="31">
+        <f t="shared" si="45"/>
         <v>1.8133333333333335</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A235" s="1">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
         <f>COUNTIF($A$24:$A$176, "Nopol*Fixed")</f>
         <v>1</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B239" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C235" s="28">
-        <f t="shared" ref="C235:O235" si="36">AVERAGEIF($A$24:$A$176, "Nopol*Fixed", B$24:B$176)</f>
+      <c r="C239" s="28">
+        <f t="shared" ref="C239:O239" si="46">AVERAGEIF($A$24:$A$176, "Nopol*Fixed", B$24:B$176)</f>
         <v>3.29</v>
       </c>
-      <c r="D235" s="28">
-        <f t="shared" si="36"/>
+      <c r="D239" s="28">
+        <f t="shared" si="46"/>
         <v>75.73</v>
       </c>
-      <c r="E235" s="28">
-        <f t="shared" si="36"/>
+      <c r="E239" s="28">
+        <f t="shared" si="46"/>
         <v>20.88</v>
       </c>
-      <c r="F235" s="28">
-        <f t="shared" si="36"/>
+      <c r="F239" s="28">
+        <f t="shared" si="46"/>
         <v>8.51</v>
       </c>
-      <c r="G235" s="28">
-        <f t="shared" si="36"/>
+      <c r="G239" s="28">
+        <f t="shared" si="46"/>
         <v>16.670000000000002</v>
       </c>
-      <c r="H235" s="28">
-        <f t="shared" si="36"/>
+      <c r="H239" s="28">
+        <f t="shared" si="46"/>
         <v>5.0199999999999996</v>
       </c>
-      <c r="I235" s="28">
-        <f t="shared" si="36"/>
+      <c r="I239" s="28">
+        <f t="shared" si="46"/>
         <v>13.53</v>
       </c>
-      <c r="J235" s="28">
-        <f t="shared" si="36"/>
+      <c r="J239" s="28">
+        <f t="shared" si="46"/>
         <v>37.549999999999997</v>
       </c>
-      <c r="K235" s="28">
-        <f t="shared" si="36"/>
+      <c r="K239" s="28">
+        <f t="shared" si="46"/>
         <v>73.849999999999994</v>
       </c>
-      <c r="L235" s="28">
-        <f t="shared" si="36"/>
+      <c r="L239" s="28">
+        <f t="shared" si="46"/>
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="M235" s="28">
-        <f t="shared" si="36"/>
+      <c r="M239" s="28">
+        <f t="shared" si="46"/>
         <v>3.9E-2</v>
       </c>
-      <c r="N235" s="28">
-        <f t="shared" si="36"/>
+      <c r="N239" s="28">
+        <f t="shared" si="46"/>
         <v>2.4300000000000002</v>
       </c>
-      <c r="O235" s="28">
-        <f t="shared" si="36"/>
+      <c r="O239" s="28">
+        <f t="shared" si="46"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="30">
+    <row r="240" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A240" s="30">
         <f>COUNTIF($A$24:$A$176, "Nopol*Repaired")</f>
         <v>1</v>
       </c>
-      <c r="B236" s="30" t="s">
+      <c r="B240" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="C236" s="31">
-        <f t="shared" ref="C236:O236" si="37">AVERAGEIF($A$24:$A$176, "Nopol*Repaired", B$24:B$176)</f>
+      <c r="C240" s="31">
+        <f t="shared" ref="C240:O240" si="47">AVERAGEIF($A$24:$A$176, "Nopol*Repaired", B$24:B$176)</f>
         <v>3.59</v>
       </c>
-      <c r="D236" s="31">
-        <f t="shared" si="37"/>
+      <c r="D240" s="31">
+        <f t="shared" si="47"/>
         <v>75.3</v>
       </c>
-      <c r="E236" s="31">
-        <f t="shared" si="37"/>
+      <c r="E240" s="31">
+        <f t="shared" si="47"/>
         <v>21.44</v>
       </c>
-      <c r="F236" s="31">
-        <f t="shared" si="37"/>
+      <c r="F240" s="31">
+        <f t="shared" si="47"/>
         <v>8.61</v>
       </c>
-      <c r="G236" s="31">
-        <f t="shared" si="37"/>
+      <c r="G240" s="31">
+        <f t="shared" si="47"/>
         <v>17.2</v>
       </c>
-      <c r="H236" s="31">
-        <f t="shared" si="37"/>
+      <c r="H240" s="31">
+        <f t="shared" si="47"/>
         <v>5.31</v>
       </c>
-      <c r="I236" s="31">
-        <f t="shared" si="37"/>
+      <c r="I240" s="31">
+        <f t="shared" si="47"/>
         <v>13.93</v>
       </c>
-      <c r="J236" s="31">
-        <f t="shared" si="37"/>
+      <c r="J240" s="31">
+        <f t="shared" si="47"/>
         <v>38.65</v>
       </c>
-      <c r="K236" s="31">
-        <f t="shared" si="37"/>
+      <c r="K240" s="31">
+        <f t="shared" si="47"/>
         <v>76.17</v>
       </c>
-      <c r="L236" s="31">
-        <f t="shared" si="37"/>
+      <c r="L240" s="31">
+        <f t="shared" si="47"/>
         <v>0.26</v>
       </c>
-      <c r="M236" s="31">
-        <f t="shared" si="37"/>
+      <c r="M240" s="31">
+        <f t="shared" si="47"/>
         <v>3.9E-2</v>
       </c>
-      <c r="N236" s="31">
-        <f t="shared" si="37"/>
+      <c r="N240" s="31">
+        <f t="shared" si="47"/>
         <v>5.57</v>
       </c>
-      <c r="O236" s="31">
-        <f t="shared" si="37"/>
+      <c r="O240" s="31">
+        <f t="shared" si="47"/>
         <v>0.31</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A237" s="1">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
         <f>COUNTIF($A$24:$A$176, "RSRepair*Fixed")</f>
         <v>8</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B241" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C237" s="28">
-        <f t="shared" ref="C237:O237" si="38">AVERAGEIF($A$24:$A$176, "RSRepair*Fixed", B$24:B$176)</f>
+      <c r="C241" s="28">
+        <f t="shared" ref="C241:O241" si="48">AVERAGEIF($A$24:$A$176, "RSRepair*Fixed", B$24:B$176)</f>
         <v>3.6725000000000003</v>
       </c>
-      <c r="D237" s="28">
-        <f t="shared" si="38"/>
+      <c r="D241" s="28">
+        <f t="shared" si="48"/>
         <v>76.286249999999995</v>
       </c>
-      <c r="E237" s="28">
-        <f t="shared" si="38"/>
+      <c r="E241" s="28">
+        <f t="shared" si="48"/>
         <v>27.195</v>
       </c>
-      <c r="F237" s="28">
-        <f t="shared" si="38"/>
+      <c r="F241" s="28">
+        <f t="shared" si="48"/>
         <v>8.1512499999999992</v>
       </c>
-      <c r="G237" s="28">
-        <f t="shared" si="38"/>
+      <c r="G241" s="28">
+        <f t="shared" si="48"/>
         <v>17.8</v>
       </c>
-      <c r="H237" s="28">
-        <f t="shared" si="38"/>
+      <c r="H241" s="28">
+        <f t="shared" si="48"/>
         <v>4.6725000000000003</v>
       </c>
-      <c r="I237" s="28">
-        <f t="shared" si="38"/>
+      <c r="I241" s="28">
+        <f t="shared" si="48"/>
         <v>12.823750000000002</v>
       </c>
-      <c r="J237" s="28">
-        <f t="shared" si="38"/>
+      <c r="J241" s="28">
+        <f t="shared" si="48"/>
         <v>44.994999999999997</v>
       </c>
-      <c r="K237" s="28">
-        <f t="shared" si="38"/>
+      <c r="K241" s="28">
+        <f t="shared" si="48"/>
         <v>74.61375000000001</v>
       </c>
-      <c r="L237" s="28">
-        <f t="shared" si="38"/>
+      <c r="L241" s="28">
+        <f t="shared" si="48"/>
         <v>0.48875000000000002</v>
       </c>
-      <c r="M237" s="28">
-        <f t="shared" si="38"/>
+      <c r="M241" s="28">
+        <f t="shared" si="48"/>
         <v>3.5500000000000004E-2</v>
       </c>
-      <c r="N237" s="28">
-        <f t="shared" si="38"/>
+      <c r="N241" s="28">
+        <f t="shared" si="48"/>
         <v>19.6175</v>
       </c>
-      <c r="O237" s="28">
-        <f t="shared" si="38"/>
+      <c r="O241" s="28">
+        <f t="shared" si="48"/>
         <v>1.0899999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="30">
+    <row r="242" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A242" s="30">
         <f>COUNTIF($A$24:$A$176, "RSRepair*Repaired")</f>
         <v>8</v>
       </c>
-      <c r="B238" s="30" t="s">
+      <c r="B242" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C238" s="31">
-        <f t="shared" ref="C238:O238" si="39">AVERAGEIF($A$24:$A$176, "RSRepair*Repaired", B$24:B$176)</f>
+      <c r="C242" s="31">
+        <f t="shared" ref="C242:O242" si="49">AVERAGEIF($A$24:$A$176, "RSRepair*Repaired", B$24:B$176)</f>
         <v>3.5812500000000003</v>
       </c>
-      <c r="D238" s="31">
-        <f t="shared" si="39"/>
+      <c r="D242" s="31">
+        <f t="shared" si="49"/>
         <v>76.556249999999991</v>
       </c>
-      <c r="E238" s="31">
-        <f t="shared" si="39"/>
+      <c r="E242" s="31">
+        <f t="shared" si="49"/>
         <v>26.94875</v>
       </c>
-      <c r="F238" s="31">
-        <f t="shared" si="39"/>
+      <c r="F242" s="31">
+        <f t="shared" si="49"/>
         <v>8.1187499999999986</v>
       </c>
-      <c r="G238" s="31">
-        <f t="shared" si="39"/>
+      <c r="G242" s="31">
+        <f t="shared" si="49"/>
         <v>17.056249999999999</v>
       </c>
-      <c r="H238" s="31">
-        <f t="shared" si="39"/>
+      <c r="H242" s="31">
+        <f t="shared" si="49"/>
         <v>4.5374999999999996</v>
       </c>
-      <c r="I238" s="31">
-        <f t="shared" si="39"/>
+      <c r="I242" s="31">
+        <f t="shared" si="49"/>
         <v>12.65625</v>
       </c>
-      <c r="J238" s="31">
-        <f t="shared" si="39"/>
+      <c r="J242" s="31">
+        <f t="shared" si="49"/>
         <v>44.002499999999998</v>
       </c>
-      <c r="K238" s="31">
-        <f t="shared" si="39"/>
+      <c r="K242" s="31">
+        <f t="shared" si="49"/>
         <v>73.032500000000013</v>
       </c>
-      <c r="L238" s="31">
-        <f t="shared" si="39"/>
+      <c r="L242" s="31">
+        <f t="shared" si="49"/>
         <v>0.48875000000000002</v>
       </c>
-      <c r="M238" s="31">
-        <f t="shared" si="39"/>
+      <c r="M242" s="31">
+        <f t="shared" si="49"/>
         <v>3.5500000000000004E-2</v>
       </c>
-      <c r="N238" s="31">
-        <f t="shared" si="39"/>
+      <c r="N242" s="31">
+        <f t="shared" si="49"/>
         <v>19.6175</v>
       </c>
-      <c r="O238" s="31">
-        <f t="shared" si="39"/>
+      <c r="O242" s="31">
+        <f t="shared" si="49"/>
         <v>1.0899999999999999</v>
       </c>
     </row>
@@ -16794,7 +16798,7 @@
       <formula>$P$75</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C217:O217 C222:O222 C190:O190 C197:O197 C201:O201 C205:O205 C209:O209 T197:AF197 T201:AF201 T205:AF205 T209:AF209 T213:AF213 C229:O229 C231:O231 C233:O233 C235:O235 C237:O237">
+  <conditionalFormatting sqref="C221:O221 C226:O226 C190:O190 C197:O197 C201:O201 C205:O205 C209:O209 T197:AF197 T201:AF201 T205:AF205 T209:AF209 C213:O213 C233:O233 C235:O235 C237:O237 C239:O239 C241:O241">
     <cfRule type="cellIs" dxfId="3" priority="53" operator="greaterThan">
       <formula>C191</formula>
     </cfRule>
@@ -16802,7 +16806,7 @@
       <formula>C191</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C218:O218 C223:O223 C191:O191 C198:O198 C202:O202 C206:O206 C210:O210 T198:AF198 T202:AF202 T206:AF206 T210:AF210 T214:AF214 C230:O230 C232:O232 C234:O234 C236:O236 C238:O238">
+  <conditionalFormatting sqref="C222:O222 C227:O227 C191:O191 C198:O198 C202:O202 C206:O206 C210:O210 T198:AF198 T202:AF202 T206:AF206 T210:AF210 C214:O214 C234:O234 C236:O236 C238:O238 C240:O240 C242:O242">
     <cfRule type="cellIs" dxfId="1" priority="54" operator="greaterThan">
       <formula>C190</formula>
     </cfRule>
